--- a/Table/Table_xls/x循环任务/x循环任务-挑战类分表.xlsx
+++ b/Table/Table_xls/x循环任务/x循环任务-挑战类分表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13065"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -41,11 +40,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 0=所有门派</t>
         </r>
       </text>
@@ -55,11 +53,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">挂载挑战类服务NPC的ID</t>
+          <t>挂载挑战类服务NPC的ID</t>
         </r>
       </text>
     </comment>
@@ -68,11 +65,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">user:暗夜马戏团挑战使用</t>
+          <t>user:暗夜马戏团挑战使用</t>
         </r>
       </text>
     </comment>
@@ -81,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="355">
   <si>
     <t>挑战类id</t>
   </si>
@@ -927,6 +923,225 @@
   </si>
   <si>
     <t>3247@100</t>
+  </si>
+  <si>
+    <t>310003@100</t>
+  </si>
+  <si>
+    <t>3200@100</t>
+  </si>
+  <si>
+    <t>310004@100</t>
+  </si>
+  <si>
+    <t>3201@100</t>
+  </si>
+  <si>
+    <t>310005@100</t>
+  </si>
+  <si>
+    <t>3202@100</t>
+  </si>
+  <si>
+    <t>310006@100</t>
+  </si>
+  <si>
+    <t>3203@100</t>
+  </si>
+  <si>
+    <t>310007@100</t>
+  </si>
+  <si>
+    <t>3204@100</t>
+  </si>
+  <si>
+    <t>310008@100</t>
+  </si>
+  <si>
+    <t>3205@100</t>
+  </si>
+  <si>
+    <t>310009@100</t>
+  </si>
+  <si>
+    <t>3206@100</t>
+  </si>
+  <si>
+    <t>310010@100</t>
+  </si>
+  <si>
+    <t>3207@100</t>
+  </si>
+  <si>
+    <t>310011@100</t>
+  </si>
+  <si>
+    <t>3208@100</t>
+  </si>
+  <si>
+    <t>310012@100</t>
+  </si>
+  <si>
+    <t>3209@100</t>
+  </si>
+  <si>
+    <t>310089@100</t>
+  </si>
+  <si>
+    <t>3237@100</t>
+  </si>
+  <si>
+    <t>310090@100</t>
+  </si>
+  <si>
+    <t>3238@100</t>
+  </si>
+  <si>
+    <t>310091@100</t>
+  </si>
+  <si>
+    <t>3239@100</t>
+  </si>
+  <si>
+    <t>310092@100</t>
+  </si>
+  <si>
+    <t>3240@100</t>
+  </si>
+  <si>
+    <t>310093@100</t>
+  </si>
+  <si>
+    <t>3241@100</t>
+  </si>
+  <si>
+    <t>310094@100</t>
+  </si>
+  <si>
+    <t>3242@100</t>
+  </si>
+  <si>
+    <t>310095@100</t>
+  </si>
+  <si>
+    <t>3243@100</t>
+  </si>
+  <si>
+    <t>310096@100</t>
+  </si>
+  <si>
+    <t>3244@100</t>
+  </si>
+  <si>
+    <t>310097@100</t>
+  </si>
+  <si>
+    <t>3245@100</t>
+  </si>
+  <si>
+    <t>310098@100</t>
+  </si>
+  <si>
+    <t>3246@100</t>
+  </si>
+  <si>
+    <t>310100@100</t>
+  </si>
+  <si>
+    <t>3210@100</t>
+  </si>
+  <si>
+    <t>310101@100</t>
+  </si>
+  <si>
+    <t>310102@100</t>
+  </si>
+  <si>
+    <t>310103@100</t>
+  </si>
+  <si>
+    <t>310104@100</t>
+  </si>
+  <si>
+    <t>310105@100</t>
+  </si>
+  <si>
+    <t>310106@100</t>
+  </si>
+  <si>
+    <t>310107@100</t>
+  </si>
+  <si>
+    <t>310108@100</t>
+  </si>
+  <si>
+    <t>310109@100</t>
+  </si>
+  <si>
+    <t>310110@100</t>
+  </si>
+  <si>
+    <t>310111@100</t>
+  </si>
+  <si>
+    <t>3211@100</t>
+  </si>
+  <si>
+    <t>310112@100</t>
+  </si>
+  <si>
+    <t>310113@100</t>
+  </si>
+  <si>
+    <t>310114@100</t>
+  </si>
+  <si>
+    <t>310115@100</t>
+  </si>
+  <si>
+    <t>310116@100</t>
+  </si>
+  <si>
+    <t>310117@100</t>
+  </si>
+  <si>
+    <t>310118@100</t>
+  </si>
+  <si>
+    <t>310119@100</t>
+  </si>
+  <si>
+    <t>310120@100</t>
+  </si>
+  <si>
+    <t>310121@100</t>
+  </si>
+  <si>
+    <t>3212@100</t>
+  </si>
+  <si>
+    <t>310122@100</t>
+  </si>
+  <si>
+    <t>310123@100</t>
+  </si>
+  <si>
+    <t>310124@100</t>
+  </si>
+  <si>
+    <t>310125@100</t>
+  </si>
+  <si>
+    <t>310126@100</t>
+  </si>
+  <si>
+    <t>310127@100</t>
+  </si>
+  <si>
+    <t>310128@100</t>
+  </si>
+  <si>
+    <t>310129@100</t>
   </si>
 </sst>
 </file>
@@ -934,12 +1149,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -971,18 +1186,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -995,7 +1203,51 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1003,22 +1255,42 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1033,15 +1305,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1054,21 +1328,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1081,57 +1341,35 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1153,7 +1391,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1165,13 +1499,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1183,19 +1517,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1213,127 +1559,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1349,9 +1581,50 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1395,52 +1668,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1449,156 +1681,165 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1606,26 +1847,43 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1681,6 +1939,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2007,27 +2270,30 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H236"/>
+  <dimension ref="A1:J286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="Q222" sqref="Q222"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B235" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="B237" sqref="B237:B256"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.125" customWidth="1"/>
+    <col min="1" max="1" width="13.1296296296296" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="11.125" customWidth="1"/>
-    <col min="4" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="64.875" customWidth="1"/>
-    <col min="7" max="7" width="17.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1296296296296" customWidth="1"/>
+    <col min="4" max="5" width="9" style="4"/>
+    <col min="6" max="6" width="64.8796296296296" customWidth="1"/>
+    <col min="7" max="7" width="17.25" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2040,16 +2306,16 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
@@ -2075,7 +2341,7 @@
       <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2098,7 +2364,7 @@
       <c r="F3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2121,7 +2387,7 @@
       <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2144,7 +2410,7 @@
       <c r="F5" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2167,7 +2433,7 @@
       <c r="F6" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2190,7 +2456,7 @@
       <c r="F7" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2213,7 +2479,7 @@
       <c r="F8" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2236,7 +2502,7 @@
       <c r="F9" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2365,10 +2631,10 @@
       <c r="C15">
         <v>0</v>
       </c>
-      <c r="D15" s="3">
-        <v>40</v>
-      </c>
-      <c r="E15" s="3">
+      <c r="D15" s="6">
+        <v>40</v>
+      </c>
+      <c r="E15" s="6">
         <v>155</v>
       </c>
       <c r="F15" t="s">
@@ -2388,10 +2654,10 @@
       <c r="C16">
         <v>0</v>
       </c>
-      <c r="D16" s="3">
-        <v>40</v>
-      </c>
-      <c r="E16" s="3">
+      <c r="D16" s="6">
+        <v>40</v>
+      </c>
+      <c r="E16" s="6">
         <v>155</v>
       </c>
       <c r="F16" t="s">
@@ -2411,10 +2677,10 @@
       <c r="C17">
         <v>0</v>
       </c>
-      <c r="D17" s="3">
-        <v>40</v>
-      </c>
-      <c r="E17" s="3">
+      <c r="D17" s="6">
+        <v>40</v>
+      </c>
+      <c r="E17" s="6">
         <v>155</v>
       </c>
       <c r="F17" t="s">
@@ -2434,10 +2700,10 @@
       <c r="C18">
         <v>0</v>
       </c>
-      <c r="D18" s="3">
-        <v>40</v>
-      </c>
-      <c r="E18" s="3">
+      <c r="D18" s="6">
+        <v>40</v>
+      </c>
+      <c r="E18" s="6">
         <v>155</v>
       </c>
       <c r="F18" t="s">
@@ -2457,10 +2723,10 @@
       <c r="C19">
         <v>0</v>
       </c>
-      <c r="D19" s="3">
-        <v>40</v>
-      </c>
-      <c r="E19" s="3">
+      <c r="D19" s="6">
+        <v>40</v>
+      </c>
+      <c r="E19" s="6">
         <v>155</v>
       </c>
       <c r="F19" t="s">
@@ -2480,10 +2746,10 @@
       <c r="C20">
         <v>0</v>
       </c>
-      <c r="D20" s="3">
-        <v>40</v>
-      </c>
-      <c r="E20" s="3">
+      <c r="D20" s="6">
+        <v>40</v>
+      </c>
+      <c r="E20" s="6">
         <v>155</v>
       </c>
       <c r="F20" t="s">
@@ -2497,7 +2763,7 @@
       <c r="A21">
         <v>21</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="7">
         <v>11</v>
       </c>
       <c r="C21">
@@ -2512,7 +2778,7 @@
       <c r="F21" t="s">
         <v>40</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="8" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2520,7 +2786,7 @@
       <c r="A22">
         <v>22</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="7">
         <v>12</v>
       </c>
       <c r="C22">
@@ -2543,7 +2809,7 @@
       <c r="A23">
         <v>23</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="7">
         <v>13</v>
       </c>
       <c r="C23">
@@ -2566,7 +2832,7 @@
       <c r="A24">
         <v>24</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="7">
         <v>14</v>
       </c>
       <c r="C24">
@@ -2589,7 +2855,7 @@
       <c r="A25">
         <v>25</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="7">
         <v>15</v>
       </c>
       <c r="C25">
@@ -2612,7 +2878,7 @@
       <c r="A26">
         <v>26</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="7">
         <v>16</v>
       </c>
       <c r="C26">
@@ -2635,7 +2901,7 @@
       <c r="A27">
         <v>27</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="7">
         <v>17</v>
       </c>
       <c r="C27">
@@ -2658,7 +2924,7 @@
       <c r="A28">
         <v>28</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="7">
         <v>18</v>
       </c>
       <c r="C28">
@@ -2681,7 +2947,7 @@
       <c r="A29">
         <v>29</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="7">
         <v>19</v>
       </c>
       <c r="C29">
@@ -2704,7 +2970,7 @@
       <c r="A30">
         <v>30</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="7">
         <v>20</v>
       </c>
       <c r="C30">
@@ -2727,7 +2993,7 @@
       <c r="A31">
         <v>31</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="7">
         <v>21</v>
       </c>
       <c r="C31">
@@ -2756,10 +3022,10 @@
       <c r="C32">
         <v>0</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="4">
         <v>30</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="4">
         <v>50</v>
       </c>
       <c r="F32" t="s">
@@ -2779,10 +3045,10 @@
       <c r="C33">
         <v>0</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="4">
         <v>50</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="4">
         <v>70</v>
       </c>
       <c r="F33" t="s">
@@ -2802,10 +3068,10 @@
       <c r="C34">
         <v>0</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="4">
         <v>70</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="4">
         <v>99</v>
       </c>
       <c r="F34" t="s">
@@ -2815,7 +3081,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" ht="14.25" spans="1:8">
+    <row r="35" ht="15.6" spans="1:8">
       <c r="A35">
         <v>35</v>
       </c>
@@ -2825,23 +3091,23 @@
       <c r="C35">
         <v>0</v>
       </c>
-      <c r="D35" s="3">
-        <v>40</v>
-      </c>
-      <c r="E35" s="3">
-        <v>155</v>
-      </c>
-      <c r="F35" s="6" t="s">
+      <c r="D35" s="6">
+        <v>40</v>
+      </c>
+      <c r="E35" s="6">
+        <v>155</v>
+      </c>
+      <c r="F35" s="9" t="s">
         <v>68</v>
       </c>
       <c r="G35" t="s">
         <v>69</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H35" s="10">
         <v>100191</v>
       </c>
     </row>
-    <row r="36" ht="14.25" spans="1:8">
+    <row r="36" ht="15.6" spans="1:8">
       <c r="A36">
         <v>36</v>
       </c>
@@ -2851,23 +3117,23 @@
       <c r="C36">
         <v>0</v>
       </c>
-      <c r="D36" s="3">
-        <v>40</v>
-      </c>
-      <c r="E36" s="3">
-        <v>155</v>
-      </c>
-      <c r="F36" s="6" t="s">
+      <c r="D36" s="6">
+        <v>40</v>
+      </c>
+      <c r="E36" s="6">
+        <v>155</v>
+      </c>
+      <c r="F36" s="9" t="s">
         <v>70</v>
       </c>
       <c r="G36" t="s">
         <v>71</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H36" s="10">
         <v>100192</v>
       </c>
     </row>
-    <row r="37" ht="14.25" spans="1:8">
+    <row r="37" ht="15.6" spans="1:8">
       <c r="A37">
         <v>37</v>
       </c>
@@ -2877,23 +3143,23 @@
       <c r="C37">
         <v>0</v>
       </c>
-      <c r="D37" s="3">
-        <v>40</v>
-      </c>
-      <c r="E37" s="3">
-        <v>155</v>
-      </c>
-      <c r="F37" s="6" t="s">
+      <c r="D37" s="6">
+        <v>40</v>
+      </c>
+      <c r="E37" s="6">
+        <v>155</v>
+      </c>
+      <c r="F37" s="9" t="s">
         <v>72</v>
       </c>
       <c r="G37" t="s">
         <v>73</v>
       </c>
-      <c r="H37" s="7">
+      <c r="H37" s="10">
         <v>100193</v>
       </c>
     </row>
-    <row r="38" ht="14.25" spans="1:8">
+    <row r="38" ht="15.6" spans="1:8">
       <c r="A38">
         <v>38</v>
       </c>
@@ -2903,23 +3169,23 @@
       <c r="C38">
         <v>0</v>
       </c>
-      <c r="D38" s="3">
-        <v>40</v>
-      </c>
-      <c r="E38" s="3">
-        <v>155</v>
-      </c>
-      <c r="F38" s="6" t="s">
+      <c r="D38" s="6">
+        <v>40</v>
+      </c>
+      <c r="E38" s="6">
+        <v>155</v>
+      </c>
+      <c r="F38" s="9" t="s">
         <v>74</v>
       </c>
       <c r="G38" t="s">
         <v>75</v>
       </c>
-      <c r="H38" s="7">
+      <c r="H38" s="10">
         <v>100194</v>
       </c>
     </row>
-    <row r="39" ht="14.25" spans="1:8">
+    <row r="39" ht="15.6" spans="1:8">
       <c r="A39">
         <v>39</v>
       </c>
@@ -2929,23 +3195,23 @@
       <c r="C39">
         <v>0</v>
       </c>
-      <c r="D39" s="3">
-        <v>40</v>
-      </c>
-      <c r="E39" s="3">
-        <v>155</v>
-      </c>
-      <c r="F39" s="6" t="s">
+      <c r="D39" s="6">
+        <v>40</v>
+      </c>
+      <c r="E39" s="6">
+        <v>155</v>
+      </c>
+      <c r="F39" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G39" t="s">
         <v>77</v>
       </c>
-      <c r="H39" s="7">
+      <c r="H39" s="10">
         <v>100195</v>
       </c>
     </row>
-    <row r="40" ht="14.25" spans="1:8">
+    <row r="40" ht="15.6" spans="1:8">
       <c r="A40">
         <v>40</v>
       </c>
@@ -2955,23 +3221,23 @@
       <c r="C40">
         <v>0</v>
       </c>
-      <c r="D40" s="3">
-        <v>40</v>
-      </c>
-      <c r="E40" s="3">
-        <v>155</v>
-      </c>
-      <c r="F40" s="6" t="s">
+      <c r="D40" s="6">
+        <v>40</v>
+      </c>
+      <c r="E40" s="6">
+        <v>155</v>
+      </c>
+      <c r="F40" s="9" t="s">
         <v>78</v>
       </c>
       <c r="G40" t="s">
         <v>79</v>
       </c>
-      <c r="H40" s="7">
+      <c r="H40" s="10">
         <v>100196</v>
       </c>
     </row>
-    <row r="41" ht="14.25" spans="1:8">
+    <row r="41" ht="15.6" spans="1:8">
       <c r="A41">
         <v>41</v>
       </c>
@@ -2981,23 +3247,23 @@
       <c r="C41">
         <v>0</v>
       </c>
-      <c r="D41" s="3">
-        <v>40</v>
-      </c>
-      <c r="E41" s="3">
-        <v>155</v>
-      </c>
-      <c r="F41" s="6" t="s">
+      <c r="D41" s="6">
+        <v>40</v>
+      </c>
+      <c r="E41" s="6">
+        <v>155</v>
+      </c>
+      <c r="F41" s="9" t="s">
         <v>80</v>
       </c>
       <c r="G41" t="s">
         <v>81</v>
       </c>
-      <c r="H41" s="7">
+      <c r="H41" s="10">
         <v>100197</v>
       </c>
     </row>
-    <row r="42" ht="14.25" spans="1:8">
+    <row r="42" ht="15.6" spans="1:8">
       <c r="A42">
         <v>42</v>
       </c>
@@ -3007,23 +3273,23 @@
       <c r="C42">
         <v>0</v>
       </c>
-      <c r="D42" s="3">
-        <v>40</v>
-      </c>
-      <c r="E42" s="3">
-        <v>155</v>
-      </c>
-      <c r="F42" s="6" t="s">
+      <c r="D42" s="6">
+        <v>40</v>
+      </c>
+      <c r="E42" s="6">
+        <v>155</v>
+      </c>
+      <c r="F42" s="9" t="s">
         <v>82</v>
       </c>
       <c r="G42" t="s">
         <v>83</v>
       </c>
-      <c r="H42" s="7">
+      <c r="H42" s="10">
         <v>100198</v>
       </c>
     </row>
-    <row r="43" ht="14.25" spans="1:8">
+    <row r="43" ht="15.6" spans="1:8">
       <c r="A43">
         <v>43</v>
       </c>
@@ -3033,23 +3299,23 @@
       <c r="C43">
         <v>0</v>
       </c>
-      <c r="D43" s="3">
-        <v>40</v>
-      </c>
-      <c r="E43" s="3">
-        <v>155</v>
-      </c>
-      <c r="F43" s="6" t="s">
+      <c r="D43" s="6">
+        <v>40</v>
+      </c>
+      <c r="E43" s="6">
+        <v>155</v>
+      </c>
+      <c r="F43" s="9" t="s">
         <v>84</v>
       </c>
       <c r="G43" t="s">
         <v>85</v>
       </c>
-      <c r="H43" s="7">
+      <c r="H43" s="10">
         <v>100199</v>
       </c>
     </row>
-    <row r="44" ht="14.25" spans="1:8">
+    <row r="44" ht="15.6" spans="1:8">
       <c r="A44">
         <v>44</v>
       </c>
@@ -3059,23 +3325,23 @@
       <c r="C44">
         <v>0</v>
       </c>
-      <c r="D44" s="3">
-        <v>40</v>
-      </c>
-      <c r="E44" s="3">
-        <v>155</v>
-      </c>
-      <c r="F44" s="6" t="s">
+      <c r="D44" s="6">
+        <v>40</v>
+      </c>
+      <c r="E44" s="6">
+        <v>155</v>
+      </c>
+      <c r="F44" s="9" t="s">
         <v>86</v>
       </c>
       <c r="G44" t="s">
         <v>87</v>
       </c>
-      <c r="H44" s="7">
+      <c r="H44" s="10">
         <v>100200</v>
       </c>
     </row>
-    <row r="45" ht="14.25" spans="1:8">
+    <row r="45" ht="15.6" spans="1:8">
       <c r="A45">
         <v>45</v>
       </c>
@@ -3085,23 +3351,23 @@
       <c r="C45">
         <v>0</v>
       </c>
-      <c r="D45" s="3">
-        <v>40</v>
-      </c>
-      <c r="E45" s="3">
-        <v>155</v>
-      </c>
-      <c r="F45" s="8" t="s">
+      <c r="D45" s="6">
+        <v>40</v>
+      </c>
+      <c r="E45" s="6">
+        <v>155</v>
+      </c>
+      <c r="F45" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G45" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="H45" s="7">
+      <c r="H45" s="10">
         <v>100191</v>
       </c>
     </row>
-    <row r="46" ht="14.25" spans="1:8">
+    <row r="46" ht="15.6" spans="1:8">
       <c r="A46">
         <v>46</v>
       </c>
@@ -3111,23 +3377,23 @@
       <c r="C46">
         <v>0</v>
       </c>
-      <c r="D46" s="3">
-        <v>40</v>
-      </c>
-      <c r="E46" s="3">
-        <v>155</v>
-      </c>
-      <c r="F46" s="8" t="s">
+      <c r="D46" s="6">
+        <v>40</v>
+      </c>
+      <c r="E46" s="6">
+        <v>155</v>
+      </c>
+      <c r="F46" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="G46" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="H46" s="7">
+      <c r="H46" s="10">
         <v>100192</v>
       </c>
     </row>
-    <row r="47" ht="14.25" spans="1:8">
+    <row r="47" ht="15.6" spans="1:8">
       <c r="A47">
         <v>47</v>
       </c>
@@ -3137,23 +3403,23 @@
       <c r="C47">
         <v>0</v>
       </c>
-      <c r="D47" s="3">
-        <v>40</v>
-      </c>
-      <c r="E47" s="3">
-        <v>155</v>
-      </c>
-      <c r="F47" s="8" t="s">
+      <c r="D47" s="6">
+        <v>40</v>
+      </c>
+      <c r="E47" s="6">
+        <v>155</v>
+      </c>
+      <c r="F47" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="G47" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="H47" s="7">
+      <c r="H47" s="10">
         <v>100193</v>
       </c>
     </row>
-    <row r="48" ht="14.25" spans="1:8">
+    <row r="48" ht="15.6" spans="1:8">
       <c r="A48">
         <v>48</v>
       </c>
@@ -3163,23 +3429,23 @@
       <c r="C48">
         <v>0</v>
       </c>
-      <c r="D48" s="3">
-        <v>40</v>
-      </c>
-      <c r="E48" s="3">
-        <v>155</v>
-      </c>
-      <c r="F48" s="8" t="s">
+      <c r="D48" s="6">
+        <v>40</v>
+      </c>
+      <c r="E48" s="6">
+        <v>155</v>
+      </c>
+      <c r="F48" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="G48" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="H48" s="7">
+      <c r="H48" s="10">
         <v>100194</v>
       </c>
     </row>
-    <row r="49" ht="14.25" spans="1:8">
+    <row r="49" ht="15.6" spans="1:8">
       <c r="A49">
         <v>49</v>
       </c>
@@ -3189,23 +3455,23 @@
       <c r="C49">
         <v>0</v>
       </c>
-      <c r="D49" s="3">
-        <v>40</v>
-      </c>
-      <c r="E49" s="3">
-        <v>155</v>
-      </c>
-      <c r="F49" s="8" t="s">
+      <c r="D49" s="6">
+        <v>40</v>
+      </c>
+      <c r="E49" s="6">
+        <v>155</v>
+      </c>
+      <c r="F49" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="G49" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H49" s="7">
+      <c r="H49" s="10">
         <v>100195</v>
       </c>
     </row>
-    <row r="50" ht="14.25" spans="1:8">
+    <row r="50" ht="15.6" spans="1:8">
       <c r="A50">
         <v>50</v>
       </c>
@@ -3215,23 +3481,23 @@
       <c r="C50">
         <v>0</v>
       </c>
-      <c r="D50" s="3">
-        <v>40</v>
-      </c>
-      <c r="E50" s="3">
-        <v>155</v>
-      </c>
-      <c r="F50" s="8" t="s">
+      <c r="D50" s="6">
+        <v>40</v>
+      </c>
+      <c r="E50" s="6">
+        <v>155</v>
+      </c>
+      <c r="F50" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="G50" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="H50" s="7">
+      <c r="H50" s="10">
         <v>100196</v>
       </c>
     </row>
-    <row r="51" ht="14.25" spans="1:8">
+    <row r="51" ht="15.6" spans="1:8">
       <c r="A51">
         <v>51</v>
       </c>
@@ -3241,23 +3507,23 @@
       <c r="C51">
         <v>0</v>
       </c>
-      <c r="D51" s="3">
-        <v>40</v>
-      </c>
-      <c r="E51" s="3">
-        <v>155</v>
-      </c>
-      <c r="F51" s="8" t="s">
+      <c r="D51" s="6">
+        <v>40</v>
+      </c>
+      <c r="E51" s="6">
+        <v>155</v>
+      </c>
+      <c r="F51" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="G51" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="H51" s="7">
+      <c r="H51" s="10">
         <v>100197</v>
       </c>
     </row>
-    <row r="52" ht="14.25" spans="1:8">
+    <row r="52" ht="15.6" spans="1:8">
       <c r="A52">
         <v>52</v>
       </c>
@@ -3267,23 +3533,23 @@
       <c r="C52">
         <v>0</v>
       </c>
-      <c r="D52" s="3">
-        <v>40</v>
-      </c>
-      <c r="E52" s="3">
-        <v>155</v>
-      </c>
-      <c r="F52" s="8" t="s">
+      <c r="D52" s="6">
+        <v>40</v>
+      </c>
+      <c r="E52" s="6">
+        <v>155</v>
+      </c>
+      <c r="F52" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="G52" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H52" s="7">
+      <c r="H52" s="10">
         <v>100198</v>
       </c>
     </row>
-    <row r="53" ht="14.25" spans="1:8">
+    <row r="53" ht="15.6" spans="1:8">
       <c r="A53">
         <v>53</v>
       </c>
@@ -3293,23 +3559,23 @@
       <c r="C53">
         <v>0</v>
       </c>
-      <c r="D53" s="3">
-        <v>40</v>
-      </c>
-      <c r="E53" s="3">
-        <v>155</v>
-      </c>
-      <c r="F53" s="8" t="s">
+      <c r="D53" s="6">
+        <v>40</v>
+      </c>
+      <c r="E53" s="6">
+        <v>155</v>
+      </c>
+      <c r="F53" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="G53" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="H53" s="7">
+      <c r="H53" s="10">
         <v>100199</v>
       </c>
     </row>
-    <row r="54" ht="14.25" spans="1:8">
+    <row r="54" ht="15.6" spans="1:8">
       <c r="A54">
         <v>54</v>
       </c>
@@ -3319,23 +3585,23 @@
       <c r="C54">
         <v>0</v>
       </c>
-      <c r="D54" s="3">
-        <v>40</v>
-      </c>
-      <c r="E54" s="3">
-        <v>155</v>
-      </c>
-      <c r="F54" s="8" t="s">
+      <c r="D54" s="6">
+        <v>40</v>
+      </c>
+      <c r="E54" s="6">
+        <v>155</v>
+      </c>
+      <c r="F54" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="G54" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="H54" s="7">
+      <c r="H54" s="10">
         <v>100200</v>
       </c>
     </row>
-    <row r="55" ht="14.25" spans="1:8">
+    <row r="55" ht="15.6" spans="1:8">
       <c r="A55">
         <v>55</v>
       </c>
@@ -3345,23 +3611,23 @@
       <c r="C55">
         <v>0</v>
       </c>
-      <c r="D55" s="3">
-        <v>40</v>
-      </c>
-      <c r="E55" s="3">
-        <v>155</v>
-      </c>
-      <c r="F55" s="6" t="s">
+      <c r="D55" s="6">
+        <v>40</v>
+      </c>
+      <c r="E55" s="6">
+        <v>155</v>
+      </c>
+      <c r="F55" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="G55" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="H55" s="7">
+      <c r="H55" s="10">
         <v>100191</v>
       </c>
     </row>
-    <row r="56" ht="14.25" spans="1:8">
+    <row r="56" ht="15.6" spans="1:8">
       <c r="A56">
         <v>56</v>
       </c>
@@ -3371,23 +3637,23 @@
       <c r="C56">
         <v>0</v>
       </c>
-      <c r="D56" s="3">
-        <v>40</v>
-      </c>
-      <c r="E56" s="3">
-        <v>155</v>
-      </c>
-      <c r="F56" s="6" t="s">
+      <c r="D56" s="6">
+        <v>40</v>
+      </c>
+      <c r="E56" s="6">
+        <v>155</v>
+      </c>
+      <c r="F56" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="G56" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="H56" s="7">
+      <c r="H56" s="10">
         <v>100192</v>
       </c>
     </row>
-    <row r="57" ht="14.25" spans="1:8">
+    <row r="57" ht="15.6" spans="1:8">
       <c r="A57">
         <v>57</v>
       </c>
@@ -3397,23 +3663,23 @@
       <c r="C57">
         <v>0</v>
       </c>
-      <c r="D57" s="3">
-        <v>40</v>
-      </c>
-      <c r="E57" s="3">
-        <v>155</v>
-      </c>
-      <c r="F57" s="6" t="s">
+      <c r="D57" s="6">
+        <v>40</v>
+      </c>
+      <c r="E57" s="6">
+        <v>155</v>
+      </c>
+      <c r="F57" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="G57" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H57" s="7">
+      <c r="H57" s="10">
         <v>100193</v>
       </c>
     </row>
-    <row r="58" ht="14.25" spans="1:8">
+    <row r="58" ht="15.6" spans="1:8">
       <c r="A58">
         <v>58</v>
       </c>
@@ -3423,23 +3689,23 @@
       <c r="C58">
         <v>0</v>
       </c>
-      <c r="D58" s="3">
-        <v>40</v>
-      </c>
-      <c r="E58" s="3">
-        <v>155</v>
-      </c>
-      <c r="F58" s="6" t="s">
+      <c r="D58" s="6">
+        <v>40</v>
+      </c>
+      <c r="E58" s="6">
+        <v>155</v>
+      </c>
+      <c r="F58" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="G58" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="H58" s="7">
+      <c r="H58" s="10">
         <v>100194</v>
       </c>
     </row>
-    <row r="59" ht="14.25" spans="1:8">
+    <row r="59" ht="15.6" spans="1:8">
       <c r="A59">
         <v>59</v>
       </c>
@@ -3449,23 +3715,23 @@
       <c r="C59">
         <v>0</v>
       </c>
-      <c r="D59" s="3">
-        <v>40</v>
-      </c>
-      <c r="E59" s="3">
-        <v>155</v>
-      </c>
-      <c r="F59" s="6" t="s">
+      <c r="D59" s="6">
+        <v>40</v>
+      </c>
+      <c r="E59" s="6">
+        <v>155</v>
+      </c>
+      <c r="F59" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="G59" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="H59" s="7">
+      <c r="H59" s="10">
         <v>100195</v>
       </c>
     </row>
-    <row r="60" ht="14.25" spans="1:8">
+    <row r="60" ht="15.6" spans="1:8">
       <c r="A60">
         <v>60</v>
       </c>
@@ -3475,23 +3741,23 @@
       <c r="C60">
         <v>0</v>
       </c>
-      <c r="D60" s="3">
-        <v>40</v>
-      </c>
-      <c r="E60" s="3">
-        <v>155</v>
-      </c>
-      <c r="F60" s="6" t="s">
+      <c r="D60" s="6">
+        <v>40</v>
+      </c>
+      <c r="E60" s="6">
+        <v>155</v>
+      </c>
+      <c r="F60" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="G60" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="H60" s="7">
+      <c r="H60" s="10">
         <v>100196</v>
       </c>
     </row>
-    <row r="61" ht="14.25" spans="1:8">
+    <row r="61" ht="15.6" spans="1:8">
       <c r="A61">
         <v>61</v>
       </c>
@@ -3501,23 +3767,23 @@
       <c r="C61">
         <v>0</v>
       </c>
-      <c r="D61" s="3">
-        <v>40</v>
-      </c>
-      <c r="E61" s="3">
-        <v>155</v>
-      </c>
-      <c r="F61" s="6" t="s">
+      <c r="D61" s="6">
+        <v>40</v>
+      </c>
+      <c r="E61" s="6">
+        <v>155</v>
+      </c>
+      <c r="F61" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="G61" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="H61" s="7">
+      <c r="H61" s="10">
         <v>100197</v>
       </c>
     </row>
-    <row r="62" ht="14.25" spans="1:8">
+    <row r="62" ht="15.6" spans="1:8">
       <c r="A62">
         <v>62</v>
       </c>
@@ -3527,23 +3793,23 @@
       <c r="C62">
         <v>0</v>
       </c>
-      <c r="D62" s="3">
-        <v>40</v>
-      </c>
-      <c r="E62" s="3">
-        <v>155</v>
-      </c>
-      <c r="F62" s="6" t="s">
+      <c r="D62" s="6">
+        <v>40</v>
+      </c>
+      <c r="E62" s="6">
+        <v>155</v>
+      </c>
+      <c r="F62" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="G62" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="H62" s="7">
+      <c r="H62" s="10">
         <v>100198</v>
       </c>
     </row>
-    <row r="63" ht="14.25" spans="1:8">
+    <row r="63" ht="15.6" spans="1:8">
       <c r="A63">
         <v>63</v>
       </c>
@@ -3553,23 +3819,23 @@
       <c r="C63">
         <v>0</v>
       </c>
-      <c r="D63" s="3">
-        <v>40</v>
-      </c>
-      <c r="E63" s="3">
-        <v>155</v>
-      </c>
-      <c r="F63" s="6" t="s">
+      <c r="D63" s="6">
+        <v>40</v>
+      </c>
+      <c r="E63" s="6">
+        <v>155</v>
+      </c>
+      <c r="F63" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="G63" s="1" t="s">
+      <c r="G63" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H63" s="7">
+      <c r="H63" s="10">
         <v>100199</v>
       </c>
     </row>
-    <row r="64" ht="14.25" spans="1:8">
+    <row r="64" ht="15.6" spans="1:8">
       <c r="A64">
         <v>64</v>
       </c>
@@ -3579,23 +3845,23 @@
       <c r="C64">
         <v>0</v>
       </c>
-      <c r="D64" s="3">
-        <v>40</v>
-      </c>
-      <c r="E64" s="3">
-        <v>155</v>
-      </c>
-      <c r="F64" s="6" t="s">
+      <c r="D64" s="6">
+        <v>40</v>
+      </c>
+      <c r="E64" s="6">
+        <v>155</v>
+      </c>
+      <c r="F64" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="G64" s="1" t="s">
+      <c r="G64" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="H64" s="7">
+      <c r="H64" s="10">
         <v>100200</v>
       </c>
     </row>
-    <row r="65" ht="14.25" spans="1:8">
+    <row r="65" ht="15.6" spans="1:8">
       <c r="A65">
         <v>65</v>
       </c>
@@ -3605,23 +3871,23 @@
       <c r="C65">
         <v>0</v>
       </c>
-      <c r="D65" s="3">
-        <v>40</v>
-      </c>
-      <c r="E65" s="3">
-        <v>155</v>
-      </c>
-      <c r="F65" s="8" t="s">
+      <c r="D65" s="6">
+        <v>40</v>
+      </c>
+      <c r="E65" s="6">
+        <v>155</v>
+      </c>
+      <c r="F65" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="G65" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="H65" s="7">
+      <c r="H65" s="10">
         <v>100191</v>
       </c>
     </row>
-    <row r="66" ht="14.25" spans="1:8">
+    <row r="66" ht="15.6" spans="1:8">
       <c r="A66">
         <v>66</v>
       </c>
@@ -3631,23 +3897,23 @@
       <c r="C66">
         <v>0</v>
       </c>
-      <c r="D66" s="3">
-        <v>40</v>
-      </c>
-      <c r="E66" s="3">
-        <v>155</v>
-      </c>
-      <c r="F66" s="8" t="s">
+      <c r="D66" s="6">
+        <v>40</v>
+      </c>
+      <c r="E66" s="6">
+        <v>155</v>
+      </c>
+      <c r="F66" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="G66" s="1" t="s">
+      <c r="G66" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="H66" s="7">
+      <c r="H66" s="10">
         <v>100192</v>
       </c>
     </row>
-    <row r="67" ht="14.25" spans="1:8">
+    <row r="67" ht="15.6" spans="1:8">
       <c r="A67">
         <v>67</v>
       </c>
@@ -3657,23 +3923,23 @@
       <c r="C67">
         <v>0</v>
       </c>
-      <c r="D67" s="3">
-        <v>40</v>
-      </c>
-      <c r="E67" s="3">
-        <v>155</v>
-      </c>
-      <c r="F67" s="8" t="s">
+      <c r="D67" s="6">
+        <v>40</v>
+      </c>
+      <c r="E67" s="6">
+        <v>155</v>
+      </c>
+      <c r="F67" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="G67" s="1" t="s">
+      <c r="G67" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="H67" s="7">
+      <c r="H67" s="10">
         <v>100193</v>
       </c>
     </row>
-    <row r="68" ht="14.25" spans="1:8">
+    <row r="68" ht="15.6" spans="1:8">
       <c r="A68">
         <v>68</v>
       </c>
@@ -3683,23 +3949,23 @@
       <c r="C68">
         <v>0</v>
       </c>
-      <c r="D68" s="3">
-        <v>40</v>
-      </c>
-      <c r="E68" s="3">
-        <v>155</v>
-      </c>
-      <c r="F68" s="8" t="s">
+      <c r="D68" s="6">
+        <v>40</v>
+      </c>
+      <c r="E68" s="6">
+        <v>155</v>
+      </c>
+      <c r="F68" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="G68" s="1" t="s">
+      <c r="G68" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="H68" s="7">
+      <c r="H68" s="10">
         <v>100194</v>
       </c>
     </row>
-    <row r="69" ht="14.25" spans="1:8">
+    <row r="69" ht="15.6" spans="1:8">
       <c r="A69">
         <v>69</v>
       </c>
@@ -3709,23 +3975,23 @@
       <c r="C69">
         <v>0</v>
       </c>
-      <c r="D69" s="3">
-        <v>40</v>
-      </c>
-      <c r="E69" s="3">
-        <v>155</v>
-      </c>
-      <c r="F69" s="8" t="s">
+      <c r="D69" s="6">
+        <v>40</v>
+      </c>
+      <c r="E69" s="6">
+        <v>155</v>
+      </c>
+      <c r="F69" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="G69" s="1" t="s">
+      <c r="G69" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="H69" s="7">
+      <c r="H69" s="10">
         <v>100195</v>
       </c>
     </row>
-    <row r="70" ht="14.25" spans="1:8">
+    <row r="70" ht="15.6" spans="1:8">
       <c r="A70">
         <v>70</v>
       </c>
@@ -3735,23 +4001,23 @@
       <c r="C70">
         <v>0</v>
       </c>
-      <c r="D70" s="3">
-        <v>40</v>
-      </c>
-      <c r="E70" s="3">
-        <v>155</v>
-      </c>
-      <c r="F70" s="8" t="s">
+      <c r="D70" s="6">
+        <v>40</v>
+      </c>
+      <c r="E70" s="6">
+        <v>155</v>
+      </c>
+      <c r="F70" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="G70" s="1" t="s">
+      <c r="G70" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H70" s="7">
+      <c r="H70" s="10">
         <v>100196</v>
       </c>
     </row>
-    <row r="71" ht="14.25" spans="1:8">
+    <row r="71" ht="15.6" spans="1:8">
       <c r="A71">
         <v>71</v>
       </c>
@@ -3761,23 +4027,23 @@
       <c r="C71">
         <v>0</v>
       </c>
-      <c r="D71" s="3">
-        <v>40</v>
-      </c>
-      <c r="E71" s="3">
-        <v>155</v>
-      </c>
-      <c r="F71" s="8" t="s">
+      <c r="D71" s="6">
+        <v>40</v>
+      </c>
+      <c r="E71" s="6">
+        <v>155</v>
+      </c>
+      <c r="F71" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="G71" s="1" t="s">
+      <c r="G71" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="H71" s="7">
+      <c r="H71" s="10">
         <v>100197</v>
       </c>
     </row>
-    <row r="72" ht="14.25" spans="1:8">
+    <row r="72" ht="15.6" spans="1:8">
       <c r="A72">
         <v>72</v>
       </c>
@@ -3787,23 +4053,23 @@
       <c r="C72">
         <v>0</v>
       </c>
-      <c r="D72" s="3">
-        <v>40</v>
-      </c>
-      <c r="E72" s="3">
-        <v>155</v>
-      </c>
-      <c r="F72" s="8" t="s">
+      <c r="D72" s="6">
+        <v>40</v>
+      </c>
+      <c r="E72" s="6">
+        <v>155</v>
+      </c>
+      <c r="F72" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="G72" s="1" t="s">
+      <c r="G72" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="H72" s="7">
+      <c r="H72" s="10">
         <v>100198</v>
       </c>
     </row>
-    <row r="73" ht="14.25" spans="1:8">
+    <row r="73" ht="15.6" spans="1:8">
       <c r="A73">
         <v>73</v>
       </c>
@@ -3813,23 +4079,23 @@
       <c r="C73">
         <v>0</v>
       </c>
-      <c r="D73" s="3">
-        <v>40</v>
-      </c>
-      <c r="E73" s="3">
-        <v>155</v>
-      </c>
-      <c r="F73" s="8" t="s">
+      <c r="D73" s="6">
+        <v>40</v>
+      </c>
+      <c r="E73" s="6">
+        <v>155</v>
+      </c>
+      <c r="F73" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="G73" s="1" t="s">
+      <c r="G73" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H73" s="7">
+      <c r="H73" s="10">
         <v>100199</v>
       </c>
     </row>
-    <row r="74" ht="14.25" spans="1:8">
+    <row r="74" ht="15.6" spans="1:8">
       <c r="A74">
         <v>74</v>
       </c>
@@ -3839,23 +4105,23 @@
       <c r="C74">
         <v>0</v>
       </c>
-      <c r="D74" s="3">
-        <v>40</v>
-      </c>
-      <c r="E74" s="3">
-        <v>155</v>
-      </c>
-      <c r="F74" s="8" t="s">
+      <c r="D74" s="6">
+        <v>40</v>
+      </c>
+      <c r="E74" s="6">
+        <v>155</v>
+      </c>
+      <c r="F74" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="G74" s="1" t="s">
+      <c r="G74" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="H74" s="7">
+      <c r="H74" s="10">
         <v>100200</v>
       </c>
     </row>
-    <row r="75" ht="14.25" spans="1:8">
+    <row r="75" ht="15.6" spans="1:8">
       <c r="A75">
         <v>75</v>
       </c>
@@ -3865,23 +4131,23 @@
       <c r="C75">
         <v>0</v>
       </c>
-      <c r="D75" s="3">
-        <v>40</v>
-      </c>
-      <c r="E75" s="3">
-        <v>155</v>
-      </c>
-      <c r="F75" s="6" t="s">
+      <c r="D75" s="6">
+        <v>40</v>
+      </c>
+      <c r="E75" s="6">
+        <v>155</v>
+      </c>
+      <c r="F75" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G75" s="1" t="s">
+      <c r="G75" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="H75" s="7">
+      <c r="H75" s="10">
         <v>100191</v>
       </c>
     </row>
-    <row r="76" ht="14.25" spans="1:8">
+    <row r="76" ht="15.6" spans="1:8">
       <c r="A76">
         <v>76</v>
       </c>
@@ -3891,23 +4157,23 @@
       <c r="C76">
         <v>0</v>
       </c>
-      <c r="D76" s="3">
-        <v>40</v>
-      </c>
-      <c r="E76" s="3">
-        <v>155</v>
-      </c>
-      <c r="F76" s="6" t="s">
+      <c r="D76" s="6">
+        <v>40</v>
+      </c>
+      <c r="E76" s="6">
+        <v>155</v>
+      </c>
+      <c r="F76" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="G76" s="1" t="s">
+      <c r="G76" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="H76" s="7">
+      <c r="H76" s="10">
         <v>100192</v>
       </c>
     </row>
-    <row r="77" ht="14.25" spans="1:8">
+    <row r="77" ht="15.6" spans="1:8">
       <c r="A77">
         <v>77</v>
       </c>
@@ -3917,23 +4183,23 @@
       <c r="C77">
         <v>0</v>
       </c>
-      <c r="D77" s="3">
-        <v>40</v>
-      </c>
-      <c r="E77" s="3">
-        <v>155</v>
-      </c>
-      <c r="F77" s="6" t="s">
+      <c r="D77" s="6">
+        <v>40</v>
+      </c>
+      <c r="E77" s="6">
+        <v>155</v>
+      </c>
+      <c r="F77" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G77" s="1" t="s">
+      <c r="G77" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="H77" s="7">
+      <c r="H77" s="10">
         <v>100193</v>
       </c>
     </row>
-    <row r="78" ht="14.25" spans="1:8">
+    <row r="78" ht="15.6" spans="1:8">
       <c r="A78">
         <v>78</v>
       </c>
@@ -3943,23 +4209,23 @@
       <c r="C78">
         <v>0</v>
       </c>
-      <c r="D78" s="3">
-        <v>40</v>
-      </c>
-      <c r="E78" s="3">
-        <v>155</v>
-      </c>
-      <c r="F78" s="6" t="s">
+      <c r="D78" s="6">
+        <v>40</v>
+      </c>
+      <c r="E78" s="6">
+        <v>155</v>
+      </c>
+      <c r="F78" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G78" s="1" t="s">
+      <c r="G78" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="H78" s="7">
+      <c r="H78" s="10">
         <v>100194</v>
       </c>
     </row>
-    <row r="79" ht="14.25" spans="1:8">
+    <row r="79" ht="15.6" spans="1:8">
       <c r="A79">
         <v>79</v>
       </c>
@@ -3969,23 +4235,23 @@
       <c r="C79">
         <v>0</v>
       </c>
-      <c r="D79" s="3">
-        <v>40</v>
-      </c>
-      <c r="E79" s="3">
-        <v>155</v>
-      </c>
-      <c r="F79" s="6" t="s">
+      <c r="D79" s="6">
+        <v>40</v>
+      </c>
+      <c r="E79" s="6">
+        <v>155</v>
+      </c>
+      <c r="F79" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G79" s="1" t="s">
+      <c r="G79" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="H79" s="7">
+      <c r="H79" s="10">
         <v>100195</v>
       </c>
     </row>
-    <row r="80" ht="14.25" spans="1:8">
+    <row r="80" ht="15.6" spans="1:8">
       <c r="A80">
         <v>80</v>
       </c>
@@ -3995,23 +4261,23 @@
       <c r="C80">
         <v>0</v>
       </c>
-      <c r="D80" s="3">
-        <v>40</v>
-      </c>
-      <c r="E80" s="3">
-        <v>155</v>
-      </c>
-      <c r="F80" s="6" t="s">
+      <c r="D80" s="6">
+        <v>40</v>
+      </c>
+      <c r="E80" s="6">
+        <v>155</v>
+      </c>
+      <c r="F80" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="G80" s="1" t="s">
+      <c r="G80" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="H80" s="7">
+      <c r="H80" s="10">
         <v>100196</v>
       </c>
     </row>
-    <row r="81" ht="14.25" spans="1:8">
+    <row r="81" ht="15.6" spans="1:8">
       <c r="A81">
         <v>81</v>
       </c>
@@ -4021,23 +4287,23 @@
       <c r="C81">
         <v>0</v>
       </c>
-      <c r="D81" s="3">
-        <v>40</v>
-      </c>
-      <c r="E81" s="3">
-        <v>155</v>
-      </c>
-      <c r="F81" s="6" t="s">
+      <c r="D81" s="6">
+        <v>40</v>
+      </c>
+      <c r="E81" s="6">
+        <v>155</v>
+      </c>
+      <c r="F81" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="G81" s="1" t="s">
+      <c r="G81" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="H81" s="7">
+      <c r="H81" s="10">
         <v>100197</v>
       </c>
     </row>
-    <row r="82" ht="14.25" spans="1:8">
+    <row r="82" ht="15.6" spans="1:8">
       <c r="A82">
         <v>82</v>
       </c>
@@ -4047,23 +4313,23 @@
       <c r="C82">
         <v>0</v>
       </c>
-      <c r="D82" s="3">
-        <v>40</v>
-      </c>
-      <c r="E82" s="3">
-        <v>155</v>
-      </c>
-      <c r="F82" s="6" t="s">
+      <c r="D82" s="6">
+        <v>40</v>
+      </c>
+      <c r="E82" s="6">
+        <v>155</v>
+      </c>
+      <c r="F82" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="G82" s="1" t="s">
+      <c r="G82" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="H82" s="7">
+      <c r="H82" s="10">
         <v>100198</v>
       </c>
     </row>
-    <row r="83" ht="14.25" spans="1:8">
+    <row r="83" ht="15.6" spans="1:8">
       <c r="A83">
         <v>83</v>
       </c>
@@ -4073,23 +4339,23 @@
       <c r="C83">
         <v>0</v>
       </c>
-      <c r="D83" s="3">
-        <v>40</v>
-      </c>
-      <c r="E83" s="3">
-        <v>155</v>
-      </c>
-      <c r="F83" s="6" t="s">
+      <c r="D83" s="6">
+        <v>40</v>
+      </c>
+      <c r="E83" s="6">
+        <v>155</v>
+      </c>
+      <c r="F83" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="G83" s="1" t="s">
+      <c r="G83" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="H83" s="7">
+      <c r="H83" s="10">
         <v>100199</v>
       </c>
     </row>
-    <row r="84" ht="14.25" spans="1:8">
+    <row r="84" ht="15.6" spans="1:8">
       <c r="A84">
         <v>84</v>
       </c>
@@ -4099,23 +4365,23 @@
       <c r="C84">
         <v>0</v>
       </c>
-      <c r="D84" s="3">
-        <v>40</v>
-      </c>
-      <c r="E84" s="3">
-        <v>155</v>
-      </c>
-      <c r="F84" s="6" t="s">
+      <c r="D84" s="6">
+        <v>40</v>
+      </c>
+      <c r="E84" s="6">
+        <v>155</v>
+      </c>
+      <c r="F84" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="G84" s="1" t="s">
+      <c r="G84" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H84" s="7">
+      <c r="H84" s="10">
         <v>100200</v>
       </c>
     </row>
-    <row r="85" ht="14.25" spans="1:8">
+    <row r="85" ht="15.6" spans="1:8">
       <c r="A85">
         <v>85</v>
       </c>
@@ -4125,23 +4391,23 @@
       <c r="C85">
         <v>0</v>
       </c>
-      <c r="D85" s="3">
-        <v>40</v>
-      </c>
-      <c r="E85" s="3">
-        <v>155</v>
-      </c>
-      <c r="F85" s="8" t="s">
+      <c r="D85" s="6">
+        <v>40</v>
+      </c>
+      <c r="E85" s="6">
+        <v>155</v>
+      </c>
+      <c r="F85" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G85" s="1" t="s">
+      <c r="G85" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="H85" s="7">
+      <c r="H85" s="10">
         <v>100191</v>
       </c>
     </row>
-    <row r="86" ht="14.25" spans="1:8">
+    <row r="86" ht="15.6" spans="1:8">
       <c r="A86">
         <v>86</v>
       </c>
@@ -4151,23 +4417,23 @@
       <c r="C86">
         <v>0</v>
       </c>
-      <c r="D86" s="3">
-        <v>40</v>
-      </c>
-      <c r="E86" s="3">
-        <v>155</v>
-      </c>
-      <c r="F86" s="8" t="s">
+      <c r="D86" s="6">
+        <v>40</v>
+      </c>
+      <c r="E86" s="6">
+        <v>155</v>
+      </c>
+      <c r="F86" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="G86" s="1" t="s">
+      <c r="G86" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="H86" s="7">
+      <c r="H86" s="10">
         <v>100192</v>
       </c>
     </row>
-    <row r="87" ht="14.25" spans="1:8">
+    <row r="87" ht="15.6" spans="1:8">
       <c r="A87">
         <v>87</v>
       </c>
@@ -4177,23 +4443,23 @@
       <c r="C87">
         <v>0</v>
       </c>
-      <c r="D87" s="3">
-        <v>40</v>
-      </c>
-      <c r="E87" s="3">
-        <v>155</v>
-      </c>
-      <c r="F87" s="8" t="s">
+      <c r="D87" s="6">
+        <v>40</v>
+      </c>
+      <c r="E87" s="6">
+        <v>155</v>
+      </c>
+      <c r="F87" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="G87" s="1" t="s">
+      <c r="G87" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="H87" s="7">
+      <c r="H87" s="10">
         <v>100193</v>
       </c>
     </row>
-    <row r="88" ht="14.25" spans="1:8">
+    <row r="88" ht="15.6" spans="1:8">
       <c r="A88">
         <v>88</v>
       </c>
@@ -4203,23 +4469,23 @@
       <c r="C88">
         <v>0</v>
       </c>
-      <c r="D88" s="3">
-        <v>40</v>
-      </c>
-      <c r="E88" s="3">
-        <v>155</v>
-      </c>
-      <c r="F88" s="8" t="s">
+      <c r="D88" s="6">
+        <v>40</v>
+      </c>
+      <c r="E88" s="6">
+        <v>155</v>
+      </c>
+      <c r="F88" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="G88" s="1" t="s">
+      <c r="G88" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="H88" s="7">
+      <c r="H88" s="10">
         <v>100194</v>
       </c>
     </row>
-    <row r="89" ht="14.25" spans="1:8">
+    <row r="89" ht="15.6" spans="1:8">
       <c r="A89">
         <v>89</v>
       </c>
@@ -4229,23 +4495,23 @@
       <c r="C89">
         <v>0</v>
       </c>
-      <c r="D89" s="3">
-        <v>40</v>
-      </c>
-      <c r="E89" s="3">
-        <v>155</v>
-      </c>
-      <c r="F89" s="8" t="s">
+      <c r="D89" s="6">
+        <v>40</v>
+      </c>
+      <c r="E89" s="6">
+        <v>155</v>
+      </c>
+      <c r="F89" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="G89" s="1" t="s">
+      <c r="G89" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="H89" s="7">
+      <c r="H89" s="10">
         <v>100195</v>
       </c>
     </row>
-    <row r="90" ht="14.25" spans="1:8">
+    <row r="90" ht="15.6" spans="1:8">
       <c r="A90">
         <v>90</v>
       </c>
@@ -4255,23 +4521,23 @@
       <c r="C90">
         <v>0</v>
       </c>
-      <c r="D90" s="3">
-        <v>40</v>
-      </c>
-      <c r="E90" s="3">
-        <v>155</v>
-      </c>
-      <c r="F90" s="8" t="s">
+      <c r="D90" s="6">
+        <v>40</v>
+      </c>
+      <c r="E90" s="6">
+        <v>155</v>
+      </c>
+      <c r="F90" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="G90" s="1" t="s">
+      <c r="G90" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="H90" s="7">
+      <c r="H90" s="10">
         <v>100196</v>
       </c>
     </row>
-    <row r="91" ht="14.25" spans="1:8">
+    <row r="91" ht="15.6" spans="1:8">
       <c r="A91">
         <v>91</v>
       </c>
@@ -4281,23 +4547,23 @@
       <c r="C91">
         <v>0</v>
       </c>
-      <c r="D91" s="3">
-        <v>40</v>
-      </c>
-      <c r="E91" s="3">
-        <v>155</v>
-      </c>
-      <c r="F91" s="8" t="s">
+      <c r="D91" s="6">
+        <v>40</v>
+      </c>
+      <c r="E91" s="6">
+        <v>155</v>
+      </c>
+      <c r="F91" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="G91" s="1" t="s">
+      <c r="G91" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="H91" s="7">
+      <c r="H91" s="10">
         <v>100197</v>
       </c>
     </row>
-    <row r="92" ht="14.25" spans="1:8">
+    <row r="92" ht="15.6" spans="1:8">
       <c r="A92">
         <v>92</v>
       </c>
@@ -4307,23 +4573,23 @@
       <c r="C92">
         <v>0</v>
       </c>
-      <c r="D92" s="3">
-        <v>40</v>
-      </c>
-      <c r="E92" s="3">
-        <v>155</v>
-      </c>
-      <c r="F92" s="8" t="s">
+      <c r="D92" s="6">
+        <v>40</v>
+      </c>
+      <c r="E92" s="6">
+        <v>155</v>
+      </c>
+      <c r="F92" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="G92" s="1" t="s">
+      <c r="G92" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="H92" s="7">
+      <c r="H92" s="10">
         <v>100198</v>
       </c>
     </row>
-    <row r="93" ht="14.25" spans="1:8">
+    <row r="93" ht="15.6" spans="1:8">
       <c r="A93">
         <v>93</v>
       </c>
@@ -4333,23 +4599,23 @@
       <c r="C93">
         <v>0</v>
       </c>
-      <c r="D93" s="3">
-        <v>40</v>
-      </c>
-      <c r="E93" s="3">
-        <v>155</v>
-      </c>
-      <c r="F93" s="8" t="s">
+      <c r="D93" s="6">
+        <v>40</v>
+      </c>
+      <c r="E93" s="6">
+        <v>155</v>
+      </c>
+      <c r="F93" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="G93" s="1" t="s">
+      <c r="G93" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="H93" s="7">
+      <c r="H93" s="10">
         <v>100199</v>
       </c>
     </row>
-    <row r="94" ht="14.25" spans="1:8">
+    <row r="94" ht="15.6" spans="1:8">
       <c r="A94">
         <v>94</v>
       </c>
@@ -4359,23 +4625,23 @@
       <c r="C94">
         <v>0</v>
       </c>
-      <c r="D94" s="3">
-        <v>40</v>
-      </c>
-      <c r="E94" s="3">
-        <v>155</v>
-      </c>
-      <c r="F94" s="8" t="s">
+      <c r="D94" s="6">
+        <v>40</v>
+      </c>
+      <c r="E94" s="6">
+        <v>155</v>
+      </c>
+      <c r="F94" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="G94" s="1" t="s">
+      <c r="G94" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="H94" s="7">
+      <c r="H94" s="10">
         <v>100200</v>
       </c>
     </row>
-    <row r="95" ht="14.25" spans="1:8">
+    <row r="95" ht="15.6" spans="1:8">
       <c r="A95">
         <v>95</v>
       </c>
@@ -4385,23 +4651,23 @@
       <c r="C95">
         <v>0</v>
       </c>
-      <c r="D95" s="3">
-        <v>40</v>
-      </c>
-      <c r="E95" s="3">
-        <v>155</v>
-      </c>
-      <c r="F95" s="6" t="s">
+      <c r="D95" s="6">
+        <v>40</v>
+      </c>
+      <c r="E95" s="6">
+        <v>155</v>
+      </c>
+      <c r="F95" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G95" s="1" t="s">
+      <c r="G95" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="H95" s="7">
+      <c r="H95" s="10">
         <v>100191</v>
       </c>
     </row>
-    <row r="96" ht="14.25" spans="1:8">
+    <row r="96" ht="15.6" spans="1:8">
       <c r="A96">
         <v>96</v>
       </c>
@@ -4411,23 +4677,23 @@
       <c r="C96">
         <v>0</v>
       </c>
-      <c r="D96" s="3">
-        <v>40</v>
-      </c>
-      <c r="E96" s="3">
-        <v>155</v>
-      </c>
-      <c r="F96" s="6" t="s">
+      <c r="D96" s="6">
+        <v>40</v>
+      </c>
+      <c r="E96" s="6">
+        <v>155</v>
+      </c>
+      <c r="F96" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="G96" s="1" t="s">
+      <c r="G96" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="H96" s="7">
+      <c r="H96" s="10">
         <v>100192</v>
       </c>
     </row>
-    <row r="97" ht="14.25" spans="1:8">
+    <row r="97" ht="15.6" spans="1:8">
       <c r="A97">
         <v>97</v>
       </c>
@@ -4437,23 +4703,23 @@
       <c r="C97">
         <v>0</v>
       </c>
-      <c r="D97" s="3">
-        <v>40</v>
-      </c>
-      <c r="E97" s="3">
-        <v>155</v>
-      </c>
-      <c r="F97" s="6" t="s">
+      <c r="D97" s="6">
+        <v>40</v>
+      </c>
+      <c r="E97" s="6">
+        <v>155</v>
+      </c>
+      <c r="F97" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G97" s="1" t="s">
+      <c r="G97" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="H97" s="7">
+      <c r="H97" s="10">
         <v>100193</v>
       </c>
     </row>
-    <row r="98" ht="14.25" spans="1:8">
+    <row r="98" ht="15.6" spans="1:8">
       <c r="A98">
         <v>98</v>
       </c>
@@ -4463,23 +4729,23 @@
       <c r="C98">
         <v>0</v>
       </c>
-      <c r="D98" s="3">
-        <v>40</v>
-      </c>
-      <c r="E98" s="3">
-        <v>155</v>
-      </c>
-      <c r="F98" s="6" t="s">
+      <c r="D98" s="6">
+        <v>40</v>
+      </c>
+      <c r="E98" s="6">
+        <v>155</v>
+      </c>
+      <c r="F98" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G98" s="1" t="s">
+      <c r="G98" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="H98" s="7">
+      <c r="H98" s="10">
         <v>100194</v>
       </c>
     </row>
-    <row r="99" ht="14.25" spans="1:8">
+    <row r="99" ht="15.6" spans="1:8">
       <c r="A99">
         <v>99</v>
       </c>
@@ -4489,23 +4755,23 @@
       <c r="C99">
         <v>0</v>
       </c>
-      <c r="D99" s="3">
-        <v>40</v>
-      </c>
-      <c r="E99" s="3">
-        <v>155</v>
-      </c>
-      <c r="F99" s="6" t="s">
+      <c r="D99" s="6">
+        <v>40</v>
+      </c>
+      <c r="E99" s="6">
+        <v>155</v>
+      </c>
+      <c r="F99" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G99" s="1" t="s">
+      <c r="G99" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="H99" s="7">
+      <c r="H99" s="10">
         <v>100195</v>
       </c>
     </row>
-    <row r="100" ht="14.25" spans="1:8">
+    <row r="100" ht="15.6" spans="1:8">
       <c r="A100">
         <v>100</v>
       </c>
@@ -4515,23 +4781,23 @@
       <c r="C100">
         <v>0</v>
       </c>
-      <c r="D100" s="3">
-        <v>40</v>
-      </c>
-      <c r="E100" s="3">
-        <v>155</v>
-      </c>
-      <c r="F100" s="6" t="s">
+      <c r="D100" s="6">
+        <v>40</v>
+      </c>
+      <c r="E100" s="6">
+        <v>155</v>
+      </c>
+      <c r="F100" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="G100" s="1" t="s">
+      <c r="G100" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="H100" s="7">
+      <c r="H100" s="10">
         <v>100196</v>
       </c>
     </row>
-    <row r="101" ht="14.25" spans="1:8">
+    <row r="101" ht="15.6" spans="1:8">
       <c r="A101">
         <v>101</v>
       </c>
@@ -4541,23 +4807,23 @@
       <c r="C101">
         <v>0</v>
       </c>
-      <c r="D101" s="3">
-        <v>40</v>
-      </c>
-      <c r="E101" s="3">
-        <v>155</v>
-      </c>
-      <c r="F101" s="6" t="s">
+      <c r="D101" s="6">
+        <v>40</v>
+      </c>
+      <c r="E101" s="6">
+        <v>155</v>
+      </c>
+      <c r="F101" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="G101" s="1" t="s">
+      <c r="G101" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="H101" s="7">
+      <c r="H101" s="10">
         <v>100197</v>
       </c>
     </row>
-    <row r="102" ht="14.25" spans="1:8">
+    <row r="102" ht="15.6" spans="1:8">
       <c r="A102">
         <v>102</v>
       </c>
@@ -4567,23 +4833,23 @@
       <c r="C102">
         <v>0</v>
       </c>
-      <c r="D102" s="3">
-        <v>40</v>
-      </c>
-      <c r="E102" s="3">
-        <v>155</v>
-      </c>
-      <c r="F102" s="6" t="s">
+      <c r="D102" s="6">
+        <v>40</v>
+      </c>
+      <c r="E102" s="6">
+        <v>155</v>
+      </c>
+      <c r="F102" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="G102" s="1" t="s">
+      <c r="G102" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="H102" s="7">
+      <c r="H102" s="10">
         <v>100198</v>
       </c>
     </row>
-    <row r="103" ht="14.25" spans="1:8">
+    <row r="103" ht="15.6" spans="1:8">
       <c r="A103">
         <v>103</v>
       </c>
@@ -4593,23 +4859,23 @@
       <c r="C103">
         <v>0</v>
       </c>
-      <c r="D103" s="3">
-        <v>40</v>
-      </c>
-      <c r="E103" s="3">
-        <v>155</v>
-      </c>
-      <c r="F103" s="6" t="s">
+      <c r="D103" s="6">
+        <v>40</v>
+      </c>
+      <c r="E103" s="6">
+        <v>155</v>
+      </c>
+      <c r="F103" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="G103" s="1" t="s">
+      <c r="G103" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="H103" s="7">
+      <c r="H103" s="10">
         <v>100199</v>
       </c>
     </row>
-    <row r="104" ht="14.25" spans="1:8">
+    <row r="104" ht="15.6" spans="1:8">
       <c r="A104">
         <v>104</v>
       </c>
@@ -4619,23 +4885,23 @@
       <c r="C104">
         <v>0</v>
       </c>
-      <c r="D104" s="3">
-        <v>40</v>
-      </c>
-      <c r="E104" s="3">
-        <v>155</v>
-      </c>
-      <c r="F104" s="6" t="s">
+      <c r="D104" s="6">
+        <v>40</v>
+      </c>
+      <c r="E104" s="6">
+        <v>155</v>
+      </c>
+      <c r="F104" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="G104" s="1" t="s">
+      <c r="G104" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="H104" s="7">
+      <c r="H104" s="10">
         <v>100200</v>
       </c>
     </row>
-    <row r="105" ht="14.25" spans="1:8">
+    <row r="105" ht="15.6" spans="1:8">
       <c r="A105">
         <v>105</v>
       </c>
@@ -4645,23 +4911,23 @@
       <c r="C105">
         <v>0</v>
       </c>
-      <c r="D105" s="3">
-        <v>40</v>
-      </c>
-      <c r="E105" s="3">
-        <v>155</v>
-      </c>
-      <c r="F105" s="8" t="s">
+      <c r="D105" s="6">
+        <v>40</v>
+      </c>
+      <c r="E105" s="6">
+        <v>155</v>
+      </c>
+      <c r="F105" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G105" s="1" t="s">
+      <c r="G105" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="H105" s="7">
+      <c r="H105" s="10">
         <v>100191</v>
       </c>
     </row>
-    <row r="106" ht="14.25" spans="1:8">
+    <row r="106" ht="15.6" spans="1:8">
       <c r="A106">
         <v>106</v>
       </c>
@@ -4671,23 +4937,23 @@
       <c r="C106">
         <v>0</v>
       </c>
-      <c r="D106" s="3">
-        <v>40</v>
-      </c>
-      <c r="E106" s="3">
-        <v>155</v>
-      </c>
-      <c r="F106" s="8" t="s">
+      <c r="D106" s="6">
+        <v>40</v>
+      </c>
+      <c r="E106" s="6">
+        <v>155</v>
+      </c>
+      <c r="F106" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="G106" s="1" t="s">
+      <c r="G106" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="H106" s="7">
+      <c r="H106" s="10">
         <v>100192</v>
       </c>
     </row>
-    <row r="107" ht="14.25" spans="1:8">
+    <row r="107" ht="15.6" spans="1:8">
       <c r="A107">
         <v>107</v>
       </c>
@@ -4697,23 +4963,23 @@
       <c r="C107">
         <v>0</v>
       </c>
-      <c r="D107" s="3">
-        <v>40</v>
-      </c>
-      <c r="E107" s="3">
-        <v>155</v>
-      </c>
-      <c r="F107" s="8" t="s">
+      <c r="D107" s="6">
+        <v>40</v>
+      </c>
+      <c r="E107" s="6">
+        <v>155</v>
+      </c>
+      <c r="F107" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="G107" s="1" t="s">
+      <c r="G107" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="H107" s="7">
+      <c r="H107" s="10">
         <v>100193</v>
       </c>
     </row>
-    <row r="108" ht="14.25" spans="1:8">
+    <row r="108" ht="15.6" spans="1:8">
       <c r="A108">
         <v>108</v>
       </c>
@@ -4723,23 +4989,23 @@
       <c r="C108">
         <v>0</v>
       </c>
-      <c r="D108" s="3">
-        <v>40</v>
-      </c>
-      <c r="E108" s="3">
-        <v>155</v>
-      </c>
-      <c r="F108" s="8" t="s">
+      <c r="D108" s="6">
+        <v>40</v>
+      </c>
+      <c r="E108" s="6">
+        <v>155</v>
+      </c>
+      <c r="F108" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="G108" s="1" t="s">
+      <c r="G108" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="H108" s="7">
+      <c r="H108" s="10">
         <v>100194</v>
       </c>
     </row>
-    <row r="109" ht="14.25" spans="1:8">
+    <row r="109" ht="15.6" spans="1:8">
       <c r="A109">
         <v>109</v>
       </c>
@@ -4749,23 +5015,23 @@
       <c r="C109">
         <v>0</v>
       </c>
-      <c r="D109" s="3">
-        <v>40</v>
-      </c>
-      <c r="E109" s="3">
-        <v>155</v>
-      </c>
-      <c r="F109" s="8" t="s">
+      <c r="D109" s="6">
+        <v>40</v>
+      </c>
+      <c r="E109" s="6">
+        <v>155</v>
+      </c>
+      <c r="F109" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="G109" s="1" t="s">
+      <c r="G109" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="H109" s="7">
+      <c r="H109" s="10">
         <v>100195</v>
       </c>
     </row>
-    <row r="110" ht="14.25" spans="1:8">
+    <row r="110" ht="15.6" spans="1:8">
       <c r="A110">
         <v>110</v>
       </c>
@@ -4775,23 +5041,23 @@
       <c r="C110">
         <v>0</v>
       </c>
-      <c r="D110" s="3">
-        <v>40</v>
-      </c>
-      <c r="E110" s="3">
-        <v>155</v>
-      </c>
-      <c r="F110" s="8" t="s">
+      <c r="D110" s="6">
+        <v>40</v>
+      </c>
+      <c r="E110" s="6">
+        <v>155</v>
+      </c>
+      <c r="F110" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="G110" s="1" t="s">
+      <c r="G110" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="H110" s="7">
+      <c r="H110" s="10">
         <v>100196</v>
       </c>
     </row>
-    <row r="111" ht="14.25" spans="1:8">
+    <row r="111" ht="15.6" spans="1:8">
       <c r="A111">
         <v>111</v>
       </c>
@@ -4801,23 +5067,23 @@
       <c r="C111">
         <v>0</v>
       </c>
-      <c r="D111" s="3">
-        <v>40</v>
-      </c>
-      <c r="E111" s="3">
-        <v>155</v>
-      </c>
-      <c r="F111" s="8" t="s">
+      <c r="D111" s="6">
+        <v>40</v>
+      </c>
+      <c r="E111" s="6">
+        <v>155</v>
+      </c>
+      <c r="F111" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="G111" s="1" t="s">
+      <c r="G111" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="H111" s="7">
+      <c r="H111" s="10">
         <v>100197</v>
       </c>
     </row>
-    <row r="112" ht="14.25" spans="1:8">
+    <row r="112" ht="15.6" spans="1:8">
       <c r="A112">
         <v>112</v>
       </c>
@@ -4827,23 +5093,23 @@
       <c r="C112">
         <v>0</v>
       </c>
-      <c r="D112" s="3">
-        <v>40</v>
-      </c>
-      <c r="E112" s="3">
-        <v>155</v>
-      </c>
-      <c r="F112" s="8" t="s">
+      <c r="D112" s="6">
+        <v>40</v>
+      </c>
+      <c r="E112" s="6">
+        <v>155</v>
+      </c>
+      <c r="F112" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="G112" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="H112" s="7">
+      <c r="G112" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H112" s="10">
         <v>100198</v>
       </c>
     </row>
-    <row r="113" ht="14.25" spans="1:8">
+    <row r="113" ht="15.6" spans="1:8">
       <c r="A113">
         <v>113</v>
       </c>
@@ -4853,23 +5119,23 @@
       <c r="C113">
         <v>0</v>
       </c>
-      <c r="D113" s="3">
-        <v>40</v>
-      </c>
-      <c r="E113" s="3">
-        <v>155</v>
-      </c>
-      <c r="F113" s="8" t="s">
+      <c r="D113" s="6">
+        <v>40</v>
+      </c>
+      <c r="E113" s="6">
+        <v>155</v>
+      </c>
+      <c r="F113" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="G113" s="1" t="s">
+      <c r="G113" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="H113" s="7">
+      <c r="H113" s="10">
         <v>100199</v>
       </c>
     </row>
-    <row r="114" ht="14.25" spans="1:8">
+    <row r="114" ht="15.6" spans="1:8">
       <c r="A114">
         <v>114</v>
       </c>
@@ -4879,23 +5145,23 @@
       <c r="C114">
         <v>0</v>
       </c>
-      <c r="D114" s="3">
-        <v>40</v>
-      </c>
-      <c r="E114" s="3">
-        <v>155</v>
-      </c>
-      <c r="F114" s="8" t="s">
+      <c r="D114" s="6">
+        <v>40</v>
+      </c>
+      <c r="E114" s="6">
+        <v>155</v>
+      </c>
+      <c r="F114" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="G114" s="1" t="s">
+      <c r="G114" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="H114" s="7">
+      <c r="H114" s="10">
         <v>100200</v>
       </c>
     </row>
-    <row r="115" ht="14.25" spans="1:8">
+    <row r="115" ht="15.6" spans="1:8">
       <c r="A115">
         <v>115</v>
       </c>
@@ -4905,23 +5171,23 @@
       <c r="C115">
         <v>0</v>
       </c>
-      <c r="D115" s="3">
-        <v>40</v>
-      </c>
-      <c r="E115" s="3">
-        <v>155</v>
-      </c>
-      <c r="F115" s="6" t="s">
+      <c r="D115" s="6">
+        <v>40</v>
+      </c>
+      <c r="E115" s="6">
+        <v>155</v>
+      </c>
+      <c r="F115" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G115" s="1" t="s">
+      <c r="G115" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="H115" s="7">
+      <c r="H115" s="10">
         <v>100191</v>
       </c>
     </row>
-    <row r="116" ht="14.25" spans="1:8">
+    <row r="116" ht="15.6" spans="1:8">
       <c r="A116">
         <v>116</v>
       </c>
@@ -4931,23 +5197,23 @@
       <c r="C116">
         <v>0</v>
       </c>
-      <c r="D116" s="3">
-        <v>40</v>
-      </c>
-      <c r="E116" s="3">
-        <v>155</v>
-      </c>
-      <c r="F116" s="6" t="s">
+      <c r="D116" s="6">
+        <v>40</v>
+      </c>
+      <c r="E116" s="6">
+        <v>155</v>
+      </c>
+      <c r="F116" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="G116" s="1" t="s">
+      <c r="G116" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="H116" s="7">
+      <c r="H116" s="10">
         <v>100192</v>
       </c>
     </row>
-    <row r="117" ht="14.25" spans="1:8">
+    <row r="117" ht="15.6" spans="1:8">
       <c r="A117">
         <v>117</v>
       </c>
@@ -4957,23 +5223,23 @@
       <c r="C117">
         <v>0</v>
       </c>
-      <c r="D117" s="3">
-        <v>40</v>
-      </c>
-      <c r="E117" s="3">
-        <v>155</v>
-      </c>
-      <c r="F117" s="6" t="s">
+      <c r="D117" s="6">
+        <v>40</v>
+      </c>
+      <c r="E117" s="6">
+        <v>155</v>
+      </c>
+      <c r="F117" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G117" s="1" t="s">
+      <c r="G117" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="H117" s="7">
+      <c r="H117" s="10">
         <v>100193</v>
       </c>
     </row>
-    <row r="118" ht="14.25" spans="1:8">
+    <row r="118" ht="15.6" spans="1:8">
       <c r="A118">
         <v>118</v>
       </c>
@@ -4983,23 +5249,23 @@
       <c r="C118">
         <v>0</v>
       </c>
-      <c r="D118" s="3">
-        <v>40</v>
-      </c>
-      <c r="E118" s="3">
-        <v>155</v>
-      </c>
-      <c r="F118" s="6" t="s">
+      <c r="D118" s="6">
+        <v>40</v>
+      </c>
+      <c r="E118" s="6">
+        <v>155</v>
+      </c>
+      <c r="F118" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G118" s="1" t="s">
+      <c r="G118" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="H118" s="7">
+      <c r="H118" s="10">
         <v>100194</v>
       </c>
     </row>
-    <row r="119" ht="14.25" spans="1:8">
+    <row r="119" ht="15.6" spans="1:8">
       <c r="A119">
         <v>119</v>
       </c>
@@ -5009,23 +5275,23 @@
       <c r="C119">
         <v>0</v>
       </c>
-      <c r="D119" s="3">
-        <v>40</v>
-      </c>
-      <c r="E119" s="3">
-        <v>155</v>
-      </c>
-      <c r="F119" s="6" t="s">
+      <c r="D119" s="6">
+        <v>40</v>
+      </c>
+      <c r="E119" s="6">
+        <v>155</v>
+      </c>
+      <c r="F119" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G119" s="1" t="s">
+      <c r="G119" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="H119" s="7">
+      <c r="H119" s="10">
         <v>100195</v>
       </c>
     </row>
-    <row r="120" ht="14.25" spans="1:8">
+    <row r="120" ht="15.6" spans="1:8">
       <c r="A120">
         <v>120</v>
       </c>
@@ -5035,23 +5301,23 @@
       <c r="C120">
         <v>0</v>
       </c>
-      <c r="D120" s="3">
-        <v>40</v>
-      </c>
-      <c r="E120" s="3">
-        <v>155</v>
-      </c>
-      <c r="F120" s="6" t="s">
+      <c r="D120" s="6">
+        <v>40</v>
+      </c>
+      <c r="E120" s="6">
+        <v>155</v>
+      </c>
+      <c r="F120" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="G120" s="1" t="s">
+      <c r="G120" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="H120" s="7">
+      <c r="H120" s="10">
         <v>100196</v>
       </c>
     </row>
-    <row r="121" ht="14.25" spans="1:8">
+    <row r="121" ht="15.6" spans="1:8">
       <c r="A121">
         <v>121</v>
       </c>
@@ -5061,23 +5327,23 @@
       <c r="C121">
         <v>0</v>
       </c>
-      <c r="D121" s="3">
-        <v>40</v>
-      </c>
-      <c r="E121" s="3">
-        <v>155</v>
-      </c>
-      <c r="F121" s="6" t="s">
+      <c r="D121" s="6">
+        <v>40</v>
+      </c>
+      <c r="E121" s="6">
+        <v>155</v>
+      </c>
+      <c r="F121" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="G121" s="1" t="s">
+      <c r="G121" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="H121" s="7">
+      <c r="H121" s="10">
         <v>100197</v>
       </c>
     </row>
-    <row r="122" ht="14.25" spans="1:8">
+    <row r="122" ht="15.6" spans="1:8">
       <c r="A122">
         <v>122</v>
       </c>
@@ -5087,23 +5353,23 @@
       <c r="C122">
         <v>0</v>
       </c>
-      <c r="D122" s="3">
-        <v>40</v>
-      </c>
-      <c r="E122" s="3">
-        <v>155</v>
-      </c>
-      <c r="F122" s="6" t="s">
+      <c r="D122" s="6">
+        <v>40</v>
+      </c>
+      <c r="E122" s="6">
+        <v>155</v>
+      </c>
+      <c r="F122" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="G122" s="1" t="s">
+      <c r="G122" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="H122" s="7">
+      <c r="H122" s="10">
         <v>100198</v>
       </c>
     </row>
-    <row r="123" ht="14.25" spans="1:8">
+    <row r="123" ht="15.6" spans="1:8">
       <c r="A123">
         <v>123</v>
       </c>
@@ -5113,23 +5379,23 @@
       <c r="C123">
         <v>0</v>
       </c>
-      <c r="D123" s="3">
-        <v>40</v>
-      </c>
-      <c r="E123" s="3">
-        <v>155</v>
-      </c>
-      <c r="F123" s="6" t="s">
+      <c r="D123" s="6">
+        <v>40</v>
+      </c>
+      <c r="E123" s="6">
+        <v>155</v>
+      </c>
+      <c r="F123" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="G123" s="1" t="s">
+      <c r="G123" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="H123" s="7">
+      <c r="H123" s="10">
         <v>100199</v>
       </c>
     </row>
-    <row r="124" ht="14.25" spans="1:8">
+    <row r="124" ht="15.6" spans="1:8">
       <c r="A124">
         <v>124</v>
       </c>
@@ -5139,23 +5405,23 @@
       <c r="C124">
         <v>0</v>
       </c>
-      <c r="D124" s="3">
-        <v>40</v>
-      </c>
-      <c r="E124" s="3">
-        <v>155</v>
-      </c>
-      <c r="F124" s="6" t="s">
+      <c r="D124" s="6">
+        <v>40</v>
+      </c>
+      <c r="E124" s="6">
+        <v>155</v>
+      </c>
+      <c r="F124" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="G124" s="1" t="s">
+      <c r="G124" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="H124" s="7">
+      <c r="H124" s="10">
         <v>100200</v>
       </c>
     </row>
-    <row r="125" ht="14.25" spans="1:8">
+    <row r="125" ht="15.6" spans="1:8">
       <c r="A125">
         <v>125</v>
       </c>
@@ -5165,23 +5431,23 @@
       <c r="C125">
         <v>0</v>
       </c>
-      <c r="D125" s="3">
-        <v>40</v>
-      </c>
-      <c r="E125" s="3">
-        <v>155</v>
-      </c>
-      <c r="F125" s="8" t="s">
+      <c r="D125" s="6">
+        <v>40</v>
+      </c>
+      <c r="E125" s="6">
+        <v>155</v>
+      </c>
+      <c r="F125" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G125" s="1" t="s">
+      <c r="G125" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="H125" s="7">
+      <c r="H125" s="10">
         <v>100191</v>
       </c>
     </row>
-    <row r="126" ht="14.25" spans="1:8">
+    <row r="126" ht="15.6" spans="1:8">
       <c r="A126">
         <v>126</v>
       </c>
@@ -5191,23 +5457,23 @@
       <c r="C126">
         <v>0</v>
       </c>
-      <c r="D126" s="3">
-        <v>40</v>
-      </c>
-      <c r="E126" s="3">
-        <v>155</v>
-      </c>
-      <c r="F126" s="8" t="s">
+      <c r="D126" s="6">
+        <v>40</v>
+      </c>
+      <c r="E126" s="6">
+        <v>155</v>
+      </c>
+      <c r="F126" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="G126" s="1" t="s">
+      <c r="G126" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="H126" s="7">
+      <c r="H126" s="10">
         <v>100192</v>
       </c>
     </row>
-    <row r="127" ht="14.25" spans="1:8">
+    <row r="127" ht="15.6" spans="1:8">
       <c r="A127">
         <v>127</v>
       </c>
@@ -5217,23 +5483,23 @@
       <c r="C127">
         <v>0</v>
       </c>
-      <c r="D127" s="3">
-        <v>40</v>
-      </c>
-      <c r="E127" s="3">
-        <v>155</v>
-      </c>
-      <c r="F127" s="8" t="s">
+      <c r="D127" s="6">
+        <v>40</v>
+      </c>
+      <c r="E127" s="6">
+        <v>155</v>
+      </c>
+      <c r="F127" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="G127" s="1" t="s">
+      <c r="G127" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="H127" s="7">
+      <c r="H127" s="10">
         <v>100193</v>
       </c>
     </row>
-    <row r="128" ht="14.25" spans="1:8">
+    <row r="128" ht="15.6" spans="1:8">
       <c r="A128">
         <v>128</v>
       </c>
@@ -5243,23 +5509,23 @@
       <c r="C128">
         <v>0</v>
       </c>
-      <c r="D128" s="3">
-        <v>40</v>
-      </c>
-      <c r="E128" s="3">
-        <v>155</v>
-      </c>
-      <c r="F128" s="8" t="s">
+      <c r="D128" s="6">
+        <v>40</v>
+      </c>
+      <c r="E128" s="6">
+        <v>155</v>
+      </c>
+      <c r="F128" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="G128" s="1" t="s">
+      <c r="G128" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="H128" s="7">
+      <c r="H128" s="10">
         <v>100194</v>
       </c>
     </row>
-    <row r="129" ht="14.25" spans="1:8">
+    <row r="129" ht="15.6" spans="1:8">
       <c r="A129">
         <v>129</v>
       </c>
@@ -5269,23 +5535,23 @@
       <c r="C129">
         <v>0</v>
       </c>
-      <c r="D129" s="3">
-        <v>40</v>
-      </c>
-      <c r="E129" s="3">
-        <v>155</v>
-      </c>
-      <c r="F129" s="8" t="s">
+      <c r="D129" s="6">
+        <v>40</v>
+      </c>
+      <c r="E129" s="6">
+        <v>155</v>
+      </c>
+      <c r="F129" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="G129" s="1" t="s">
+      <c r="G129" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="H129" s="7">
+      <c r="H129" s="10">
         <v>100195</v>
       </c>
     </row>
-    <row r="130" ht="14.25" spans="1:8">
+    <row r="130" ht="15.6" spans="1:8">
       <c r="A130">
         <v>130</v>
       </c>
@@ -5295,23 +5561,23 @@
       <c r="C130">
         <v>0</v>
       </c>
-      <c r="D130" s="3">
-        <v>40</v>
-      </c>
-      <c r="E130" s="3">
-        <v>155</v>
-      </c>
-      <c r="F130" s="8" t="s">
+      <c r="D130" s="6">
+        <v>40</v>
+      </c>
+      <c r="E130" s="6">
+        <v>155</v>
+      </c>
+      <c r="F130" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="G130" s="1" t="s">
+      <c r="G130" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="H130" s="7">
+      <c r="H130" s="10">
         <v>100196</v>
       </c>
     </row>
-    <row r="131" ht="14.25" spans="1:8">
+    <row r="131" ht="15.6" spans="1:8">
       <c r="A131">
         <v>131</v>
       </c>
@@ -5321,23 +5587,23 @@
       <c r="C131">
         <v>0</v>
       </c>
-      <c r="D131" s="3">
-        <v>40</v>
-      </c>
-      <c r="E131" s="3">
-        <v>155</v>
-      </c>
-      <c r="F131" s="8" t="s">
+      <c r="D131" s="6">
+        <v>40</v>
+      </c>
+      <c r="E131" s="6">
+        <v>155</v>
+      </c>
+      <c r="F131" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="G131" s="1" t="s">
+      <c r="G131" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="H131" s="7">
+      <c r="H131" s="10">
         <v>100197</v>
       </c>
     </row>
-    <row r="132" ht="14.25" spans="1:8">
+    <row r="132" ht="15.6" spans="1:8">
       <c r="A132">
         <v>132</v>
       </c>
@@ -5347,23 +5613,23 @@
       <c r="C132">
         <v>0</v>
       </c>
-      <c r="D132" s="3">
-        <v>40</v>
-      </c>
-      <c r="E132" s="3">
-        <v>155</v>
-      </c>
-      <c r="F132" s="8" t="s">
+      <c r="D132" s="6">
+        <v>40</v>
+      </c>
+      <c r="E132" s="6">
+        <v>155</v>
+      </c>
+      <c r="F132" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="G132" s="1" t="s">
+      <c r="G132" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="H132" s="7">
+      <c r="H132" s="10">
         <v>100198</v>
       </c>
     </row>
-    <row r="133" ht="14.25" spans="1:8">
+    <row r="133" ht="15.6" spans="1:8">
       <c r="A133">
         <v>133</v>
       </c>
@@ -5373,23 +5639,23 @@
       <c r="C133">
         <v>0</v>
       </c>
-      <c r="D133" s="3">
-        <v>40</v>
-      </c>
-      <c r="E133" s="3">
-        <v>155</v>
-      </c>
-      <c r="F133" s="8" t="s">
+      <c r="D133" s="6">
+        <v>40</v>
+      </c>
+      <c r="E133" s="6">
+        <v>155</v>
+      </c>
+      <c r="F133" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="G133" s="1" t="s">
+      <c r="G133" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="H133" s="7">
+      <c r="H133" s="10">
         <v>100199</v>
       </c>
     </row>
-    <row r="134" ht="14.25" spans="1:8">
+    <row r="134" ht="15.6" spans="1:8">
       <c r="A134">
         <v>134</v>
       </c>
@@ -5399,23 +5665,23 @@
       <c r="C134">
         <v>0</v>
       </c>
-      <c r="D134" s="3">
-        <v>40</v>
-      </c>
-      <c r="E134" s="3">
-        <v>155</v>
-      </c>
-      <c r="F134" s="8" t="s">
+      <c r="D134" s="6">
+        <v>40</v>
+      </c>
+      <c r="E134" s="6">
+        <v>155</v>
+      </c>
+      <c r="F134" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="G134" s="1" t="s">
+      <c r="G134" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="H134" s="7">
+      <c r="H134" s="10">
         <v>100200</v>
       </c>
     </row>
-    <row r="135" ht="14.25" spans="1:8">
+    <row r="135" ht="15.6" spans="1:8">
       <c r="A135">
         <v>135</v>
       </c>
@@ -5425,23 +5691,23 @@
       <c r="C135">
         <v>0</v>
       </c>
-      <c r="D135" s="3">
-        <v>40</v>
-      </c>
-      <c r="E135" s="3">
-        <v>155</v>
-      </c>
-      <c r="F135" s="6" t="s">
+      <c r="D135" s="6">
+        <v>40</v>
+      </c>
+      <c r="E135" s="6">
+        <v>155</v>
+      </c>
+      <c r="F135" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G135" s="1" t="s">
+      <c r="G135" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="H135" s="7">
+      <c r="H135" s="10">
         <v>100191</v>
       </c>
     </row>
-    <row r="136" ht="14.25" spans="1:8">
+    <row r="136" ht="15.6" spans="1:8">
       <c r="A136">
         <v>136</v>
       </c>
@@ -5451,23 +5717,23 @@
       <c r="C136">
         <v>0</v>
       </c>
-      <c r="D136" s="3">
-        <v>40</v>
-      </c>
-      <c r="E136" s="3">
-        <v>155</v>
-      </c>
-      <c r="F136" s="6" t="s">
+      <c r="D136" s="6">
+        <v>40</v>
+      </c>
+      <c r="E136" s="6">
+        <v>155</v>
+      </c>
+      <c r="F136" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="G136" s="1" t="s">
+      <c r="G136" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="H136" s="7">
+      <c r="H136" s="10">
         <v>100192</v>
       </c>
     </row>
-    <row r="137" ht="14.25" spans="1:8">
+    <row r="137" ht="15.6" spans="1:8">
       <c r="A137">
         <v>137</v>
       </c>
@@ -5477,23 +5743,23 @@
       <c r="C137">
         <v>0</v>
       </c>
-      <c r="D137" s="3">
-        <v>40</v>
-      </c>
-      <c r="E137" s="3">
-        <v>155</v>
-      </c>
-      <c r="F137" s="6" t="s">
+      <c r="D137" s="6">
+        <v>40</v>
+      </c>
+      <c r="E137" s="6">
+        <v>155</v>
+      </c>
+      <c r="F137" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G137" s="1" t="s">
+      <c r="G137" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="H137" s="7">
+      <c r="H137" s="10">
         <v>100193</v>
       </c>
     </row>
-    <row r="138" ht="14.25" spans="1:8">
+    <row r="138" ht="15.6" spans="1:8">
       <c r="A138">
         <v>138</v>
       </c>
@@ -5503,23 +5769,23 @@
       <c r="C138">
         <v>0</v>
       </c>
-      <c r="D138" s="3">
-        <v>40</v>
-      </c>
-      <c r="E138" s="3">
-        <v>155</v>
-      </c>
-      <c r="F138" s="6" t="s">
+      <c r="D138" s="6">
+        <v>40</v>
+      </c>
+      <c r="E138" s="6">
+        <v>155</v>
+      </c>
+      <c r="F138" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G138" s="1" t="s">
+      <c r="G138" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="H138" s="7">
+      <c r="H138" s="10">
         <v>100194</v>
       </c>
     </row>
-    <row r="139" ht="14.25" spans="1:8">
+    <row r="139" ht="15.6" spans="1:8">
       <c r="A139">
         <v>139</v>
       </c>
@@ -5529,23 +5795,23 @@
       <c r="C139">
         <v>0</v>
       </c>
-      <c r="D139" s="3">
-        <v>40</v>
-      </c>
-      <c r="E139" s="3">
-        <v>155</v>
-      </c>
-      <c r="F139" s="6" t="s">
+      <c r="D139" s="6">
+        <v>40</v>
+      </c>
+      <c r="E139" s="6">
+        <v>155</v>
+      </c>
+      <c r="F139" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G139" s="1" t="s">
+      <c r="G139" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="H139" s="7">
+      <c r="H139" s="10">
         <v>100195</v>
       </c>
     </row>
-    <row r="140" ht="14.25" spans="1:8">
+    <row r="140" ht="15.6" spans="1:8">
       <c r="A140">
         <v>140</v>
       </c>
@@ -5555,23 +5821,23 @@
       <c r="C140">
         <v>0</v>
       </c>
-      <c r="D140" s="3">
-        <v>40</v>
-      </c>
-      <c r="E140" s="3">
-        <v>155</v>
-      </c>
-      <c r="F140" s="6" t="s">
+      <c r="D140" s="6">
+        <v>40</v>
+      </c>
+      <c r="E140" s="6">
+        <v>155</v>
+      </c>
+      <c r="F140" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="G140" s="1" t="s">
+      <c r="G140" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="H140" s="7">
+      <c r="H140" s="10">
         <v>100196</v>
       </c>
     </row>
-    <row r="141" ht="14.25" spans="1:8">
+    <row r="141" ht="15.6" spans="1:8">
       <c r="A141">
         <v>141</v>
       </c>
@@ -5581,23 +5847,23 @@
       <c r="C141">
         <v>0</v>
       </c>
-      <c r="D141" s="3">
-        <v>40</v>
-      </c>
-      <c r="E141" s="3">
-        <v>155</v>
-      </c>
-      <c r="F141" s="6" t="s">
+      <c r="D141" s="6">
+        <v>40</v>
+      </c>
+      <c r="E141" s="6">
+        <v>155</v>
+      </c>
+      <c r="F141" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="G141" s="1" t="s">
+      <c r="G141" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="H141" s="7">
+      <c r="H141" s="10">
         <v>100197</v>
       </c>
     </row>
-    <row r="142" ht="14.25" spans="1:8">
+    <row r="142" ht="15.6" spans="1:8">
       <c r="A142">
         <v>142</v>
       </c>
@@ -5607,23 +5873,23 @@
       <c r="C142">
         <v>0</v>
       </c>
-      <c r="D142" s="3">
-        <v>40</v>
-      </c>
-      <c r="E142" s="3">
-        <v>155</v>
-      </c>
-      <c r="F142" s="6" t="s">
+      <c r="D142" s="6">
+        <v>40</v>
+      </c>
+      <c r="E142" s="6">
+        <v>155</v>
+      </c>
+      <c r="F142" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="G142" s="1" t="s">
+      <c r="G142" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="H142" s="7">
+      <c r="H142" s="10">
         <v>100198</v>
       </c>
     </row>
-    <row r="143" ht="14.25" spans="1:8">
+    <row r="143" ht="15.6" spans="1:8">
       <c r="A143">
         <v>143</v>
       </c>
@@ -5633,23 +5899,23 @@
       <c r="C143">
         <v>0</v>
       </c>
-      <c r="D143" s="3">
-        <v>40</v>
-      </c>
-      <c r="E143" s="3">
-        <v>155</v>
-      </c>
-      <c r="F143" s="6" t="s">
+      <c r="D143" s="6">
+        <v>40</v>
+      </c>
+      <c r="E143" s="6">
+        <v>155</v>
+      </c>
+      <c r="F143" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="G143" s="1" t="s">
+      <c r="G143" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="H143" s="7">
+      <c r="H143" s="10">
         <v>100199</v>
       </c>
     </row>
-    <row r="144" ht="14.25" spans="1:8">
+    <row r="144" ht="15.6" spans="1:8">
       <c r="A144">
         <v>144</v>
       </c>
@@ -5659,23 +5925,23 @@
       <c r="C144">
         <v>0</v>
       </c>
-      <c r="D144" s="3">
-        <v>40</v>
-      </c>
-      <c r="E144" s="3">
-        <v>155</v>
-      </c>
-      <c r="F144" s="6" t="s">
+      <c r="D144" s="6">
+        <v>40</v>
+      </c>
+      <c r="E144" s="6">
+        <v>155</v>
+      </c>
+      <c r="F144" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="G144" s="1" t="s">
+      <c r="G144" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="H144" s="7">
+      <c r="H144" s="10">
         <v>100200</v>
       </c>
     </row>
-    <row r="145" ht="14.25" spans="1:8">
+    <row r="145" ht="15.6" spans="1:8">
       <c r="A145">
         <v>145</v>
       </c>
@@ -5685,23 +5951,23 @@
       <c r="C145">
         <v>0</v>
       </c>
-      <c r="D145" s="3">
-        <v>40</v>
-      </c>
-      <c r="E145" s="3">
-        <v>155</v>
-      </c>
-      <c r="F145" s="8" t="s">
+      <c r="D145" s="6">
+        <v>40</v>
+      </c>
+      <c r="E145" s="6">
+        <v>155</v>
+      </c>
+      <c r="F145" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G145" s="1" t="s">
+      <c r="G145" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="H145" s="7">
+      <c r="H145" s="10">
         <v>100191</v>
       </c>
     </row>
-    <row r="146" ht="14.25" spans="1:8">
+    <row r="146" ht="15.6" spans="1:8">
       <c r="A146">
         <v>146</v>
       </c>
@@ -5711,23 +5977,23 @@
       <c r="C146">
         <v>0</v>
       </c>
-      <c r="D146" s="3">
-        <v>40</v>
-      </c>
-      <c r="E146" s="3">
-        <v>155</v>
-      </c>
-      <c r="F146" s="8" t="s">
+      <c r="D146" s="6">
+        <v>40</v>
+      </c>
+      <c r="E146" s="6">
+        <v>155</v>
+      </c>
+      <c r="F146" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="G146" s="1" t="s">
+      <c r="G146" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="H146" s="7">
+      <c r="H146" s="10">
         <v>100192</v>
       </c>
     </row>
-    <row r="147" ht="14.25" spans="1:8">
+    <row r="147" ht="15.6" spans="1:8">
       <c r="A147">
         <v>147</v>
       </c>
@@ -5737,23 +6003,23 @@
       <c r="C147">
         <v>0</v>
       </c>
-      <c r="D147" s="3">
-        <v>40</v>
-      </c>
-      <c r="E147" s="3">
-        <v>155</v>
-      </c>
-      <c r="F147" s="8" t="s">
+      <c r="D147" s="6">
+        <v>40</v>
+      </c>
+      <c r="E147" s="6">
+        <v>155</v>
+      </c>
+      <c r="F147" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="G147" s="1" t="s">
+      <c r="G147" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="H147" s="7">
+      <c r="H147" s="10">
         <v>100193</v>
       </c>
     </row>
-    <row r="148" ht="14.25" spans="1:8">
+    <row r="148" ht="15.6" spans="1:8">
       <c r="A148">
         <v>148</v>
       </c>
@@ -5763,23 +6029,23 @@
       <c r="C148">
         <v>0</v>
       </c>
-      <c r="D148" s="3">
-        <v>40</v>
-      </c>
-      <c r="E148" s="3">
-        <v>155</v>
-      </c>
-      <c r="F148" s="8" t="s">
+      <c r="D148" s="6">
+        <v>40</v>
+      </c>
+      <c r="E148" s="6">
+        <v>155</v>
+      </c>
+      <c r="F148" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="G148" s="1" t="s">
+      <c r="G148" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="H148" s="7">
+      <c r="H148" s="10">
         <v>100194</v>
       </c>
     </row>
-    <row r="149" ht="14.25" spans="1:8">
+    <row r="149" ht="15.6" spans="1:8">
       <c r="A149">
         <v>149</v>
       </c>
@@ -5789,23 +6055,23 @@
       <c r="C149">
         <v>0</v>
       </c>
-      <c r="D149" s="3">
-        <v>40</v>
-      </c>
-      <c r="E149" s="3">
-        <v>155</v>
-      </c>
-      <c r="F149" s="8" t="s">
+      <c r="D149" s="6">
+        <v>40</v>
+      </c>
+      <c r="E149" s="6">
+        <v>155</v>
+      </c>
+      <c r="F149" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="G149" s="1" t="s">
+      <c r="G149" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="H149" s="7">
+      <c r="H149" s="10">
         <v>100195</v>
       </c>
     </row>
-    <row r="150" ht="14.25" spans="1:8">
+    <row r="150" ht="15.6" spans="1:8">
       <c r="A150">
         <v>150</v>
       </c>
@@ -5815,23 +6081,23 @@
       <c r="C150">
         <v>0</v>
       </c>
-      <c r="D150" s="3">
-        <v>40</v>
-      </c>
-      <c r="E150" s="3">
-        <v>155</v>
-      </c>
-      <c r="F150" s="8" t="s">
+      <c r="D150" s="6">
+        <v>40</v>
+      </c>
+      <c r="E150" s="6">
+        <v>155</v>
+      </c>
+      <c r="F150" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="G150" s="1" t="s">
+      <c r="G150" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="H150" s="7">
+      <c r="H150" s="10">
         <v>100196</v>
       </c>
     </row>
-    <row r="151" ht="14.25" spans="1:8">
+    <row r="151" ht="15.6" spans="1:8">
       <c r="A151">
         <v>151</v>
       </c>
@@ -5841,23 +6107,23 @@
       <c r="C151">
         <v>0</v>
       </c>
-      <c r="D151" s="3">
-        <v>40</v>
-      </c>
-      <c r="E151" s="3">
-        <v>155</v>
-      </c>
-      <c r="F151" s="8" t="s">
+      <c r="D151" s="6">
+        <v>40</v>
+      </c>
+      <c r="E151" s="6">
+        <v>155</v>
+      </c>
+      <c r="F151" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="G151" s="1" t="s">
+      <c r="G151" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="H151" s="7">
+      <c r="H151" s="10">
         <v>100197</v>
       </c>
     </row>
-    <row r="152" ht="14.25" spans="1:8">
+    <row r="152" ht="15.6" spans="1:8">
       <c r="A152">
         <v>152</v>
       </c>
@@ -5867,23 +6133,23 @@
       <c r="C152">
         <v>0</v>
       </c>
-      <c r="D152" s="3">
-        <v>40</v>
-      </c>
-      <c r="E152" s="3">
-        <v>155</v>
-      </c>
-      <c r="F152" s="8" t="s">
+      <c r="D152" s="6">
+        <v>40</v>
+      </c>
+      <c r="E152" s="6">
+        <v>155</v>
+      </c>
+      <c r="F152" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="G152" s="1" t="s">
+      <c r="G152" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="H152" s="7">
+      <c r="H152" s="10">
         <v>100198</v>
       </c>
     </row>
-    <row r="153" ht="14.25" spans="1:8">
+    <row r="153" ht="15.6" spans="1:8">
       <c r="A153">
         <v>153</v>
       </c>
@@ -5893,23 +6159,23 @@
       <c r="C153">
         <v>0</v>
       </c>
-      <c r="D153" s="3">
-        <v>40</v>
-      </c>
-      <c r="E153" s="3">
-        <v>155</v>
-      </c>
-      <c r="F153" s="8" t="s">
+      <c r="D153" s="6">
+        <v>40</v>
+      </c>
+      <c r="E153" s="6">
+        <v>155</v>
+      </c>
+      <c r="F153" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="G153" s="1" t="s">
+      <c r="G153" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="H153" s="7">
+      <c r="H153" s="10">
         <v>100199</v>
       </c>
     </row>
-    <row r="154" ht="14.25" spans="1:8">
+    <row r="154" ht="15.6" spans="1:8">
       <c r="A154">
         <v>154</v>
       </c>
@@ -5919,23 +6185,23 @@
       <c r="C154">
         <v>0</v>
       </c>
-      <c r="D154" s="3">
-        <v>40</v>
-      </c>
-      <c r="E154" s="3">
-        <v>155</v>
-      </c>
-      <c r="F154" s="8" t="s">
+      <c r="D154" s="6">
+        <v>40</v>
+      </c>
+      <c r="E154" s="6">
+        <v>155</v>
+      </c>
+      <c r="F154" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="G154" s="1" t="s">
+      <c r="G154" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="H154" s="7">
+      <c r="H154" s="10">
         <v>100200</v>
       </c>
     </row>
-    <row r="155" ht="14.25" spans="1:8">
+    <row r="155" ht="15.6" spans="1:8">
       <c r="A155">
         <v>155</v>
       </c>
@@ -5945,23 +6211,23 @@
       <c r="C155">
         <v>0</v>
       </c>
-      <c r="D155" s="3">
-        <v>40</v>
-      </c>
-      <c r="E155" s="3">
-        <v>155</v>
-      </c>
-      <c r="F155" s="6" t="s">
+      <c r="D155" s="6">
+        <v>40</v>
+      </c>
+      <c r="E155" s="6">
+        <v>155</v>
+      </c>
+      <c r="F155" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G155" s="1" t="s">
+      <c r="G155" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="H155" s="7">
+      <c r="H155" s="10">
         <v>100191</v>
       </c>
     </row>
-    <row r="156" ht="14.25" spans="1:8">
+    <row r="156" ht="15.6" spans="1:8">
       <c r="A156">
         <v>156</v>
       </c>
@@ -5971,23 +6237,23 @@
       <c r="C156">
         <v>0</v>
       </c>
-      <c r="D156" s="3">
-        <v>40</v>
-      </c>
-      <c r="E156" s="3">
-        <v>155</v>
-      </c>
-      <c r="F156" s="6" t="s">
+      <c r="D156" s="6">
+        <v>40</v>
+      </c>
+      <c r="E156" s="6">
+        <v>155</v>
+      </c>
+      <c r="F156" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="G156" s="1" t="s">
+      <c r="G156" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="H156" s="7">
+      <c r="H156" s="10">
         <v>100192</v>
       </c>
     </row>
-    <row r="157" ht="14.25" spans="1:8">
+    <row r="157" ht="15.6" spans="1:8">
       <c r="A157">
         <v>157</v>
       </c>
@@ -5997,23 +6263,23 @@
       <c r="C157">
         <v>0</v>
       </c>
-      <c r="D157" s="3">
-        <v>40</v>
-      </c>
-      <c r="E157" s="3">
-        <v>155</v>
-      </c>
-      <c r="F157" s="6" t="s">
+      <c r="D157" s="6">
+        <v>40</v>
+      </c>
+      <c r="E157" s="6">
+        <v>155</v>
+      </c>
+      <c r="F157" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G157" s="1" t="s">
+      <c r="G157" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="H157" s="7">
+      <c r="H157" s="10">
         <v>100193</v>
       </c>
     </row>
-    <row r="158" ht="14.25" spans="1:8">
+    <row r="158" ht="15.6" spans="1:8">
       <c r="A158">
         <v>158</v>
       </c>
@@ -6023,23 +6289,23 @@
       <c r="C158">
         <v>0</v>
       </c>
-      <c r="D158" s="3">
-        <v>40</v>
-      </c>
-      <c r="E158" s="3">
-        <v>155</v>
-      </c>
-      <c r="F158" s="6" t="s">
+      <c r="D158" s="6">
+        <v>40</v>
+      </c>
+      <c r="E158" s="6">
+        <v>155</v>
+      </c>
+      <c r="F158" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G158" s="1" t="s">
+      <c r="G158" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="H158" s="7">
+      <c r="H158" s="10">
         <v>100194</v>
       </c>
     </row>
-    <row r="159" ht="14.25" spans="1:8">
+    <row r="159" ht="15.6" spans="1:8">
       <c r="A159">
         <v>159</v>
       </c>
@@ -6049,23 +6315,23 @@
       <c r="C159">
         <v>0</v>
       </c>
-      <c r="D159" s="3">
-        <v>40</v>
-      </c>
-      <c r="E159" s="3">
-        <v>155</v>
-      </c>
-      <c r="F159" s="6" t="s">
+      <c r="D159" s="6">
+        <v>40</v>
+      </c>
+      <c r="E159" s="6">
+        <v>155</v>
+      </c>
+      <c r="F159" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G159" s="1" t="s">
+      <c r="G159" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="H159" s="7">
+      <c r="H159" s="10">
         <v>100195</v>
       </c>
     </row>
-    <row r="160" ht="14.25" spans="1:8">
+    <row r="160" ht="15.6" spans="1:8">
       <c r="A160">
         <v>160</v>
       </c>
@@ -6075,23 +6341,23 @@
       <c r="C160">
         <v>0</v>
       </c>
-      <c r="D160" s="3">
-        <v>40</v>
-      </c>
-      <c r="E160" s="3">
-        <v>155</v>
-      </c>
-      <c r="F160" s="6" t="s">
+      <c r="D160" s="6">
+        <v>40</v>
+      </c>
+      <c r="E160" s="6">
+        <v>155</v>
+      </c>
+      <c r="F160" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="G160" s="1" t="s">
+      <c r="G160" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H160" s="7">
+      <c r="H160" s="10">
         <v>100196</v>
       </c>
     </row>
-    <row r="161" ht="14.25" spans="1:8">
+    <row r="161" ht="15.6" spans="1:8">
       <c r="A161">
         <v>161</v>
       </c>
@@ -6101,23 +6367,23 @@
       <c r="C161">
         <v>0</v>
       </c>
-      <c r="D161" s="3">
-        <v>40</v>
-      </c>
-      <c r="E161" s="3">
-        <v>155</v>
-      </c>
-      <c r="F161" s="6" t="s">
+      <c r="D161" s="6">
+        <v>40</v>
+      </c>
+      <c r="E161" s="6">
+        <v>155</v>
+      </c>
+      <c r="F161" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="G161" s="1" t="s">
+      <c r="G161" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="H161" s="7">
+      <c r="H161" s="10">
         <v>100197</v>
       </c>
     </row>
-    <row r="162" ht="14.25" spans="1:8">
+    <row r="162" ht="15.6" spans="1:8">
       <c r="A162">
         <v>162</v>
       </c>
@@ -6127,23 +6393,23 @@
       <c r="C162">
         <v>0</v>
       </c>
-      <c r="D162" s="3">
-        <v>40</v>
-      </c>
-      <c r="E162" s="3">
-        <v>155</v>
-      </c>
-      <c r="F162" s="6" t="s">
+      <c r="D162" s="6">
+        <v>40</v>
+      </c>
+      <c r="E162" s="6">
+        <v>155</v>
+      </c>
+      <c r="F162" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="G162" s="1" t="s">
+      <c r="G162" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="H162" s="7">
+      <c r="H162" s="10">
         <v>100198</v>
       </c>
     </row>
-    <row r="163" ht="14.25" spans="1:8">
+    <row r="163" ht="15.6" spans="1:8">
       <c r="A163">
         <v>163</v>
       </c>
@@ -6153,23 +6419,23 @@
       <c r="C163">
         <v>0</v>
       </c>
-      <c r="D163" s="3">
-        <v>40</v>
-      </c>
-      <c r="E163" s="3">
-        <v>155</v>
-      </c>
-      <c r="F163" s="6" t="s">
+      <c r="D163" s="6">
+        <v>40</v>
+      </c>
+      <c r="E163" s="6">
+        <v>155</v>
+      </c>
+      <c r="F163" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="G163" s="1" t="s">
+      <c r="G163" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="H163" s="7">
+      <c r="H163" s="10">
         <v>100199</v>
       </c>
     </row>
-    <row r="164" ht="14.25" spans="1:8">
+    <row r="164" ht="15.6" spans="1:8">
       <c r="A164">
         <v>164</v>
       </c>
@@ -6179,23 +6445,23 @@
       <c r="C164">
         <v>0</v>
       </c>
-      <c r="D164" s="3">
-        <v>40</v>
-      </c>
-      <c r="E164" s="3">
-        <v>155</v>
-      </c>
-      <c r="F164" s="6" t="s">
+      <c r="D164" s="6">
+        <v>40</v>
+      </c>
+      <c r="E164" s="6">
+        <v>155</v>
+      </c>
+      <c r="F164" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="G164" s="1" t="s">
+      <c r="G164" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="H164" s="7">
+      <c r="H164" s="10">
         <v>100200</v>
       </c>
     </row>
-    <row r="165" ht="14.25" spans="1:8">
+    <row r="165" ht="15.6" spans="1:8">
       <c r="A165">
         <v>165</v>
       </c>
@@ -6205,23 +6471,23 @@
       <c r="C165">
         <v>0</v>
       </c>
-      <c r="D165" s="3">
-        <v>40</v>
-      </c>
-      <c r="E165" s="3">
-        <v>155</v>
-      </c>
-      <c r="F165" s="8" t="s">
+      <c r="D165" s="6">
+        <v>40</v>
+      </c>
+      <c r="E165" s="6">
+        <v>155</v>
+      </c>
+      <c r="F165" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G165" s="1" t="s">
+      <c r="G165" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="H165" s="7">
+      <c r="H165" s="10">
         <v>100191</v>
       </c>
     </row>
-    <row r="166" ht="14.25" spans="1:8">
+    <row r="166" ht="15.6" spans="1:8">
       <c r="A166">
         <v>166</v>
       </c>
@@ -6231,23 +6497,23 @@
       <c r="C166">
         <v>0</v>
       </c>
-      <c r="D166" s="3">
-        <v>40</v>
-      </c>
-      <c r="E166" s="3">
-        <v>155</v>
-      </c>
-      <c r="F166" s="8" t="s">
+      <c r="D166" s="6">
+        <v>40</v>
+      </c>
+      <c r="E166" s="6">
+        <v>155</v>
+      </c>
+      <c r="F166" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="G166" s="1" t="s">
+      <c r="G166" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="H166" s="7">
+      <c r="H166" s="10">
         <v>100192</v>
       </c>
     </row>
-    <row r="167" ht="14.25" spans="1:8">
+    <row r="167" ht="15.6" spans="1:8">
       <c r="A167">
         <v>167</v>
       </c>
@@ -6257,23 +6523,23 @@
       <c r="C167">
         <v>0</v>
       </c>
-      <c r="D167" s="3">
-        <v>40</v>
-      </c>
-      <c r="E167" s="3">
-        <v>155</v>
-      </c>
-      <c r="F167" s="8" t="s">
+      <c r="D167" s="6">
+        <v>40</v>
+      </c>
+      <c r="E167" s="6">
+        <v>155</v>
+      </c>
+      <c r="F167" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="G167" s="1" t="s">
+      <c r="G167" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="H167" s="7">
+      <c r="H167" s="10">
         <v>100193</v>
       </c>
     </row>
-    <row r="168" ht="14.25" spans="1:8">
+    <row r="168" ht="15.6" spans="1:8">
       <c r="A168">
         <v>168</v>
       </c>
@@ -6283,23 +6549,23 @@
       <c r="C168">
         <v>0</v>
       </c>
-      <c r="D168" s="3">
-        <v>40</v>
-      </c>
-      <c r="E168" s="3">
-        <v>155</v>
-      </c>
-      <c r="F168" s="8" t="s">
+      <c r="D168" s="6">
+        <v>40</v>
+      </c>
+      <c r="E168" s="6">
+        <v>155</v>
+      </c>
+      <c r="F168" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="G168" s="1" t="s">
+      <c r="G168" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="H168" s="7">
+      <c r="H168" s="10">
         <v>100194</v>
       </c>
     </row>
-    <row r="169" ht="14.25" spans="1:8">
+    <row r="169" ht="15.6" spans="1:8">
       <c r="A169">
         <v>169</v>
       </c>
@@ -6309,23 +6575,23 @@
       <c r="C169">
         <v>0</v>
       </c>
-      <c r="D169" s="3">
-        <v>40</v>
-      </c>
-      <c r="E169" s="3">
-        <v>155</v>
-      </c>
-      <c r="F169" s="8" t="s">
+      <c r="D169" s="6">
+        <v>40</v>
+      </c>
+      <c r="E169" s="6">
+        <v>155</v>
+      </c>
+      <c r="F169" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="G169" s="1" t="s">
+      <c r="G169" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="H169" s="7">
+      <c r="H169" s="10">
         <v>100195</v>
       </c>
     </row>
-    <row r="170" ht="14.25" spans="1:8">
+    <row r="170" ht="15.6" spans="1:8">
       <c r="A170">
         <v>170</v>
       </c>
@@ -6335,23 +6601,23 @@
       <c r="C170">
         <v>0</v>
       </c>
-      <c r="D170" s="3">
-        <v>40</v>
-      </c>
-      <c r="E170" s="3">
-        <v>155</v>
-      </c>
-      <c r="F170" s="8" t="s">
+      <c r="D170" s="6">
+        <v>40</v>
+      </c>
+      <c r="E170" s="6">
+        <v>155</v>
+      </c>
+      <c r="F170" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="G170" s="1" t="s">
+      <c r="G170" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="H170" s="7">
+      <c r="H170" s="10">
         <v>100196</v>
       </c>
     </row>
-    <row r="171" ht="14.25" spans="1:8">
+    <row r="171" ht="15.6" spans="1:8">
       <c r="A171">
         <v>171</v>
       </c>
@@ -6361,23 +6627,23 @@
       <c r="C171">
         <v>0</v>
       </c>
-      <c r="D171" s="3">
-        <v>40</v>
-      </c>
-      <c r="E171" s="3">
-        <v>155</v>
-      </c>
-      <c r="F171" s="8" t="s">
+      <c r="D171" s="6">
+        <v>40</v>
+      </c>
+      <c r="E171" s="6">
+        <v>155</v>
+      </c>
+      <c r="F171" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="G171" s="1" t="s">
+      <c r="G171" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="H171" s="7">
+      <c r="H171" s="10">
         <v>100197</v>
       </c>
     </row>
-    <row r="172" ht="14.25" spans="1:8">
+    <row r="172" ht="15.6" spans="1:8">
       <c r="A172">
         <v>172</v>
       </c>
@@ -6387,23 +6653,23 @@
       <c r="C172">
         <v>0</v>
       </c>
-      <c r="D172" s="3">
-        <v>40</v>
-      </c>
-      <c r="E172" s="3">
-        <v>155</v>
-      </c>
-      <c r="F172" s="8" t="s">
+      <c r="D172" s="6">
+        <v>40</v>
+      </c>
+      <c r="E172" s="6">
+        <v>155</v>
+      </c>
+      <c r="F172" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="G172" s="1" t="s">
+      <c r="G172" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="H172" s="7">
+      <c r="H172" s="10">
         <v>100198</v>
       </c>
     </row>
-    <row r="173" ht="14.25" spans="1:8">
+    <row r="173" ht="15.6" spans="1:8">
       <c r="A173">
         <v>173</v>
       </c>
@@ -6413,23 +6679,23 @@
       <c r="C173">
         <v>0</v>
       </c>
-      <c r="D173" s="3">
-        <v>40</v>
-      </c>
-      <c r="E173" s="3">
-        <v>155</v>
-      </c>
-      <c r="F173" s="8" t="s">
+      <c r="D173" s="6">
+        <v>40</v>
+      </c>
+      <c r="E173" s="6">
+        <v>155</v>
+      </c>
+      <c r="F173" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="G173" s="1" t="s">
+      <c r="G173" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="H173" s="7">
+      <c r="H173" s="10">
         <v>100199</v>
       </c>
     </row>
-    <row r="174" ht="14.25" spans="1:8">
+    <row r="174" ht="15.6" spans="1:8">
       <c r="A174">
         <v>174</v>
       </c>
@@ -6439,23 +6705,23 @@
       <c r="C174">
         <v>0</v>
       </c>
-      <c r="D174" s="3">
-        <v>40</v>
-      </c>
-      <c r="E174" s="3">
-        <v>155</v>
-      </c>
-      <c r="F174" s="8" t="s">
+      <c r="D174" s="6">
+        <v>40</v>
+      </c>
+      <c r="E174" s="6">
+        <v>155</v>
+      </c>
+      <c r="F174" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="G174" s="1" t="s">
+      <c r="G174" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="H174" s="7">
+      <c r="H174" s="10">
         <v>100200</v>
       </c>
     </row>
-    <row r="175" ht="14.25" spans="1:8">
+    <row r="175" ht="15.6" spans="1:8">
       <c r="A175">
         <v>175</v>
       </c>
@@ -6465,23 +6731,23 @@
       <c r="C175">
         <v>0</v>
       </c>
-      <c r="D175" s="3">
-        <v>40</v>
-      </c>
-      <c r="E175" s="3">
-        <v>155</v>
-      </c>
-      <c r="F175" s="6" t="s">
+      <c r="D175" s="6">
+        <v>40</v>
+      </c>
+      <c r="E175" s="6">
+        <v>155</v>
+      </c>
+      <c r="F175" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G175" s="1" t="s">
+      <c r="G175" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="H175" s="7">
+      <c r="H175" s="10">
         <v>100191</v>
       </c>
     </row>
-    <row r="176" ht="14.25" spans="1:8">
+    <row r="176" ht="15.6" spans="1:8">
       <c r="A176">
         <v>176</v>
       </c>
@@ -6491,23 +6757,23 @@
       <c r="C176">
         <v>0</v>
       </c>
-      <c r="D176" s="3">
-        <v>40</v>
-      </c>
-      <c r="E176" s="3">
-        <v>155</v>
-      </c>
-      <c r="F176" s="6" t="s">
+      <c r="D176" s="6">
+        <v>40</v>
+      </c>
+      <c r="E176" s="6">
+        <v>155</v>
+      </c>
+      <c r="F176" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="G176" s="1" t="s">
+      <c r="G176" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="H176" s="7">
+      <c r="H176" s="10">
         <v>100192</v>
       </c>
     </row>
-    <row r="177" ht="14.25" spans="1:8">
+    <row r="177" ht="15.6" spans="1:8">
       <c r="A177">
         <v>177</v>
       </c>
@@ -6517,23 +6783,23 @@
       <c r="C177">
         <v>0</v>
       </c>
-      <c r="D177" s="3">
-        <v>40</v>
-      </c>
-      <c r="E177" s="3">
-        <v>155</v>
-      </c>
-      <c r="F177" s="6" t="s">
+      <c r="D177" s="6">
+        <v>40</v>
+      </c>
+      <c r="E177" s="6">
+        <v>155</v>
+      </c>
+      <c r="F177" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G177" s="1" t="s">
+      <c r="G177" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="H177" s="7">
+      <c r="H177" s="10">
         <v>100193</v>
       </c>
     </row>
-    <row r="178" ht="14.25" spans="1:8">
+    <row r="178" ht="15.6" spans="1:8">
       <c r="A178">
         <v>178</v>
       </c>
@@ -6543,23 +6809,23 @@
       <c r="C178">
         <v>0</v>
       </c>
-      <c r="D178" s="3">
-        <v>40</v>
-      </c>
-      <c r="E178" s="3">
-        <v>155</v>
-      </c>
-      <c r="F178" s="6" t="s">
+      <c r="D178" s="6">
+        <v>40</v>
+      </c>
+      <c r="E178" s="6">
+        <v>155</v>
+      </c>
+      <c r="F178" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G178" s="1" t="s">
+      <c r="G178" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="H178" s="7">
+      <c r="H178" s="10">
         <v>100194</v>
       </c>
     </row>
-    <row r="179" ht="14.25" spans="1:8">
+    <row r="179" ht="15.6" spans="1:8">
       <c r="A179">
         <v>179</v>
       </c>
@@ -6569,23 +6835,23 @@
       <c r="C179">
         <v>0</v>
       </c>
-      <c r="D179" s="3">
-        <v>40</v>
-      </c>
-      <c r="E179" s="3">
-        <v>155</v>
-      </c>
-      <c r="F179" s="6" t="s">
+      <c r="D179" s="6">
+        <v>40</v>
+      </c>
+      <c r="E179" s="6">
+        <v>155</v>
+      </c>
+      <c r="F179" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G179" s="1" t="s">
+      <c r="G179" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="H179" s="7">
+      <c r="H179" s="10">
         <v>100195</v>
       </c>
     </row>
-    <row r="180" ht="14.25" spans="1:8">
+    <row r="180" ht="15.6" spans="1:8">
       <c r="A180">
         <v>180</v>
       </c>
@@ -6595,23 +6861,23 @@
       <c r="C180">
         <v>0</v>
       </c>
-      <c r="D180" s="3">
-        <v>40</v>
-      </c>
-      <c r="E180" s="3">
-        <v>155</v>
-      </c>
-      <c r="F180" s="6" t="s">
+      <c r="D180" s="6">
+        <v>40</v>
+      </c>
+      <c r="E180" s="6">
+        <v>155</v>
+      </c>
+      <c r="F180" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="G180" s="1" t="s">
+      <c r="G180" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="H180" s="7">
+      <c r="H180" s="10">
         <v>100196</v>
       </c>
     </row>
-    <row r="181" ht="14.25" spans="1:8">
+    <row r="181" ht="15.6" spans="1:8">
       <c r="A181">
         <v>181</v>
       </c>
@@ -6621,23 +6887,23 @@
       <c r="C181">
         <v>0</v>
       </c>
-      <c r="D181" s="3">
-        <v>40</v>
-      </c>
-      <c r="E181" s="3">
-        <v>155</v>
-      </c>
-      <c r="F181" s="6" t="s">
+      <c r="D181" s="6">
+        <v>40</v>
+      </c>
+      <c r="E181" s="6">
+        <v>155</v>
+      </c>
+      <c r="F181" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="G181" s="1" t="s">
+      <c r="G181" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="H181" s="7">
+      <c r="H181" s="10">
         <v>100197</v>
       </c>
     </row>
-    <row r="182" ht="14.25" spans="1:8">
+    <row r="182" ht="15.6" spans="1:8">
       <c r="A182">
         <v>182</v>
       </c>
@@ -6647,23 +6913,23 @@
       <c r="C182">
         <v>0</v>
       </c>
-      <c r="D182" s="3">
-        <v>40</v>
-      </c>
-      <c r="E182" s="3">
-        <v>155</v>
-      </c>
-      <c r="F182" s="6" t="s">
+      <c r="D182" s="6">
+        <v>40</v>
+      </c>
+      <c r="E182" s="6">
+        <v>155</v>
+      </c>
+      <c r="F182" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="G182" s="1" t="s">
+      <c r="G182" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="H182" s="7">
+      <c r="H182" s="10">
         <v>100198</v>
       </c>
     </row>
-    <row r="183" ht="14.25" spans="1:8">
+    <row r="183" ht="15.6" spans="1:8">
       <c r="A183">
         <v>183</v>
       </c>
@@ -6673,23 +6939,23 @@
       <c r="C183">
         <v>0</v>
       </c>
-      <c r="D183" s="3">
-        <v>40</v>
-      </c>
-      <c r="E183" s="3">
-        <v>155</v>
-      </c>
-      <c r="F183" s="6" t="s">
+      <c r="D183" s="6">
+        <v>40</v>
+      </c>
+      <c r="E183" s="6">
+        <v>155</v>
+      </c>
+      <c r="F183" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="G183" s="1" t="s">
+      <c r="G183" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="H183" s="7">
+      <c r="H183" s="10">
         <v>100199</v>
       </c>
     </row>
-    <row r="184" ht="14.25" spans="1:8">
+    <row r="184" ht="15.6" spans="1:8">
       <c r="A184">
         <v>184</v>
       </c>
@@ -6699,23 +6965,23 @@
       <c r="C184">
         <v>0</v>
       </c>
-      <c r="D184" s="3">
-        <v>40</v>
-      </c>
-      <c r="E184" s="3">
-        <v>155</v>
-      </c>
-      <c r="F184" s="6" t="s">
+      <c r="D184" s="6">
+        <v>40</v>
+      </c>
+      <c r="E184" s="6">
+        <v>155</v>
+      </c>
+      <c r="F184" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="G184" s="1" t="s">
+      <c r="G184" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="H184" s="7">
+      <c r="H184" s="10">
         <v>100200</v>
       </c>
     </row>
-    <row r="185" ht="14.25" spans="1:8">
+    <row r="185" ht="15.6" spans="1:8">
       <c r="A185">
         <v>185</v>
       </c>
@@ -6725,23 +6991,23 @@
       <c r="C185">
         <v>0</v>
       </c>
-      <c r="D185" s="3">
-        <v>40</v>
-      </c>
-      <c r="E185" s="3">
-        <v>155</v>
-      </c>
-      <c r="F185" s="8" t="s">
+      <c r="D185" s="6">
+        <v>40</v>
+      </c>
+      <c r="E185" s="6">
+        <v>155</v>
+      </c>
+      <c r="F185" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G185" s="1" t="s">
+      <c r="G185" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="H185" s="7">
+      <c r="H185" s="10">
         <v>100191</v>
       </c>
     </row>
-    <row r="186" ht="14.25" spans="1:8">
+    <row r="186" ht="15.6" spans="1:8">
       <c r="A186">
         <v>186</v>
       </c>
@@ -6751,23 +7017,23 @@
       <c r="C186">
         <v>0</v>
       </c>
-      <c r="D186" s="3">
-        <v>40</v>
-      </c>
-      <c r="E186" s="3">
-        <v>155</v>
-      </c>
-      <c r="F186" s="8" t="s">
+      <c r="D186" s="6">
+        <v>40</v>
+      </c>
+      <c r="E186" s="6">
+        <v>155</v>
+      </c>
+      <c r="F186" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="G186" s="1" t="s">
+      <c r="G186" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="H186" s="7">
+      <c r="H186" s="10">
         <v>100192</v>
       </c>
     </row>
-    <row r="187" ht="14.25" spans="1:8">
+    <row r="187" ht="15.6" spans="1:8">
       <c r="A187">
         <v>187</v>
       </c>
@@ -6777,23 +7043,23 @@
       <c r="C187">
         <v>0</v>
       </c>
-      <c r="D187" s="3">
-        <v>40</v>
-      </c>
-      <c r="E187" s="3">
-        <v>155</v>
-      </c>
-      <c r="F187" s="8" t="s">
+      <c r="D187" s="6">
+        <v>40</v>
+      </c>
+      <c r="E187" s="6">
+        <v>155</v>
+      </c>
+      <c r="F187" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="G187" s="1" t="s">
+      <c r="G187" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="H187" s="7">
+      <c r="H187" s="10">
         <v>100193</v>
       </c>
     </row>
-    <row r="188" ht="14.25" spans="1:8">
+    <row r="188" ht="15.6" spans="1:8">
       <c r="A188">
         <v>188</v>
       </c>
@@ -6803,23 +7069,23 @@
       <c r="C188">
         <v>0</v>
       </c>
-      <c r="D188" s="3">
-        <v>40</v>
-      </c>
-      <c r="E188" s="3">
-        <v>155</v>
-      </c>
-      <c r="F188" s="8" t="s">
+      <c r="D188" s="6">
+        <v>40</v>
+      </c>
+      <c r="E188" s="6">
+        <v>155</v>
+      </c>
+      <c r="F188" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="G188" s="1" t="s">
+      <c r="G188" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="H188" s="7">
+      <c r="H188" s="10">
         <v>100194</v>
       </c>
     </row>
-    <row r="189" ht="14.25" spans="1:8">
+    <row r="189" ht="15.6" spans="1:8">
       <c r="A189">
         <v>189</v>
       </c>
@@ -6829,23 +7095,23 @@
       <c r="C189">
         <v>0</v>
       </c>
-      <c r="D189" s="3">
-        <v>40</v>
-      </c>
-      <c r="E189" s="3">
-        <v>155</v>
-      </c>
-      <c r="F189" s="8" t="s">
+      <c r="D189" s="6">
+        <v>40</v>
+      </c>
+      <c r="E189" s="6">
+        <v>155</v>
+      </c>
+      <c r="F189" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="G189" s="1" t="s">
+      <c r="G189" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="H189" s="7">
+      <c r="H189" s="10">
         <v>100195</v>
       </c>
     </row>
-    <row r="190" ht="14.25" spans="1:8">
+    <row r="190" ht="15.6" spans="1:8">
       <c r="A190">
         <v>190</v>
       </c>
@@ -6855,23 +7121,23 @@
       <c r="C190">
         <v>0</v>
       </c>
-      <c r="D190" s="3">
-        <v>40</v>
-      </c>
-      <c r="E190" s="3">
-        <v>155</v>
-      </c>
-      <c r="F190" s="8" t="s">
+      <c r="D190" s="6">
+        <v>40</v>
+      </c>
+      <c r="E190" s="6">
+        <v>155</v>
+      </c>
+      <c r="F190" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="G190" s="1" t="s">
+      <c r="G190" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="H190" s="7">
+      <c r="H190" s="10">
         <v>100196</v>
       </c>
     </row>
-    <row r="191" ht="14.25" spans="1:8">
+    <row r="191" ht="15.6" spans="1:8">
       <c r="A191">
         <v>191</v>
       </c>
@@ -6881,23 +7147,23 @@
       <c r="C191">
         <v>0</v>
       </c>
-      <c r="D191" s="3">
-        <v>40</v>
-      </c>
-      <c r="E191" s="3">
-        <v>155</v>
-      </c>
-      <c r="F191" s="8" t="s">
+      <c r="D191" s="6">
+        <v>40</v>
+      </c>
+      <c r="E191" s="6">
+        <v>155</v>
+      </c>
+      <c r="F191" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="G191" s="1" t="s">
+      <c r="G191" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="H191" s="7">
+      <c r="H191" s="10">
         <v>100197</v>
       </c>
     </row>
-    <row r="192" ht="14.25" spans="1:8">
+    <row r="192" ht="15.6" spans="1:8">
       <c r="A192">
         <v>192</v>
       </c>
@@ -6907,23 +7173,23 @@
       <c r="C192">
         <v>0</v>
       </c>
-      <c r="D192" s="3">
-        <v>40</v>
-      </c>
-      <c r="E192" s="3">
-        <v>155</v>
-      </c>
-      <c r="F192" s="8" t="s">
+      <c r="D192" s="6">
+        <v>40</v>
+      </c>
+      <c r="E192" s="6">
+        <v>155</v>
+      </c>
+      <c r="F192" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="G192" s="1" t="s">
+      <c r="G192" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="H192" s="7">
+      <c r="H192" s="10">
         <v>100198</v>
       </c>
     </row>
-    <row r="193" ht="14.25" spans="1:8">
+    <row r="193" ht="15.6" spans="1:8">
       <c r="A193">
         <v>193</v>
       </c>
@@ -6933,23 +7199,23 @@
       <c r="C193">
         <v>0</v>
       </c>
-      <c r="D193" s="3">
-        <v>40</v>
-      </c>
-      <c r="E193" s="3">
-        <v>155</v>
-      </c>
-      <c r="F193" s="8" t="s">
+      <c r="D193" s="6">
+        <v>40</v>
+      </c>
+      <c r="E193" s="6">
+        <v>155</v>
+      </c>
+      <c r="F193" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="G193" s="1" t="s">
+      <c r="G193" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="H193" s="7">
+      <c r="H193" s="10">
         <v>100199</v>
       </c>
     </row>
-    <row r="194" ht="14.25" spans="1:8">
+    <row r="194" ht="15.6" spans="1:8">
       <c r="A194">
         <v>194</v>
       </c>
@@ -6959,23 +7225,23 @@
       <c r="C194">
         <v>0</v>
       </c>
-      <c r="D194" s="3">
-        <v>40</v>
-      </c>
-      <c r="E194" s="3">
-        <v>155</v>
-      </c>
-      <c r="F194" s="8" t="s">
+      <c r="D194" s="6">
+        <v>40</v>
+      </c>
+      <c r="E194" s="6">
+        <v>155</v>
+      </c>
+      <c r="F194" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="G194" s="1" t="s">
+      <c r="G194" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="H194" s="7">
+      <c r="H194" s="10">
         <v>100200</v>
       </c>
     </row>
-    <row r="195" ht="14.25" spans="1:8">
+    <row r="195" ht="15.6" spans="1:8">
       <c r="A195">
         <v>195</v>
       </c>
@@ -6985,23 +7251,23 @@
       <c r="C195">
         <v>0</v>
       </c>
-      <c r="D195" s="3">
-        <v>40</v>
-      </c>
-      <c r="E195" s="3">
-        <v>155</v>
-      </c>
-      <c r="F195" s="6" t="s">
+      <c r="D195" s="6">
+        <v>40</v>
+      </c>
+      <c r="E195" s="6">
+        <v>155</v>
+      </c>
+      <c r="F195" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G195" s="1" t="s">
+      <c r="G195" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="H195" s="7">
+      <c r="H195" s="10">
         <v>100191</v>
       </c>
     </row>
-    <row r="196" ht="14.25" spans="1:8">
+    <row r="196" ht="15.6" spans="1:8">
       <c r="A196">
         <v>196</v>
       </c>
@@ -7011,23 +7277,23 @@
       <c r="C196">
         <v>0</v>
       </c>
-      <c r="D196" s="3">
-        <v>40</v>
-      </c>
-      <c r="E196" s="3">
-        <v>155</v>
-      </c>
-      <c r="F196" s="6" t="s">
+      <c r="D196" s="6">
+        <v>40</v>
+      </c>
+      <c r="E196" s="6">
+        <v>155</v>
+      </c>
+      <c r="F196" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="G196" s="1" t="s">
+      <c r="G196" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="H196" s="7">
+      <c r="H196" s="10">
         <v>100192</v>
       </c>
     </row>
-    <row r="197" ht="14.25" spans="1:8">
+    <row r="197" ht="15.6" spans="1:8">
       <c r="A197">
         <v>197</v>
       </c>
@@ -7037,23 +7303,23 @@
       <c r="C197">
         <v>0</v>
       </c>
-      <c r="D197" s="3">
-        <v>40</v>
-      </c>
-      <c r="E197" s="3">
-        <v>155</v>
-      </c>
-      <c r="F197" s="6" t="s">
+      <c r="D197" s="6">
+        <v>40</v>
+      </c>
+      <c r="E197" s="6">
+        <v>155</v>
+      </c>
+      <c r="F197" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G197" s="1" t="s">
+      <c r="G197" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="H197" s="7">
+      <c r="H197" s="10">
         <v>100193</v>
       </c>
     </row>
-    <row r="198" ht="14.25" spans="1:8">
+    <row r="198" ht="15.6" spans="1:8">
       <c r="A198">
         <v>198</v>
       </c>
@@ -7063,23 +7329,23 @@
       <c r="C198">
         <v>0</v>
       </c>
-      <c r="D198" s="3">
-        <v>40</v>
-      </c>
-      <c r="E198" s="3">
-        <v>155</v>
-      </c>
-      <c r="F198" s="6" t="s">
+      <c r="D198" s="6">
+        <v>40</v>
+      </c>
+      <c r="E198" s="6">
+        <v>155</v>
+      </c>
+      <c r="F198" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G198" s="1" t="s">
+      <c r="G198" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H198" s="7">
+      <c r="H198" s="10">
         <v>100194</v>
       </c>
     </row>
-    <row r="199" ht="14.25" spans="1:8">
+    <row r="199" ht="15.6" spans="1:8">
       <c r="A199">
         <v>199</v>
       </c>
@@ -7089,23 +7355,23 @@
       <c r="C199">
         <v>0</v>
       </c>
-      <c r="D199" s="3">
-        <v>40</v>
-      </c>
-      <c r="E199" s="3">
-        <v>155</v>
-      </c>
-      <c r="F199" s="6" t="s">
+      <c r="D199" s="6">
+        <v>40</v>
+      </c>
+      <c r="E199" s="6">
+        <v>155</v>
+      </c>
+      <c r="F199" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G199" s="1" t="s">
+      <c r="G199" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="H199" s="7">
+      <c r="H199" s="10">
         <v>100195</v>
       </c>
     </row>
-    <row r="200" ht="14.25" spans="1:8">
+    <row r="200" ht="15.6" spans="1:8">
       <c r="A200">
         <v>200</v>
       </c>
@@ -7115,23 +7381,23 @@
       <c r="C200">
         <v>0</v>
       </c>
-      <c r="D200" s="3">
-        <v>40</v>
-      </c>
-      <c r="E200" s="3">
-        <v>155</v>
-      </c>
-      <c r="F200" s="6" t="s">
+      <c r="D200" s="6">
+        <v>40</v>
+      </c>
+      <c r="E200" s="6">
+        <v>155</v>
+      </c>
+      <c r="F200" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="G200" s="1" t="s">
+      <c r="G200" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="H200" s="7">
+      <c r="H200" s="10">
         <v>100196</v>
       </c>
     </row>
-    <row r="201" ht="14.25" spans="1:8">
+    <row r="201" ht="15.6" spans="1:8">
       <c r="A201">
         <v>201</v>
       </c>
@@ -7141,23 +7407,23 @@
       <c r="C201">
         <v>0</v>
       </c>
-      <c r="D201" s="3">
-        <v>40</v>
-      </c>
-      <c r="E201" s="3">
-        <v>155</v>
-      </c>
-      <c r="F201" s="6" t="s">
+      <c r="D201" s="6">
+        <v>40</v>
+      </c>
+      <c r="E201" s="6">
+        <v>155</v>
+      </c>
+      <c r="F201" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="G201" s="1" t="s">
+      <c r="G201" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="H201" s="7">
+      <c r="H201" s="10">
         <v>100197</v>
       </c>
     </row>
-    <row r="202" ht="14.25" spans="1:8">
+    <row r="202" ht="15.6" spans="1:8">
       <c r="A202">
         <v>202</v>
       </c>
@@ -7167,23 +7433,23 @@
       <c r="C202">
         <v>0</v>
       </c>
-      <c r="D202" s="3">
-        <v>40</v>
-      </c>
-      <c r="E202" s="3">
-        <v>155</v>
-      </c>
-      <c r="F202" s="6" t="s">
+      <c r="D202" s="6">
+        <v>40</v>
+      </c>
+      <c r="E202" s="6">
+        <v>155</v>
+      </c>
+      <c r="F202" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="G202" s="1" t="s">
+      <c r="G202" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="H202" s="7">
+      <c r="H202" s="10">
         <v>100198</v>
       </c>
     </row>
-    <row r="203" ht="14.25" spans="1:8">
+    <row r="203" ht="15.6" spans="1:8">
       <c r="A203">
         <v>203</v>
       </c>
@@ -7193,23 +7459,23 @@
       <c r="C203">
         <v>0</v>
       </c>
-      <c r="D203" s="3">
-        <v>40</v>
-      </c>
-      <c r="E203" s="3">
-        <v>155</v>
-      </c>
-      <c r="F203" s="6" t="s">
+      <c r="D203" s="6">
+        <v>40</v>
+      </c>
+      <c r="E203" s="6">
+        <v>155</v>
+      </c>
+      <c r="F203" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="G203" s="1" t="s">
+      <c r="G203" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="H203" s="7">
+      <c r="H203" s="10">
         <v>100199</v>
       </c>
     </row>
-    <row r="204" ht="14.25" spans="1:8">
+    <row r="204" ht="15.6" spans="1:8">
       <c r="A204">
         <v>204</v>
       </c>
@@ -7219,23 +7485,23 @@
       <c r="C204">
         <v>0</v>
       </c>
-      <c r="D204" s="3">
-        <v>40</v>
-      </c>
-      <c r="E204" s="3">
-        <v>155</v>
-      </c>
-      <c r="F204" s="6" t="s">
+      <c r="D204" s="6">
+        <v>40</v>
+      </c>
+      <c r="E204" s="6">
+        <v>155</v>
+      </c>
+      <c r="F204" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="G204" s="1" t="s">
+      <c r="G204" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="H204" s="7">
+      <c r="H204" s="10">
         <v>100200</v>
       </c>
     </row>
-    <row r="205" ht="14.25" spans="1:8">
+    <row r="205" ht="15.6" spans="1:8">
       <c r="A205">
         <v>205</v>
       </c>
@@ -7245,23 +7511,23 @@
       <c r="C205">
         <v>0</v>
       </c>
-      <c r="D205" s="3">
-        <v>40</v>
-      </c>
-      <c r="E205" s="3">
-        <v>155</v>
-      </c>
-      <c r="F205" s="8" t="s">
+      <c r="D205" s="6">
+        <v>40</v>
+      </c>
+      <c r="E205" s="6">
+        <v>155</v>
+      </c>
+      <c r="F205" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G205" s="1" t="s">
+      <c r="G205" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="H205" s="7">
+      <c r="H205" s="10">
         <v>100191</v>
       </c>
     </row>
-    <row r="206" ht="14.25" spans="1:8">
+    <row r="206" ht="15.6" spans="1:8">
       <c r="A206">
         <v>206</v>
       </c>
@@ -7271,23 +7537,23 @@
       <c r="C206">
         <v>0</v>
       </c>
-      <c r="D206" s="3">
-        <v>40</v>
-      </c>
-      <c r="E206" s="3">
-        <v>155</v>
-      </c>
-      <c r="F206" s="8" t="s">
+      <c r="D206" s="6">
+        <v>40</v>
+      </c>
+      <c r="E206" s="6">
+        <v>155</v>
+      </c>
+      <c r="F206" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="G206" s="1" t="s">
+      <c r="G206" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="H206" s="7">
+      <c r="H206" s="10">
         <v>100192</v>
       </c>
     </row>
-    <row r="207" ht="14.25" spans="1:8">
+    <row r="207" ht="15.6" spans="1:8">
       <c r="A207">
         <v>207</v>
       </c>
@@ -7297,23 +7563,23 @@
       <c r="C207">
         <v>0</v>
       </c>
-      <c r="D207" s="3">
-        <v>40</v>
-      </c>
-      <c r="E207" s="3">
-        <v>155</v>
-      </c>
-      <c r="F207" s="8" t="s">
+      <c r="D207" s="6">
+        <v>40</v>
+      </c>
+      <c r="E207" s="6">
+        <v>155</v>
+      </c>
+      <c r="F207" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="G207" s="1" t="s">
+      <c r="G207" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="H207" s="7">
+      <c r="H207" s="10">
         <v>100193</v>
       </c>
     </row>
-    <row r="208" ht="14.25" spans="1:8">
+    <row r="208" ht="15.6" spans="1:8">
       <c r="A208">
         <v>208</v>
       </c>
@@ -7323,23 +7589,23 @@
       <c r="C208">
         <v>0</v>
       </c>
-      <c r="D208" s="3">
-        <v>40</v>
-      </c>
-      <c r="E208" s="3">
-        <v>155</v>
-      </c>
-      <c r="F208" s="8" t="s">
+      <c r="D208" s="6">
+        <v>40</v>
+      </c>
+      <c r="E208" s="6">
+        <v>155</v>
+      </c>
+      <c r="F208" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="G208" s="1" t="s">
+      <c r="G208" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="H208" s="7">
+      <c r="H208" s="10">
         <v>100194</v>
       </c>
     </row>
-    <row r="209" ht="14.25" spans="1:8">
+    <row r="209" ht="15.6" spans="1:8">
       <c r="A209">
         <v>209</v>
       </c>
@@ -7349,23 +7615,23 @@
       <c r="C209">
         <v>0</v>
       </c>
-      <c r="D209" s="3">
-        <v>40</v>
-      </c>
-      <c r="E209" s="3">
-        <v>155</v>
-      </c>
-      <c r="F209" s="8" t="s">
+      <c r="D209" s="6">
+        <v>40</v>
+      </c>
+      <c r="E209" s="6">
+        <v>155</v>
+      </c>
+      <c r="F209" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="G209" s="1" t="s">
+      <c r="G209" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="H209" s="7">
+      <c r="H209" s="10">
         <v>100195</v>
       </c>
     </row>
-    <row r="210" ht="14.25" spans="1:8">
+    <row r="210" ht="15.6" spans="1:8">
       <c r="A210">
         <v>210</v>
       </c>
@@ -7375,23 +7641,23 @@
       <c r="C210">
         <v>0</v>
       </c>
-      <c r="D210" s="3">
-        <v>40</v>
-      </c>
-      <c r="E210" s="3">
-        <v>155</v>
-      </c>
-      <c r="F210" s="8" t="s">
+      <c r="D210" s="6">
+        <v>40</v>
+      </c>
+      <c r="E210" s="6">
+        <v>155</v>
+      </c>
+      <c r="F210" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="G210" s="1" t="s">
+      <c r="G210" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="H210" s="7">
+      <c r="H210" s="10">
         <v>100196</v>
       </c>
     </row>
-    <row r="211" ht="14.25" spans="1:8">
+    <row r="211" ht="15.6" spans="1:8">
       <c r="A211">
         <v>211</v>
       </c>
@@ -7401,23 +7667,23 @@
       <c r="C211">
         <v>0</v>
       </c>
-      <c r="D211" s="3">
-        <v>40</v>
-      </c>
-      <c r="E211" s="3">
-        <v>155</v>
-      </c>
-      <c r="F211" s="8" t="s">
+      <c r="D211" s="6">
+        <v>40</v>
+      </c>
+      <c r="E211" s="6">
+        <v>155</v>
+      </c>
+      <c r="F211" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="G211" s="1" t="s">
+      <c r="G211" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="H211" s="7">
+      <c r="H211" s="10">
         <v>100197</v>
       </c>
     </row>
-    <row r="212" ht="14.25" spans="1:8">
+    <row r="212" ht="15.6" spans="1:8">
       <c r="A212">
         <v>212</v>
       </c>
@@ -7427,23 +7693,23 @@
       <c r="C212">
         <v>0</v>
       </c>
-      <c r="D212" s="3">
-        <v>40</v>
-      </c>
-      <c r="E212" s="3">
-        <v>155</v>
-      </c>
-      <c r="F212" s="8" t="s">
+      <c r="D212" s="6">
+        <v>40</v>
+      </c>
+      <c r="E212" s="6">
+        <v>155</v>
+      </c>
+      <c r="F212" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="G212" s="1" t="s">
+      <c r="G212" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="H212" s="7">
+      <c r="H212" s="10">
         <v>100198</v>
       </c>
     </row>
-    <row r="213" ht="14.25" spans="1:8">
+    <row r="213" ht="15.6" spans="1:8">
       <c r="A213">
         <v>213</v>
       </c>
@@ -7453,23 +7719,23 @@
       <c r="C213">
         <v>0</v>
       </c>
-      <c r="D213" s="3">
-        <v>40</v>
-      </c>
-      <c r="E213" s="3">
-        <v>155</v>
-      </c>
-      <c r="F213" s="8" t="s">
+      <c r="D213" s="6">
+        <v>40</v>
+      </c>
+      <c r="E213" s="6">
+        <v>155</v>
+      </c>
+      <c r="F213" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="G213" s="1" t="s">
+      <c r="G213" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="H213" s="7">
+      <c r="H213" s="10">
         <v>100199</v>
       </c>
     </row>
-    <row r="214" ht="14.25" spans="1:8">
+    <row r="214" ht="15.6" spans="1:8">
       <c r="A214">
         <v>214</v>
       </c>
@@ -7479,23 +7745,23 @@
       <c r="C214">
         <v>0</v>
       </c>
-      <c r="D214" s="3">
-        <v>40</v>
-      </c>
-      <c r="E214" s="3">
-        <v>155</v>
-      </c>
-      <c r="F214" s="8" t="s">
+      <c r="D214" s="6">
+        <v>40</v>
+      </c>
+      <c r="E214" s="6">
+        <v>155</v>
+      </c>
+      <c r="F214" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="G214" s="1" t="s">
+      <c r="G214" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="H214" s="7">
+      <c r="H214" s="10">
         <v>100200</v>
       </c>
     </row>
-    <row r="215" ht="14.25" spans="1:8">
+    <row r="215" ht="15.6" spans="1:8">
       <c r="A215">
         <v>215</v>
       </c>
@@ -7505,23 +7771,23 @@
       <c r="C215">
         <v>0</v>
       </c>
-      <c r="D215" s="3">
-        <v>40</v>
-      </c>
-      <c r="E215" s="3">
-        <v>155</v>
-      </c>
-      <c r="F215" s="6" t="s">
+      <c r="D215" s="6">
+        <v>40</v>
+      </c>
+      <c r="E215" s="6">
+        <v>155</v>
+      </c>
+      <c r="F215" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G215" s="1" t="s">
+      <c r="G215" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="H215" s="7">
+      <c r="H215" s="10">
         <v>100191</v>
       </c>
     </row>
-    <row r="216" ht="14.25" spans="1:8">
+    <row r="216" ht="15.6" spans="1:8">
       <c r="A216">
         <v>216</v>
       </c>
@@ -7531,23 +7797,23 @@
       <c r="C216">
         <v>0</v>
       </c>
-      <c r="D216" s="3">
-        <v>40</v>
-      </c>
-      <c r="E216" s="3">
-        <v>155</v>
-      </c>
-      <c r="F216" s="6" t="s">
+      <c r="D216" s="6">
+        <v>40</v>
+      </c>
+      <c r="E216" s="6">
+        <v>155</v>
+      </c>
+      <c r="F216" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="G216" s="1" t="s">
+      <c r="G216" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="H216" s="7">
+      <c r="H216" s="10">
         <v>100192</v>
       </c>
     </row>
-    <row r="217" ht="14.25" spans="1:8">
+    <row r="217" ht="15.6" spans="1:8">
       <c r="A217">
         <v>217</v>
       </c>
@@ -7557,23 +7823,23 @@
       <c r="C217">
         <v>0</v>
       </c>
-      <c r="D217" s="3">
-        <v>40</v>
-      </c>
-      <c r="E217" s="3">
-        <v>155</v>
-      </c>
-      <c r="F217" s="6" t="s">
+      <c r="D217" s="6">
+        <v>40</v>
+      </c>
+      <c r="E217" s="6">
+        <v>155</v>
+      </c>
+      <c r="F217" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G217" s="1" t="s">
+      <c r="G217" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="H217" s="7">
+      <c r="H217" s="10">
         <v>100193</v>
       </c>
     </row>
-    <row r="218" ht="14.25" spans="1:8">
+    <row r="218" ht="15.6" spans="1:8">
       <c r="A218">
         <v>218</v>
       </c>
@@ -7583,23 +7849,23 @@
       <c r="C218">
         <v>0</v>
       </c>
-      <c r="D218" s="3">
-        <v>40</v>
-      </c>
-      <c r="E218" s="3">
-        <v>155</v>
-      </c>
-      <c r="F218" s="6" t="s">
+      <c r="D218" s="6">
+        <v>40</v>
+      </c>
+      <c r="E218" s="6">
+        <v>155</v>
+      </c>
+      <c r="F218" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G218" s="1" t="s">
+      <c r="G218" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="H218" s="7">
+      <c r="H218" s="10">
         <v>100194</v>
       </c>
     </row>
-    <row r="219" ht="14.25" spans="1:8">
+    <row r="219" ht="15.6" spans="1:8">
       <c r="A219">
         <v>219</v>
       </c>
@@ -7609,23 +7875,23 @@
       <c r="C219">
         <v>0</v>
       </c>
-      <c r="D219" s="3">
-        <v>40</v>
-      </c>
-      <c r="E219" s="3">
-        <v>155</v>
-      </c>
-      <c r="F219" s="6" t="s">
+      <c r="D219" s="6">
+        <v>40</v>
+      </c>
+      <c r="E219" s="6">
+        <v>155</v>
+      </c>
+      <c r="F219" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G219" s="1" t="s">
+      <c r="G219" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="H219" s="7">
+      <c r="H219" s="10">
         <v>100195</v>
       </c>
     </row>
-    <row r="220" ht="14.25" spans="1:8">
+    <row r="220" ht="15.6" spans="1:8">
       <c r="A220">
         <v>220</v>
       </c>
@@ -7635,23 +7901,23 @@
       <c r="C220">
         <v>0</v>
       </c>
-      <c r="D220" s="3">
-        <v>40</v>
-      </c>
-      <c r="E220" s="3">
-        <v>155</v>
-      </c>
-      <c r="F220" s="6" t="s">
+      <c r="D220" s="6">
+        <v>40</v>
+      </c>
+      <c r="E220" s="6">
+        <v>155</v>
+      </c>
+      <c r="F220" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="G220" s="1" t="s">
+      <c r="G220" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="H220" s="7">
+      <c r="H220" s="10">
         <v>100196</v>
       </c>
     </row>
-    <row r="221" ht="14.25" spans="1:8">
+    <row r="221" ht="15.6" spans="1:8">
       <c r="A221">
         <v>221</v>
       </c>
@@ -7661,23 +7927,23 @@
       <c r="C221">
         <v>0</v>
       </c>
-      <c r="D221" s="3">
-        <v>40</v>
-      </c>
-      <c r="E221" s="3">
-        <v>155</v>
-      </c>
-      <c r="F221" s="6" t="s">
+      <c r="D221" s="6">
+        <v>40</v>
+      </c>
+      <c r="E221" s="6">
+        <v>155</v>
+      </c>
+      <c r="F221" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="G221" s="1" t="s">
+      <c r="G221" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="H221" s="7">
+      <c r="H221" s="10">
         <v>100197</v>
       </c>
     </row>
-    <row r="222" ht="14.25" spans="1:8">
+    <row r="222" ht="15.6" spans="1:8">
       <c r="A222">
         <v>222</v>
       </c>
@@ -7687,23 +7953,23 @@
       <c r="C222">
         <v>0</v>
       </c>
-      <c r="D222" s="3">
-        <v>40</v>
-      </c>
-      <c r="E222" s="3">
-        <v>155</v>
-      </c>
-      <c r="F222" s="6" t="s">
+      <c r="D222" s="6">
+        <v>40</v>
+      </c>
+      <c r="E222" s="6">
+        <v>155</v>
+      </c>
+      <c r="F222" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="G222" s="1" t="s">
+      <c r="G222" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="H222" s="7">
+      <c r="H222" s="10">
         <v>100198</v>
       </c>
     </row>
-    <row r="223" ht="14.25" spans="1:8">
+    <row r="223" ht="15.6" spans="1:8">
       <c r="A223">
         <v>223</v>
       </c>
@@ -7713,23 +7979,23 @@
       <c r="C223">
         <v>0</v>
       </c>
-      <c r="D223" s="3">
-        <v>40</v>
-      </c>
-      <c r="E223" s="3">
-        <v>155</v>
-      </c>
-      <c r="F223" s="6" t="s">
+      <c r="D223" s="6">
+        <v>40</v>
+      </c>
+      <c r="E223" s="6">
+        <v>155</v>
+      </c>
+      <c r="F223" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="G223" s="1" t="s">
+      <c r="G223" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="H223" s="7">
+      <c r="H223" s="10">
         <v>100199</v>
       </c>
     </row>
-    <row r="224" ht="14.25" spans="1:8">
+    <row r="224" ht="15.6" spans="1:8">
       <c r="A224">
         <v>224</v>
       </c>
@@ -7739,23 +8005,23 @@
       <c r="C224">
         <v>0</v>
       </c>
-      <c r="D224" s="3">
-        <v>40</v>
-      </c>
-      <c r="E224" s="3">
-        <v>155</v>
-      </c>
-      <c r="F224" s="6" t="s">
+      <c r="D224" s="6">
+        <v>40</v>
+      </c>
+      <c r="E224" s="6">
+        <v>155</v>
+      </c>
+      <c r="F224" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="G224" s="1" t="s">
+      <c r="G224" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="H224" s="7">
+      <c r="H224" s="10">
         <v>100200</v>
       </c>
     </row>
-    <row r="225" ht="14.25" spans="1:8">
+    <row r="225" ht="15.6" spans="1:8">
       <c r="A225">
         <v>225</v>
       </c>
@@ -7765,23 +8031,23 @@
       <c r="C225">
         <v>0</v>
       </c>
-      <c r="D225" s="3">
-        <v>40</v>
-      </c>
-      <c r="E225" s="3">
-        <v>155</v>
-      </c>
-      <c r="F225" s="8" t="s">
+      <c r="D225" s="6">
+        <v>40</v>
+      </c>
+      <c r="E225" s="6">
+        <v>155</v>
+      </c>
+      <c r="F225" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G225" s="1" t="s">
+      <c r="G225" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="H225" s="7">
+      <c r="H225" s="10">
         <v>100191</v>
       </c>
     </row>
-    <row r="226" ht="14.25" spans="1:8">
+    <row r="226" ht="15.6" spans="1:8">
       <c r="A226">
         <v>226</v>
       </c>
@@ -7791,23 +8057,23 @@
       <c r="C226">
         <v>0</v>
       </c>
-      <c r="D226" s="3">
-        <v>40</v>
-      </c>
-      <c r="E226" s="3">
-        <v>155</v>
-      </c>
-      <c r="F226" s="8" t="s">
+      <c r="D226" s="6">
+        <v>40</v>
+      </c>
+      <c r="E226" s="6">
+        <v>155</v>
+      </c>
+      <c r="F226" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="G226" s="1" t="s">
+      <c r="G226" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="H226" s="7">
+      <c r="H226" s="10">
         <v>100192</v>
       </c>
     </row>
-    <row r="227" ht="14.25" spans="1:8">
+    <row r="227" ht="15.6" spans="1:8">
       <c r="A227">
         <v>227</v>
       </c>
@@ -7817,23 +8083,23 @@
       <c r="C227">
         <v>0</v>
       </c>
-      <c r="D227" s="3">
-        <v>40</v>
-      </c>
-      <c r="E227" s="3">
-        <v>155</v>
-      </c>
-      <c r="F227" s="8" t="s">
+      <c r="D227" s="6">
+        <v>40</v>
+      </c>
+      <c r="E227" s="6">
+        <v>155</v>
+      </c>
+      <c r="F227" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="G227" s="1" t="s">
+      <c r="G227" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="H227" s="7">
+      <c r="H227" s="10">
         <v>100193</v>
       </c>
     </row>
-    <row r="228" ht="14.25" spans="1:8">
+    <row r="228" ht="15.6" spans="1:8">
       <c r="A228">
         <v>228</v>
       </c>
@@ -7843,23 +8109,23 @@
       <c r="C228">
         <v>0</v>
       </c>
-      <c r="D228" s="3">
-        <v>40</v>
-      </c>
-      <c r="E228" s="3">
-        <v>155</v>
-      </c>
-      <c r="F228" s="8" t="s">
+      <c r="D228" s="6">
+        <v>40</v>
+      </c>
+      <c r="E228" s="6">
+        <v>155</v>
+      </c>
+      <c r="F228" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="G228" s="1" t="s">
+      <c r="G228" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="H228" s="7">
+      <c r="H228" s="10">
         <v>100194</v>
       </c>
     </row>
-    <row r="229" ht="14.25" spans="1:8">
+    <row r="229" ht="15.6" spans="1:8">
       <c r="A229">
         <v>229</v>
       </c>
@@ -7869,23 +8135,23 @@
       <c r="C229">
         <v>0</v>
       </c>
-      <c r="D229" s="3">
-        <v>40</v>
-      </c>
-      <c r="E229" s="3">
-        <v>155</v>
-      </c>
-      <c r="F229" s="8" t="s">
+      <c r="D229" s="6">
+        <v>40</v>
+      </c>
+      <c r="E229" s="6">
+        <v>155</v>
+      </c>
+      <c r="F229" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="G229" s="1" t="s">
+      <c r="G229" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="H229" s="7">
+      <c r="H229" s="10">
         <v>100195</v>
       </c>
     </row>
-    <row r="230" ht="14.25" spans="1:8">
+    <row r="230" ht="15.6" spans="1:8">
       <c r="A230">
         <v>230</v>
       </c>
@@ -7895,23 +8161,23 @@
       <c r="C230">
         <v>0</v>
       </c>
-      <c r="D230" s="3">
-        <v>40</v>
-      </c>
-      <c r="E230" s="3">
-        <v>155</v>
-      </c>
-      <c r="F230" s="8" t="s">
+      <c r="D230" s="6">
+        <v>40</v>
+      </c>
+      <c r="E230" s="6">
+        <v>155</v>
+      </c>
+      <c r="F230" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="G230" s="1" t="s">
+      <c r="G230" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="H230" s="7">
+      <c r="H230" s="10">
         <v>100196</v>
       </c>
     </row>
-    <row r="231" ht="14.25" spans="1:8">
+    <row r="231" ht="15.6" spans="1:8">
       <c r="A231">
         <v>231</v>
       </c>
@@ -7921,23 +8187,23 @@
       <c r="C231">
         <v>0</v>
       </c>
-      <c r="D231" s="3">
-        <v>40</v>
-      </c>
-      <c r="E231" s="3">
-        <v>155</v>
-      </c>
-      <c r="F231" s="8" t="s">
+      <c r="D231" s="6">
+        <v>40</v>
+      </c>
+      <c r="E231" s="6">
+        <v>155</v>
+      </c>
+      <c r="F231" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="G231" s="1" t="s">
+      <c r="G231" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="H231" s="7">
+      <c r="H231" s="10">
         <v>100197</v>
       </c>
     </row>
-    <row r="232" ht="14.25" spans="1:8">
+    <row r="232" ht="15.6" spans="1:8">
       <c r="A232">
         <v>232</v>
       </c>
@@ -7947,23 +8213,23 @@
       <c r="C232">
         <v>0</v>
       </c>
-      <c r="D232" s="3">
-        <v>40</v>
-      </c>
-      <c r="E232" s="3">
-        <v>155</v>
-      </c>
-      <c r="F232" s="8" t="s">
+      <c r="D232" s="6">
+        <v>40</v>
+      </c>
+      <c r="E232" s="6">
+        <v>155</v>
+      </c>
+      <c r="F232" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="G232" s="1" t="s">
+      <c r="G232" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="H232" s="7">
+      <c r="H232" s="10">
         <v>100198</v>
       </c>
     </row>
-    <row r="233" ht="14.25" spans="1:8">
+    <row r="233" ht="15.6" spans="1:8">
       <c r="A233">
         <v>233</v>
       </c>
@@ -7973,23 +8239,23 @@
       <c r="C233">
         <v>0</v>
       </c>
-      <c r="D233" s="3">
-        <v>40</v>
-      </c>
-      <c r="E233" s="3">
-        <v>155</v>
-      </c>
-      <c r="F233" s="8" t="s">
+      <c r="D233" s="6">
+        <v>40</v>
+      </c>
+      <c r="E233" s="6">
+        <v>155</v>
+      </c>
+      <c r="F233" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="G233" s="1" t="s">
+      <c r="G233" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="H233" s="7">
+      <c r="H233" s="10">
         <v>100199</v>
       </c>
     </row>
-    <row r="234" ht="14.25" spans="1:8">
+    <row r="234" ht="15.6" spans="1:8">
       <c r="A234">
         <v>234</v>
       </c>
@@ -7999,19 +8265,19 @@
       <c r="C234">
         <v>0</v>
       </c>
-      <c r="D234" s="3">
-        <v>40</v>
-      </c>
-      <c r="E234" s="3">
-        <v>155</v>
-      </c>
-      <c r="F234" s="8" t="s">
+      <c r="D234" s="6">
+        <v>40</v>
+      </c>
+      <c r="E234" s="6">
+        <v>155</v>
+      </c>
+      <c r="F234" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="G234" s="1" t="s">
+      <c r="G234" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="H234" s="7">
+      <c r="H234" s="10">
         <v>100200</v>
       </c>
     </row>
@@ -8025,19 +8291,19 @@
       <c r="C235">
         <v>0</v>
       </c>
-      <c r="D235" s="3">
-        <v>40</v>
-      </c>
-      <c r="E235" s="3">
-        <v>155</v>
-      </c>
-      <c r="F235" s="9" t="s">
+      <c r="D235" s="6">
+        <v>40</v>
+      </c>
+      <c r="E235" s="6">
+        <v>155</v>
+      </c>
+      <c r="F235" s="12" t="s">
         <v>278</v>
       </c>
       <c r="G235" t="s">
         <v>279</v>
       </c>
-      <c r="H235" s="10">
+      <c r="H235" s="13">
         <v>101106</v>
       </c>
     </row>
@@ -8051,10 +8317,10 @@
       <c r="C236">
         <v>0</v>
       </c>
-      <c r="D236" s="3">
-        <v>40</v>
-      </c>
-      <c r="E236" s="3">
+      <c r="D236" s="6">
+        <v>40</v>
+      </c>
+      <c r="E236" s="6">
         <v>155</v>
       </c>
       <c r="F236" t="s">
@@ -8063,8 +8329,1370 @@
       <c r="G236" t="s">
         <v>281</v>
       </c>
-      <c r="H236" s="10">
+      <c r="H236" s="13">
         <v>101108</v>
+      </c>
+    </row>
+    <row r="237" s="1" customFormat="1" spans="1:10">
+      <c r="A237" s="1">
+        <v>237</v>
+      </c>
+      <c r="B237" s="1">
+        <v>233</v>
+      </c>
+      <c r="C237" s="1">
+        <v>0</v>
+      </c>
+      <c r="D237" s="14">
+        <v>40</v>
+      </c>
+      <c r="E237" s="14">
+        <v>155</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G237" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="H237" s="16">
+        <v>101103</v>
+      </c>
+      <c r="I237"/>
+      <c r="J237"/>
+    </row>
+    <row r="238" s="1" customFormat="1" spans="1:10">
+      <c r="A238" s="1">
+        <v>238</v>
+      </c>
+      <c r="B238" s="1">
+        <v>234</v>
+      </c>
+      <c r="C238" s="1">
+        <v>0</v>
+      </c>
+      <c r="D238" s="14">
+        <v>40</v>
+      </c>
+      <c r="E238" s="14">
+        <v>155</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G238" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="H238" s="16">
+        <v>101103</v>
+      </c>
+      <c r="I238"/>
+      <c r="J238"/>
+    </row>
+    <row r="239" s="1" customFormat="1" spans="1:10">
+      <c r="A239" s="1">
+        <v>239</v>
+      </c>
+      <c r="B239" s="1">
+        <v>235</v>
+      </c>
+      <c r="C239" s="1">
+        <v>0</v>
+      </c>
+      <c r="D239" s="14">
+        <v>40</v>
+      </c>
+      <c r="E239" s="14">
+        <v>155</v>
+      </c>
+      <c r="F239" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="G239" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="H239" s="16">
+        <v>101103</v>
+      </c>
+      <c r="I239"/>
+      <c r="J239"/>
+    </row>
+    <row r="240" s="1" customFormat="1" spans="1:10">
+      <c r="A240" s="1">
+        <v>240</v>
+      </c>
+      <c r="B240" s="1">
+        <v>236</v>
+      </c>
+      <c r="C240" s="1">
+        <v>0</v>
+      </c>
+      <c r="D240" s="14">
+        <v>40</v>
+      </c>
+      <c r="E240" s="14">
+        <v>155</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G240" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="H240" s="16">
+        <v>101103</v>
+      </c>
+      <c r="I240"/>
+      <c r="J240"/>
+    </row>
+    <row r="241" s="1" customFormat="1" spans="1:10">
+      <c r="A241" s="1">
+        <v>241</v>
+      </c>
+      <c r="B241" s="1">
+        <v>237</v>
+      </c>
+      <c r="C241" s="1">
+        <v>0</v>
+      </c>
+      <c r="D241" s="14">
+        <v>40</v>
+      </c>
+      <c r="E241" s="14">
+        <v>155</v>
+      </c>
+      <c r="F241" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="G241" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="H241" s="16">
+        <v>101103</v>
+      </c>
+      <c r="I241"/>
+      <c r="J241"/>
+    </row>
+    <row r="242" s="1" customFormat="1" spans="1:10">
+      <c r="A242" s="1">
+        <v>242</v>
+      </c>
+      <c r="B242" s="1">
+        <v>238</v>
+      </c>
+      <c r="C242" s="1">
+        <v>0</v>
+      </c>
+      <c r="D242" s="14">
+        <v>40</v>
+      </c>
+      <c r="E242" s="14">
+        <v>155</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="G242" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="H242" s="16">
+        <v>101103</v>
+      </c>
+      <c r="I242"/>
+      <c r="J242"/>
+    </row>
+    <row r="243" s="1" customFormat="1" spans="1:10">
+      <c r="A243" s="1">
+        <v>243</v>
+      </c>
+      <c r="B243" s="1">
+        <v>239</v>
+      </c>
+      <c r="C243" s="1">
+        <v>0</v>
+      </c>
+      <c r="D243" s="14">
+        <v>40</v>
+      </c>
+      <c r="E243" s="14">
+        <v>155</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="G243" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="H243" s="16">
+        <v>101103</v>
+      </c>
+      <c r="I243"/>
+      <c r="J243"/>
+    </row>
+    <row r="244" s="1" customFormat="1" spans="1:10">
+      <c r="A244" s="1">
+        <v>244</v>
+      </c>
+      <c r="B244" s="1">
+        <v>240</v>
+      </c>
+      <c r="C244" s="1">
+        <v>0</v>
+      </c>
+      <c r="D244" s="14">
+        <v>40</v>
+      </c>
+      <c r="E244" s="14">
+        <v>155</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="G244" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="H244" s="16">
+        <v>101103</v>
+      </c>
+      <c r="I244"/>
+      <c r="J244"/>
+    </row>
+    <row r="245" s="1" customFormat="1" spans="1:10">
+      <c r="A245" s="1">
+        <v>245</v>
+      </c>
+      <c r="B245" s="1">
+        <v>241</v>
+      </c>
+      <c r="C245" s="1">
+        <v>0</v>
+      </c>
+      <c r="D245" s="14">
+        <v>40</v>
+      </c>
+      <c r="E245" s="14">
+        <v>155</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="G245" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="H245" s="16">
+        <v>101103</v>
+      </c>
+      <c r="I245"/>
+      <c r="J245"/>
+    </row>
+    <row r="246" s="1" customFormat="1" spans="1:10">
+      <c r="A246" s="1">
+        <v>246</v>
+      </c>
+      <c r="B246" s="1">
+        <v>242</v>
+      </c>
+      <c r="C246" s="1">
+        <v>0</v>
+      </c>
+      <c r="D246" s="14">
+        <v>40</v>
+      </c>
+      <c r="E246" s="14">
+        <v>155</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="G246" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="H246" s="16">
+        <v>101103</v>
+      </c>
+      <c r="I246"/>
+      <c r="J246"/>
+    </row>
+    <row r="247" s="1" customFormat="1" spans="1:10">
+      <c r="A247" s="1">
+        <v>247</v>
+      </c>
+      <c r="B247" s="1">
+        <v>243</v>
+      </c>
+      <c r="C247" s="1">
+        <v>0</v>
+      </c>
+      <c r="D247" s="14">
+        <v>40</v>
+      </c>
+      <c r="E247" s="14">
+        <v>155</v>
+      </c>
+      <c r="F247" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="G247" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="H247" s="16">
+        <v>101104</v>
+      </c>
+      <c r="I247"/>
+      <c r="J247"/>
+    </row>
+    <row r="248" s="1" customFormat="1" spans="1:10">
+      <c r="A248" s="1">
+        <v>248</v>
+      </c>
+      <c r="B248" s="1">
+        <v>244</v>
+      </c>
+      <c r="C248" s="1">
+        <v>0</v>
+      </c>
+      <c r="D248" s="14">
+        <v>40</v>
+      </c>
+      <c r="E248" s="14">
+        <v>155</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G248" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="H248" s="16">
+        <v>101104</v>
+      </c>
+      <c r="I248"/>
+      <c r="J248"/>
+    </row>
+    <row r="249" s="1" customFormat="1" spans="1:10">
+      <c r="A249" s="1">
+        <v>249</v>
+      </c>
+      <c r="B249" s="1">
+        <v>245</v>
+      </c>
+      <c r="C249" s="1">
+        <v>0</v>
+      </c>
+      <c r="D249" s="14">
+        <v>40</v>
+      </c>
+      <c r="E249" s="14">
+        <v>155</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G249" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="H249" s="16">
+        <v>101104</v>
+      </c>
+      <c r="I249"/>
+      <c r="J249"/>
+    </row>
+    <row r="250" s="1" customFormat="1" spans="1:10">
+      <c r="A250" s="1">
+        <v>250</v>
+      </c>
+      <c r="B250" s="1">
+        <v>246</v>
+      </c>
+      <c r="C250" s="1">
+        <v>0</v>
+      </c>
+      <c r="D250" s="14">
+        <v>40</v>
+      </c>
+      <c r="E250" s="14">
+        <v>155</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="G250" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="H250" s="16">
+        <v>101104</v>
+      </c>
+      <c r="I250"/>
+      <c r="J250"/>
+    </row>
+    <row r="251" s="1" customFormat="1" spans="1:10">
+      <c r="A251" s="1">
+        <v>251</v>
+      </c>
+      <c r="B251" s="1">
+        <v>247</v>
+      </c>
+      <c r="C251" s="1">
+        <v>0</v>
+      </c>
+      <c r="D251" s="14">
+        <v>40</v>
+      </c>
+      <c r="E251" s="14">
+        <v>155</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G251" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="H251" s="16">
+        <v>101104</v>
+      </c>
+      <c r="I251"/>
+      <c r="J251"/>
+    </row>
+    <row r="252" s="1" customFormat="1" spans="1:10">
+      <c r="A252" s="1">
+        <v>252</v>
+      </c>
+      <c r="B252" s="1">
+        <v>248</v>
+      </c>
+      <c r="C252" s="1">
+        <v>0</v>
+      </c>
+      <c r="D252" s="14">
+        <v>40</v>
+      </c>
+      <c r="E252" s="14">
+        <v>155</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="G252" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="H252" s="16">
+        <v>101104</v>
+      </c>
+      <c r="I252"/>
+      <c r="J252"/>
+    </row>
+    <row r="253" s="1" customFormat="1" spans="1:10">
+      <c r="A253" s="1">
+        <v>253</v>
+      </c>
+      <c r="B253" s="1">
+        <v>249</v>
+      </c>
+      <c r="C253" s="1">
+        <v>0</v>
+      </c>
+      <c r="D253" s="14">
+        <v>40</v>
+      </c>
+      <c r="E253" s="14">
+        <v>155</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="G253" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="H253" s="16">
+        <v>101104</v>
+      </c>
+      <c r="I253"/>
+      <c r="J253"/>
+    </row>
+    <row r="254" s="1" customFormat="1" spans="1:10">
+      <c r="A254" s="1">
+        <v>254</v>
+      </c>
+      <c r="B254" s="1">
+        <v>250</v>
+      </c>
+      <c r="C254" s="1">
+        <v>0</v>
+      </c>
+      <c r="D254" s="14">
+        <v>40</v>
+      </c>
+      <c r="E254" s="14">
+        <v>155</v>
+      </c>
+      <c r="F254" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="G254" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="H254" s="16">
+        <v>101104</v>
+      </c>
+      <c r="I254"/>
+      <c r="J254"/>
+    </row>
+    <row r="255" s="1" customFormat="1" spans="1:10">
+      <c r="A255" s="1">
+        <v>255</v>
+      </c>
+      <c r="B255" s="1">
+        <v>251</v>
+      </c>
+      <c r="C255" s="1">
+        <v>0</v>
+      </c>
+      <c r="D255" s="14">
+        <v>40</v>
+      </c>
+      <c r="E255" s="14">
+        <v>155</v>
+      </c>
+      <c r="F255" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="G255" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="H255" s="16">
+        <v>101104</v>
+      </c>
+      <c r="I255"/>
+      <c r="J255"/>
+    </row>
+    <row r="256" s="1" customFormat="1" spans="1:10">
+      <c r="A256" s="1">
+        <v>256</v>
+      </c>
+      <c r="B256" s="1">
+        <v>252</v>
+      </c>
+      <c r="C256" s="1">
+        <v>0</v>
+      </c>
+      <c r="D256" s="14">
+        <v>40</v>
+      </c>
+      <c r="E256" s="14">
+        <v>155</v>
+      </c>
+      <c r="F256" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="G256" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="H256" s="16">
+        <v>101104</v>
+      </c>
+      <c r="I256"/>
+      <c r="J256"/>
+    </row>
+    <row r="257" s="2" customFormat="1" spans="1:10">
+      <c r="A257" s="2">
+        <v>257</v>
+      </c>
+      <c r="B257" s="2">
+        <v>253</v>
+      </c>
+      <c r="C257" s="2">
+        <v>0</v>
+      </c>
+      <c r="D257" s="17">
+        <v>40</v>
+      </c>
+      <c r="E257" s="17">
+        <v>155</v>
+      </c>
+      <c r="F257" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G257" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="H257" s="19">
+        <v>101100</v>
+      </c>
+      <c r="I257" s="3"/>
+      <c r="J257" s="3"/>
+    </row>
+    <row r="258" s="2" customFormat="1" spans="1:10">
+      <c r="A258" s="2">
+        <v>258</v>
+      </c>
+      <c r="B258" s="2">
+        <v>254</v>
+      </c>
+      <c r="C258" s="2">
+        <v>0</v>
+      </c>
+      <c r="D258" s="17">
+        <v>40</v>
+      </c>
+      <c r="E258" s="17">
+        <v>155</v>
+      </c>
+      <c r="F258" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="G258" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="H258" s="19">
+        <v>101100</v>
+      </c>
+      <c r="I258" s="3"/>
+      <c r="J258" s="3"/>
+    </row>
+    <row r="259" s="2" customFormat="1" spans="1:10">
+      <c r="A259" s="2">
+        <v>259</v>
+      </c>
+      <c r="B259" s="2">
+        <v>255</v>
+      </c>
+      <c r="C259" s="2">
+        <v>0</v>
+      </c>
+      <c r="D259" s="17">
+        <v>40</v>
+      </c>
+      <c r="E259" s="17">
+        <v>155</v>
+      </c>
+      <c r="F259" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="G259" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="H259" s="19">
+        <v>101100</v>
+      </c>
+      <c r="I259" s="3"/>
+      <c r="J259" s="3"/>
+    </row>
+    <row r="260" s="2" customFormat="1" spans="1:10">
+      <c r="A260" s="2">
+        <v>260</v>
+      </c>
+      <c r="B260" s="2">
+        <v>256</v>
+      </c>
+      <c r="C260" s="2">
+        <v>0</v>
+      </c>
+      <c r="D260" s="17">
+        <v>40</v>
+      </c>
+      <c r="E260" s="17">
+        <v>155</v>
+      </c>
+      <c r="F260" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G260" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="H260" s="19">
+        <v>101100</v>
+      </c>
+      <c r="I260" s="3"/>
+      <c r="J260" s="3"/>
+    </row>
+    <row r="261" s="2" customFormat="1" spans="1:10">
+      <c r="A261" s="2">
+        <v>261</v>
+      </c>
+      <c r="B261" s="2">
+        <v>257</v>
+      </c>
+      <c r="C261" s="2">
+        <v>0</v>
+      </c>
+      <c r="D261" s="17">
+        <v>40</v>
+      </c>
+      <c r="E261" s="17">
+        <v>155</v>
+      </c>
+      <c r="F261" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="G261" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="H261" s="19">
+        <v>101100</v>
+      </c>
+      <c r="I261" s="3"/>
+      <c r="J261" s="3"/>
+    </row>
+    <row r="262" s="2" customFormat="1" spans="1:10">
+      <c r="A262" s="2">
+        <v>262</v>
+      </c>
+      <c r="B262" s="2">
+        <v>258</v>
+      </c>
+      <c r="C262" s="2">
+        <v>0</v>
+      </c>
+      <c r="D262" s="17">
+        <v>40</v>
+      </c>
+      <c r="E262" s="17">
+        <v>155</v>
+      </c>
+      <c r="F262" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="G262" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="H262" s="19">
+        <v>101100</v>
+      </c>
+      <c r="I262" s="3"/>
+      <c r="J262" s="3"/>
+    </row>
+    <row r="263" s="2" customFormat="1" spans="1:10">
+      <c r="A263" s="2">
+        <v>263</v>
+      </c>
+      <c r="B263" s="2">
+        <v>259</v>
+      </c>
+      <c r="C263" s="2">
+        <v>0</v>
+      </c>
+      <c r="D263" s="17">
+        <v>40</v>
+      </c>
+      <c r="E263" s="17">
+        <v>155</v>
+      </c>
+      <c r="F263" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G263" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="H263" s="19">
+        <v>101100</v>
+      </c>
+      <c r="I263" s="3"/>
+      <c r="J263" s="3"/>
+    </row>
+    <row r="264" s="2" customFormat="1" spans="1:10">
+      <c r="A264" s="2">
+        <v>264</v>
+      </c>
+      <c r="B264" s="2">
+        <v>260</v>
+      </c>
+      <c r="C264" s="2">
+        <v>0</v>
+      </c>
+      <c r="D264" s="17">
+        <v>40</v>
+      </c>
+      <c r="E264" s="17">
+        <v>155</v>
+      </c>
+      <c r="F264" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="G264" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="H264" s="19">
+        <v>101100</v>
+      </c>
+      <c r="I264" s="3"/>
+      <c r="J264" s="3"/>
+    </row>
+    <row r="265" s="2" customFormat="1" spans="1:10">
+      <c r="A265" s="2">
+        <v>265</v>
+      </c>
+      <c r="B265" s="2">
+        <v>261</v>
+      </c>
+      <c r="C265" s="2">
+        <v>0</v>
+      </c>
+      <c r="D265" s="17">
+        <v>40</v>
+      </c>
+      <c r="E265" s="17">
+        <v>155</v>
+      </c>
+      <c r="F265" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="G265" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="H265" s="19">
+        <v>101100</v>
+      </c>
+      <c r="I265" s="3"/>
+      <c r="J265" s="3"/>
+    </row>
+    <row r="266" s="2" customFormat="1" spans="1:10">
+      <c r="A266" s="2">
+        <v>266</v>
+      </c>
+      <c r="B266" s="2">
+        <v>262</v>
+      </c>
+      <c r="C266" s="2">
+        <v>0</v>
+      </c>
+      <c r="D266" s="17">
+        <v>40</v>
+      </c>
+      <c r="E266" s="17">
+        <v>155</v>
+      </c>
+      <c r="F266" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="G266" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="H266" s="19">
+        <v>101100</v>
+      </c>
+      <c r="I266" s="3"/>
+      <c r="J266" s="3"/>
+    </row>
+    <row r="267" s="2" customFormat="1" spans="1:10">
+      <c r="A267" s="2">
+        <v>267</v>
+      </c>
+      <c r="B267" s="2">
+        <v>263</v>
+      </c>
+      <c r="C267" s="2">
+        <v>0</v>
+      </c>
+      <c r="D267" s="17">
+        <v>40</v>
+      </c>
+      <c r="E267" s="17">
+        <v>155</v>
+      </c>
+      <c r="F267" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="G267" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="H267" s="19">
+        <v>101101</v>
+      </c>
+      <c r="I267" s="3"/>
+      <c r="J267" s="3"/>
+    </row>
+    <row r="268" s="3" customFormat="1" spans="1:8">
+      <c r="A268" s="2">
+        <v>268</v>
+      </c>
+      <c r="B268" s="2">
+        <v>264</v>
+      </c>
+      <c r="C268" s="2">
+        <v>0</v>
+      </c>
+      <c r="D268" s="17">
+        <v>40</v>
+      </c>
+      <c r="E268" s="17">
+        <v>155</v>
+      </c>
+      <c r="F268" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="G268" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="H268" s="19">
+        <v>101101</v>
+      </c>
+    </row>
+    <row r="269" s="3" customFormat="1" spans="1:8">
+      <c r="A269" s="2">
+        <v>269</v>
+      </c>
+      <c r="B269" s="2">
+        <v>265</v>
+      </c>
+      <c r="C269" s="2">
+        <v>0</v>
+      </c>
+      <c r="D269" s="17">
+        <v>40</v>
+      </c>
+      <c r="E269" s="17">
+        <v>155</v>
+      </c>
+      <c r="F269" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="G269" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="H269" s="19">
+        <v>101101</v>
+      </c>
+    </row>
+    <row r="270" s="3" customFormat="1" spans="1:8">
+      <c r="A270" s="2">
+        <v>270</v>
+      </c>
+      <c r="B270" s="2">
+        <v>266</v>
+      </c>
+      <c r="C270" s="2">
+        <v>0</v>
+      </c>
+      <c r="D270" s="17">
+        <v>40</v>
+      </c>
+      <c r="E270" s="17">
+        <v>155</v>
+      </c>
+      <c r="F270" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="G270" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="H270" s="19">
+        <v>101101</v>
+      </c>
+    </row>
+    <row r="271" s="3" customFormat="1" spans="1:8">
+      <c r="A271" s="2">
+        <v>271</v>
+      </c>
+      <c r="B271" s="2">
+        <v>267</v>
+      </c>
+      <c r="C271" s="2">
+        <v>0</v>
+      </c>
+      <c r="D271" s="17">
+        <v>40</v>
+      </c>
+      <c r="E271" s="17">
+        <v>155</v>
+      </c>
+      <c r="F271" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="G271" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="H271" s="19">
+        <v>101101</v>
+      </c>
+    </row>
+    <row r="272" s="3" customFormat="1" spans="1:8">
+      <c r="A272" s="2">
+        <v>272</v>
+      </c>
+      <c r="B272" s="2">
+        <v>268</v>
+      </c>
+      <c r="C272" s="2">
+        <v>0</v>
+      </c>
+      <c r="D272" s="17">
+        <v>40</v>
+      </c>
+      <c r="E272" s="17">
+        <v>155</v>
+      </c>
+      <c r="F272" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="G272" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="H272" s="19">
+        <v>101101</v>
+      </c>
+    </row>
+    <row r="273" s="3" customFormat="1" spans="1:8">
+      <c r="A273" s="2">
+        <v>273</v>
+      </c>
+      <c r="B273" s="2">
+        <v>269</v>
+      </c>
+      <c r="C273" s="2">
+        <v>0</v>
+      </c>
+      <c r="D273" s="17">
+        <v>40</v>
+      </c>
+      <c r="E273" s="17">
+        <v>155</v>
+      </c>
+      <c r="F273" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="G273" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="H273" s="19">
+        <v>101101</v>
+      </c>
+    </row>
+    <row r="274" s="3" customFormat="1" spans="1:8">
+      <c r="A274" s="2">
+        <v>274</v>
+      </c>
+      <c r="B274" s="2">
+        <v>270</v>
+      </c>
+      <c r="C274" s="2">
+        <v>0</v>
+      </c>
+      <c r="D274" s="17">
+        <v>40</v>
+      </c>
+      <c r="E274" s="17">
+        <v>155</v>
+      </c>
+      <c r="F274" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="G274" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="H274" s="19">
+        <v>101101</v>
+      </c>
+    </row>
+    <row r="275" s="3" customFormat="1" spans="1:8">
+      <c r="A275" s="2">
+        <v>275</v>
+      </c>
+      <c r="B275" s="2">
+        <v>271</v>
+      </c>
+      <c r="C275" s="2">
+        <v>0</v>
+      </c>
+      <c r="D275" s="17">
+        <v>40</v>
+      </c>
+      <c r="E275" s="17">
+        <v>155</v>
+      </c>
+      <c r="F275" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="G275" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="H275" s="19">
+        <v>101101</v>
+      </c>
+    </row>
+    <row r="276" s="3" customFormat="1" spans="1:8">
+      <c r="A276" s="2">
+        <v>276</v>
+      </c>
+      <c r="B276" s="2">
+        <v>272</v>
+      </c>
+      <c r="C276" s="2">
+        <v>0</v>
+      </c>
+      <c r="D276" s="17">
+        <v>40</v>
+      </c>
+      <c r="E276" s="17">
+        <v>155</v>
+      </c>
+      <c r="F276" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="G276" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="H276" s="19">
+        <v>101101</v>
+      </c>
+    </row>
+    <row r="277" s="3" customFormat="1" spans="1:8">
+      <c r="A277" s="2">
+        <v>277</v>
+      </c>
+      <c r="B277" s="2">
+        <v>273</v>
+      </c>
+      <c r="C277" s="2">
+        <v>0</v>
+      </c>
+      <c r="D277" s="17">
+        <v>40</v>
+      </c>
+      <c r="E277" s="17">
+        <v>155</v>
+      </c>
+      <c r="F277" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="G277" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="H277" s="19">
+        <v>101102</v>
+      </c>
+    </row>
+    <row r="278" s="3" customFormat="1" spans="1:8">
+      <c r="A278" s="2">
+        <v>278</v>
+      </c>
+      <c r="B278" s="2">
+        <v>274</v>
+      </c>
+      <c r="C278" s="2">
+        <v>0</v>
+      </c>
+      <c r="D278" s="17">
+        <v>40</v>
+      </c>
+      <c r="E278" s="17">
+        <v>155</v>
+      </c>
+      <c r="F278" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="G278" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H278" s="19">
+        <v>101102</v>
+      </c>
+    </row>
+    <row r="279" s="3" customFormat="1" spans="1:8">
+      <c r="A279" s="2">
+        <v>279</v>
+      </c>
+      <c r="B279" s="2">
+        <v>275</v>
+      </c>
+      <c r="C279" s="2">
+        <v>0</v>
+      </c>
+      <c r="D279" s="17">
+        <v>40</v>
+      </c>
+      <c r="E279" s="17">
+        <v>155</v>
+      </c>
+      <c r="F279" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="G279" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H279" s="19">
+        <v>101102</v>
+      </c>
+    </row>
+    <row r="280" s="3" customFormat="1" spans="1:8">
+      <c r="A280" s="2">
+        <v>280</v>
+      </c>
+      <c r="B280" s="2">
+        <v>276</v>
+      </c>
+      <c r="C280" s="2">
+        <v>0</v>
+      </c>
+      <c r="D280" s="17">
+        <v>40</v>
+      </c>
+      <c r="E280" s="17">
+        <v>155</v>
+      </c>
+      <c r="F280" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="G280" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H280" s="19">
+        <v>101102</v>
+      </c>
+    </row>
+    <row r="281" s="3" customFormat="1" spans="1:8">
+      <c r="A281" s="2">
+        <v>281</v>
+      </c>
+      <c r="B281" s="2">
+        <v>277</v>
+      </c>
+      <c r="C281" s="2">
+        <v>0</v>
+      </c>
+      <c r="D281" s="17">
+        <v>40</v>
+      </c>
+      <c r="E281" s="17">
+        <v>155</v>
+      </c>
+      <c r="F281" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="G281" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H281" s="19">
+        <v>101102</v>
+      </c>
+    </row>
+    <row r="282" s="3" customFormat="1" spans="1:8">
+      <c r="A282" s="2">
+        <v>282</v>
+      </c>
+      <c r="B282" s="2">
+        <v>278</v>
+      </c>
+      <c r="C282" s="2">
+        <v>0</v>
+      </c>
+      <c r="D282" s="17">
+        <v>40</v>
+      </c>
+      <c r="E282" s="17">
+        <v>155</v>
+      </c>
+      <c r="F282" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="G282" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H282" s="19">
+        <v>101102</v>
+      </c>
+    </row>
+    <row r="283" s="3" customFormat="1" spans="1:8">
+      <c r="A283" s="2">
+        <v>283</v>
+      </c>
+      <c r="B283" s="2">
+        <v>279</v>
+      </c>
+      <c r="C283" s="2">
+        <v>0</v>
+      </c>
+      <c r="D283" s="17">
+        <v>40</v>
+      </c>
+      <c r="E283" s="17">
+        <v>155</v>
+      </c>
+      <c r="F283" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="G283" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H283" s="19">
+        <v>101102</v>
+      </c>
+    </row>
+    <row r="284" s="3" customFormat="1" spans="1:8">
+      <c r="A284" s="2">
+        <v>284</v>
+      </c>
+      <c r="B284" s="2">
+        <v>280</v>
+      </c>
+      <c r="C284" s="2">
+        <v>0</v>
+      </c>
+      <c r="D284" s="17">
+        <v>40</v>
+      </c>
+      <c r="E284" s="17">
+        <v>155</v>
+      </c>
+      <c r="F284" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="G284" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H284" s="19">
+        <v>101102</v>
+      </c>
+    </row>
+    <row r="285" s="3" customFormat="1" spans="1:8">
+      <c r="A285" s="2">
+        <v>285</v>
+      </c>
+      <c r="B285" s="2">
+        <v>281</v>
+      </c>
+      <c r="C285" s="2">
+        <v>0</v>
+      </c>
+      <c r="D285" s="17">
+        <v>40</v>
+      </c>
+      <c r="E285" s="17">
+        <v>155</v>
+      </c>
+      <c r="F285" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="G285" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H285" s="19">
+        <v>101102</v>
+      </c>
+    </row>
+    <row r="286" s="3" customFormat="1" spans="1:8">
+      <c r="A286" s="2">
+        <v>286</v>
+      </c>
+      <c r="B286" s="2">
+        <v>282</v>
+      </c>
+      <c r="C286" s="2">
+        <v>0</v>
+      </c>
+      <c r="D286" s="17">
+        <v>40</v>
+      </c>
+      <c r="E286" s="17">
+        <v>155</v>
+      </c>
+      <c r="F286" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="G286" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H286" s="19">
+        <v>101102</v>
       </c>
     </row>
   </sheetData>
@@ -8086,7 +9714,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -8094,7 +9722,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -8103,7 +9731,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -8111,7 +9739,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>

--- a/Table/Table_xls/x循环任务/x循环任务-挑战类分表.xlsx
+++ b/Table/Table_xls/x循环任务/x循环任务-挑战类分表.xlsx
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="386">
   <si>
     <t>挑战类id</t>
   </si>
@@ -913,235 +913,328 @@
     <t>2930@100</t>
   </si>
   <si>
+    <t>310003@100</t>
+  </si>
+  <si>
+    <t>3200@100</t>
+  </si>
+  <si>
+    <t>310004@100</t>
+  </si>
+  <si>
+    <t>3201@100</t>
+  </si>
+  <si>
+    <t>310005@100</t>
+  </si>
+  <si>
+    <t>3202@100</t>
+  </si>
+  <si>
+    <t>310006@100</t>
+  </si>
+  <si>
+    <t>3203@100</t>
+  </si>
+  <si>
+    <t>310007@100</t>
+  </si>
+  <si>
+    <t>3204@100</t>
+  </si>
+  <si>
+    <t>310008@100</t>
+  </si>
+  <si>
+    <t>3205@100</t>
+  </si>
+  <si>
+    <t>310009@100</t>
+  </si>
+  <si>
+    <t>3206@100</t>
+  </si>
+  <si>
+    <t>310010@100</t>
+  </si>
+  <si>
+    <t>3207@100</t>
+  </si>
+  <si>
+    <t>310011@100</t>
+  </si>
+  <si>
+    <t>3208@100</t>
+  </si>
+  <si>
+    <t>310012@100</t>
+  </si>
+  <si>
+    <t>3209@100</t>
+  </si>
+  <si>
+    <t>310089@100</t>
+  </si>
+  <si>
+    <t>3237@100</t>
+  </si>
+  <si>
+    <t>310090@100</t>
+  </si>
+  <si>
+    <t>3238@100</t>
+  </si>
+  <si>
+    <t>310091@100</t>
+  </si>
+  <si>
+    <t>3239@100</t>
+  </si>
+  <si>
+    <t>310092@100</t>
+  </si>
+  <si>
+    <t>3240@100</t>
+  </si>
+  <si>
+    <t>310093@100</t>
+  </si>
+  <si>
+    <t>3241@100</t>
+  </si>
+  <si>
+    <t>310094@100</t>
+  </si>
+  <si>
+    <t>3242@100</t>
+  </si>
+  <si>
+    <t>310095@100</t>
+  </si>
+  <si>
+    <t>3243@100</t>
+  </si>
+  <si>
+    <t>310096@100</t>
+  </si>
+  <si>
+    <t>3244@100</t>
+  </si>
+  <si>
+    <t>310097@100</t>
+  </si>
+  <si>
+    <t>3245@100</t>
+  </si>
+  <si>
+    <t>310098@100</t>
+  </si>
+  <si>
+    <t>3246@100</t>
+  </si>
+  <si>
+    <t>310100@100</t>
+  </si>
+  <si>
+    <t>3210@100</t>
+  </si>
+  <si>
+    <t>310101@100</t>
+  </si>
+  <si>
+    <t>310102@100</t>
+  </si>
+  <si>
+    <t>310103@100</t>
+  </si>
+  <si>
+    <t>310104@100</t>
+  </si>
+  <si>
+    <t>310105@100</t>
+  </si>
+  <si>
+    <t>310106@100</t>
+  </si>
+  <si>
+    <t>310107@100</t>
+  </si>
+  <si>
+    <t>310108@100</t>
+  </si>
+  <si>
+    <t>310109@100</t>
+  </si>
+  <si>
+    <t>310110@100</t>
+  </si>
+  <si>
+    <t>310111@100</t>
+  </si>
+  <si>
+    <t>3211@100</t>
+  </si>
+  <si>
+    <t>310112@100</t>
+  </si>
+  <si>
+    <t>310113@100</t>
+  </si>
+  <si>
+    <t>310114@100</t>
+  </si>
+  <si>
+    <t>310115@100</t>
+  </si>
+  <si>
+    <t>310116@100</t>
+  </si>
+  <si>
+    <t>310117@100</t>
+  </si>
+  <si>
+    <t>310118@100</t>
+  </si>
+  <si>
+    <t>310119@100</t>
+  </si>
+  <si>
+    <t>310120@100</t>
+  </si>
+  <si>
+    <t>310121@100</t>
+  </si>
+  <si>
+    <t>3212@100</t>
+  </si>
+  <si>
+    <t>310122@100</t>
+  </si>
+  <si>
+    <t>310123@100</t>
+  </si>
+  <si>
+    <t>310124@100</t>
+  </si>
+  <si>
+    <t>310125@100</t>
+  </si>
+  <si>
+    <t>310126@100</t>
+  </si>
+  <si>
+    <t>310127@100</t>
+  </si>
+  <si>
+    <t>310128@100</t>
+  </si>
+  <si>
+    <t>310129@100</t>
+  </si>
+  <si>
+    <t>310300@100</t>
+  </si>
+  <si>
+    <t>3250@100</t>
+  </si>
+  <si>
+    <t>310301@100</t>
+  </si>
+  <si>
+    <t>310302@100</t>
+  </si>
+  <si>
+    <t>310303@100</t>
+  </si>
+  <si>
+    <t>310304@100</t>
+  </si>
+  <si>
+    <t>310305@100</t>
+  </si>
+  <si>
+    <t>310306@100</t>
+  </si>
+  <si>
+    <t>310307@100</t>
+  </si>
+  <si>
+    <t>310308@100</t>
+  </si>
+  <si>
+    <t>310309@100</t>
+  </si>
+  <si>
+    <t>168790@100</t>
+  </si>
+  <si>
+    <t>3251@100</t>
+  </si>
+  <si>
+    <t>168791@100</t>
+  </si>
+  <si>
+    <t>168792@100</t>
+  </si>
+  <si>
+    <t>168793@100</t>
+  </si>
+  <si>
+    <t>168794@100</t>
+  </si>
+  <si>
+    <t>168795@100</t>
+  </si>
+  <si>
+    <t>168796@100</t>
+  </si>
+  <si>
+    <t>168797@100</t>
+  </si>
+  <si>
+    <t>168798@100</t>
+  </si>
+  <si>
+    <t>168802@100</t>
+  </si>
+  <si>
+    <t>3247@100</t>
+  </si>
+  <si>
+    <t>169506@100</t>
+  </si>
+  <si>
+    <t>3252@100</t>
+  </si>
+  <si>
+    <t>169507@100</t>
+  </si>
+  <si>
+    <t>169508@100</t>
+  </si>
+  <si>
+    <t>169509@100</t>
+  </si>
+  <si>
+    <t>169510@100</t>
+  </si>
+  <si>
+    <t>169511@100</t>
+  </si>
+  <si>
+    <t>169512@100</t>
+  </si>
+  <si>
+    <t>169513@100</t>
+  </si>
+  <si>
+    <t>169514@100</t>
+  </si>
+  <si>
     <t>169505@100</t>
   </si>
   <si>
     <t>3248@100</t>
-  </si>
-  <si>
-    <t>168802@100</t>
-  </si>
-  <si>
-    <t>3247@100</t>
-  </si>
-  <si>
-    <t>310003@100</t>
-  </si>
-  <si>
-    <t>3200@100</t>
-  </si>
-  <si>
-    <t>310004@100</t>
-  </si>
-  <si>
-    <t>3201@100</t>
-  </si>
-  <si>
-    <t>310005@100</t>
-  </si>
-  <si>
-    <t>3202@100</t>
-  </si>
-  <si>
-    <t>310006@100</t>
-  </si>
-  <si>
-    <t>3203@100</t>
-  </si>
-  <si>
-    <t>310007@100</t>
-  </si>
-  <si>
-    <t>3204@100</t>
-  </si>
-  <si>
-    <t>310008@100</t>
-  </si>
-  <si>
-    <t>3205@100</t>
-  </si>
-  <si>
-    <t>310009@100</t>
-  </si>
-  <si>
-    <t>3206@100</t>
-  </si>
-  <si>
-    <t>310010@100</t>
-  </si>
-  <si>
-    <t>3207@100</t>
-  </si>
-  <si>
-    <t>310011@100</t>
-  </si>
-  <si>
-    <t>3208@100</t>
-  </si>
-  <si>
-    <t>310012@100</t>
-  </si>
-  <si>
-    <t>3209@100</t>
-  </si>
-  <si>
-    <t>310089@100</t>
-  </si>
-  <si>
-    <t>3237@100</t>
-  </si>
-  <si>
-    <t>310090@100</t>
-  </si>
-  <si>
-    <t>3238@100</t>
-  </si>
-  <si>
-    <t>310091@100</t>
-  </si>
-  <si>
-    <t>3239@100</t>
-  </si>
-  <si>
-    <t>310092@100</t>
-  </si>
-  <si>
-    <t>3240@100</t>
-  </si>
-  <si>
-    <t>310093@100</t>
-  </si>
-  <si>
-    <t>3241@100</t>
-  </si>
-  <si>
-    <t>310094@100</t>
-  </si>
-  <si>
-    <t>3242@100</t>
-  </si>
-  <si>
-    <t>310095@100</t>
-  </si>
-  <si>
-    <t>3243@100</t>
-  </si>
-  <si>
-    <t>310096@100</t>
-  </si>
-  <si>
-    <t>3244@100</t>
-  </si>
-  <si>
-    <t>310097@100</t>
-  </si>
-  <si>
-    <t>3245@100</t>
-  </si>
-  <si>
-    <t>310098@100</t>
-  </si>
-  <si>
-    <t>3246@100</t>
-  </si>
-  <si>
-    <t>310100@100</t>
-  </si>
-  <si>
-    <t>3210@100</t>
-  </si>
-  <si>
-    <t>310101@100</t>
-  </si>
-  <si>
-    <t>310102@100</t>
-  </si>
-  <si>
-    <t>310103@100</t>
-  </si>
-  <si>
-    <t>310104@100</t>
-  </si>
-  <si>
-    <t>310105@100</t>
-  </si>
-  <si>
-    <t>310106@100</t>
-  </si>
-  <si>
-    <t>310107@100</t>
-  </si>
-  <si>
-    <t>310108@100</t>
-  </si>
-  <si>
-    <t>310109@100</t>
-  </si>
-  <si>
-    <t>310110@100</t>
-  </si>
-  <si>
-    <t>310111@100</t>
-  </si>
-  <si>
-    <t>3211@100</t>
-  </si>
-  <si>
-    <t>310112@100</t>
-  </si>
-  <si>
-    <t>310113@100</t>
-  </si>
-  <si>
-    <t>310114@100</t>
-  </si>
-  <si>
-    <t>310115@100</t>
-  </si>
-  <si>
-    <t>310116@100</t>
-  </si>
-  <si>
-    <t>310117@100</t>
-  </si>
-  <si>
-    <t>310118@100</t>
-  </si>
-  <si>
-    <t>310119@100</t>
-  </si>
-  <si>
-    <t>310120@100</t>
-  </si>
-  <si>
-    <t>310121@100</t>
-  </si>
-  <si>
-    <t>3212@100</t>
-  </si>
-  <si>
-    <t>310122@100</t>
-  </si>
-  <si>
-    <t>310123@100</t>
-  </si>
-  <si>
-    <t>310124@100</t>
-  </si>
-  <si>
-    <t>310125@100</t>
-  </si>
-  <si>
-    <t>310126@100</t>
-  </si>
-  <si>
-    <t>310127@100</t>
-  </si>
-  <si>
-    <t>310128@100</t>
-  </si>
-  <si>
-    <t>310129@100</t>
   </si>
 </sst>
 </file>
@@ -1150,9 +1243,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1186,6 +1279,76 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1194,16 +1357,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1217,66 +1388,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1298,39 +1412,18 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1346,7 +1439,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1367,7 +1460,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1391,49 +1484,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1445,67 +1496,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1523,6 +1514,108 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1535,37 +1628,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1576,6 +1657,84 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1598,238 +1757,160 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1862,17 +1943,11 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1882,8 +1957,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -2276,14 +2358,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J286"/>
+  <dimension ref="A1:J314"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B235" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B228" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B237" sqref="B237:B256"/>
+      <selection pane="bottomRight" activeCell="A235" sqref="$A235:$XFD236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -8281,81 +8363,81 @@
         <v>100200</v>
       </c>
     </row>
-    <row r="235" spans="1:8">
-      <c r="A235">
-        <v>235</v>
-      </c>
-      <c r="B235">
-        <v>231</v>
-      </c>
-      <c r="C235">
-        <v>0</v>
-      </c>
-      <c r="D235" s="6">
-        <v>40</v>
-      </c>
-      <c r="E235" s="6">
-        <v>155</v>
-      </c>
-      <c r="F235" s="12" t="s">
+    <row r="235" s="1" customFormat="1" spans="1:8">
+      <c r="A235" s="1">
+        <v>237</v>
+      </c>
+      <c r="B235" s="1">
+        <v>233</v>
+      </c>
+      <c r="C235" s="1">
+        <v>0</v>
+      </c>
+      <c r="D235" s="12">
+        <v>40</v>
+      </c>
+      <c r="E235" s="12">
+        <v>155</v>
+      </c>
+      <c r="F235" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="G235" t="s">
+      <c r="G235" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="H235" s="13">
-        <v>101106</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8">
-      <c r="A236">
-        <v>236</v>
-      </c>
-      <c r="B236">
-        <v>232</v>
-      </c>
-      <c r="C236">
-        <v>0</v>
-      </c>
-      <c r="D236" s="6">
-        <v>40</v>
-      </c>
-      <c r="E236" s="6">
-        <v>155</v>
-      </c>
-      <c r="F236" t="s">
+      <c r="H235" s="14">
+        <v>101103</v>
+      </c>
+    </row>
+    <row r="236" s="1" customFormat="1" spans="1:8">
+      <c r="A236" s="1">
+        <v>238</v>
+      </c>
+      <c r="B236" s="1">
+        <v>234</v>
+      </c>
+      <c r="C236" s="1">
+        <v>0</v>
+      </c>
+      <c r="D236" s="12">
+        <v>40</v>
+      </c>
+      <c r="E236" s="12">
+        <v>155</v>
+      </c>
+      <c r="F236" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="G236" t="s">
+      <c r="G236" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="H236" s="13">
-        <v>101108</v>
+      <c r="H236" s="14">
+        <v>101103</v>
       </c>
     </row>
     <row r="237" s="1" customFormat="1" spans="1:10">
       <c r="A237" s="1">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B237" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C237" s="1">
         <v>0</v>
       </c>
-      <c r="D237" s="14">
-        <v>40</v>
-      </c>
-      <c r="E237" s="14">
+      <c r="D237" s="12">
+        <v>40</v>
+      </c>
+      <c r="E237" s="12">
         <v>155</v>
       </c>
       <c r="F237" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="G237" s="15" t="s">
+      <c r="G237" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="H237" s="16">
+      <c r="H237" s="14">
         <v>101103</v>
       </c>
       <c r="I237"/>
@@ -8363,27 +8445,27 @@
     </row>
     <row r="238" s="1" customFormat="1" spans="1:10">
       <c r="A238" s="1">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B238" s="1">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C238" s="1">
         <v>0</v>
       </c>
-      <c r="D238" s="14">
-        <v>40</v>
-      </c>
-      <c r="E238" s="14">
+      <c r="D238" s="12">
+        <v>40</v>
+      </c>
+      <c r="E238" s="12">
         <v>155</v>
       </c>
       <c r="F238" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="G238" s="15" t="s">
+      <c r="G238" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="H238" s="16">
+      <c r="H238" s="14">
         <v>101103</v>
       </c>
       <c r="I238"/>
@@ -8391,27 +8473,27 @@
     </row>
     <row r="239" s="1" customFormat="1" spans="1:10">
       <c r="A239" s="1">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B239" s="1">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C239" s="1">
         <v>0</v>
       </c>
-      <c r="D239" s="14">
-        <v>40</v>
-      </c>
-      <c r="E239" s="14">
+      <c r="D239" s="12">
+        <v>40</v>
+      </c>
+      <c r="E239" s="12">
         <v>155</v>
       </c>
       <c r="F239" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="G239" s="15" t="s">
+      <c r="G239" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="H239" s="16">
+      <c r="H239" s="14">
         <v>101103</v>
       </c>
       <c r="I239"/>
@@ -8419,27 +8501,27 @@
     </row>
     <row r="240" s="1" customFormat="1" spans="1:10">
       <c r="A240" s="1">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B240" s="1">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C240" s="1">
         <v>0</v>
       </c>
-      <c r="D240" s="14">
-        <v>40</v>
-      </c>
-      <c r="E240" s="14">
+      <c r="D240" s="12">
+        <v>40</v>
+      </c>
+      <c r="E240" s="12">
         <v>155</v>
       </c>
       <c r="F240" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="G240" s="15" t="s">
+      <c r="G240" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="H240" s="16">
+      <c r="H240" s="14">
         <v>101103</v>
       </c>
       <c r="I240"/>
@@ -8447,27 +8529,27 @@
     </row>
     <row r="241" s="1" customFormat="1" spans="1:10">
       <c r="A241" s="1">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B241" s="1">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C241" s="1">
         <v>0</v>
       </c>
-      <c r="D241" s="14">
-        <v>40</v>
-      </c>
-      <c r="E241" s="14">
+      <c r="D241" s="12">
+        <v>40</v>
+      </c>
+      <c r="E241" s="12">
         <v>155</v>
       </c>
       <c r="F241" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="G241" s="15" t="s">
+      <c r="G241" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="H241" s="16">
+      <c r="H241" s="14">
         <v>101103</v>
       </c>
       <c r="I241"/>
@@ -8475,27 +8557,27 @@
     </row>
     <row r="242" s="1" customFormat="1" spans="1:10">
       <c r="A242" s="1">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B242" s="1">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C242" s="1">
         <v>0</v>
       </c>
-      <c r="D242" s="14">
-        <v>40</v>
-      </c>
-      <c r="E242" s="14">
+      <c r="D242" s="12">
+        <v>40</v>
+      </c>
+      <c r="E242" s="12">
         <v>155</v>
       </c>
       <c r="F242" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="G242" s="15" t="s">
+      <c r="G242" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="H242" s="16">
+      <c r="H242" s="14">
         <v>101103</v>
       </c>
       <c r="I242"/>
@@ -8503,27 +8585,27 @@
     </row>
     <row r="243" s="1" customFormat="1" spans="1:10">
       <c r="A243" s="1">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B243" s="1">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C243" s="1">
         <v>0</v>
       </c>
-      <c r="D243" s="14">
-        <v>40</v>
-      </c>
-      <c r="E243" s="14">
+      <c r="D243" s="12">
+        <v>40</v>
+      </c>
+      <c r="E243" s="12">
         <v>155</v>
       </c>
       <c r="F243" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="G243" s="15" t="s">
+      <c r="G243" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="H243" s="16">
+      <c r="H243" s="14">
         <v>101103</v>
       </c>
       <c r="I243"/>
@@ -8531,27 +8613,27 @@
     </row>
     <row r="244" s="1" customFormat="1" spans="1:10">
       <c r="A244" s="1">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B244" s="1">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C244" s="1">
         <v>0</v>
       </c>
-      <c r="D244" s="14">
-        <v>40</v>
-      </c>
-      <c r="E244" s="14">
+      <c r="D244" s="12">
+        <v>40</v>
+      </c>
+      <c r="E244" s="12">
         <v>155</v>
       </c>
       <c r="F244" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G244" s="15" t="s">
+      <c r="G244" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="H244" s="16">
+      <c r="H244" s="14">
         <v>101103</v>
       </c>
       <c r="I244"/>
@@ -8559,83 +8641,83 @@
     </row>
     <row r="245" s="1" customFormat="1" spans="1:10">
       <c r="A245" s="1">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B245" s="1">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C245" s="1">
         <v>0</v>
       </c>
-      <c r="D245" s="14">
-        <v>40</v>
-      </c>
-      <c r="E245" s="14">
+      <c r="D245" s="12">
+        <v>40</v>
+      </c>
+      <c r="E245" s="12">
         <v>155</v>
       </c>
       <c r="F245" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="G245" s="15" t="s">
+      <c r="G245" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="H245" s="16">
-        <v>101103</v>
+      <c r="H245" s="14">
+        <v>101104</v>
       </c>
       <c r="I245"/>
       <c r="J245"/>
     </row>
     <row r="246" s="1" customFormat="1" spans="1:10">
       <c r="A246" s="1">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B246" s="1">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C246" s="1">
         <v>0</v>
       </c>
-      <c r="D246" s="14">
-        <v>40</v>
-      </c>
-      <c r="E246" s="14">
+      <c r="D246" s="12">
+        <v>40</v>
+      </c>
+      <c r="E246" s="12">
         <v>155</v>
       </c>
       <c r="F246" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="G246" s="15" t="s">
+      <c r="G246" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="H246" s="16">
-        <v>101103</v>
+      <c r="H246" s="14">
+        <v>101104</v>
       </c>
       <c r="I246"/>
       <c r="J246"/>
     </row>
     <row r="247" s="1" customFormat="1" spans="1:10">
       <c r="A247" s="1">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B247" s="1">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C247" s="1">
         <v>0</v>
       </c>
-      <c r="D247" s="14">
-        <v>40</v>
-      </c>
-      <c r="E247" s="14">
+      <c r="D247" s="12">
+        <v>40</v>
+      </c>
+      <c r="E247" s="12">
         <v>155</v>
       </c>
       <c r="F247" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="G247" s="15" t="s">
+      <c r="G247" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="H247" s="16">
+      <c r="H247" s="14">
         <v>101104</v>
       </c>
       <c r="I247"/>
@@ -8643,27 +8725,27 @@
     </row>
     <row r="248" s="1" customFormat="1" spans="1:10">
       <c r="A248" s="1">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B248" s="1">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C248" s="1">
         <v>0</v>
       </c>
-      <c r="D248" s="14">
-        <v>40</v>
-      </c>
-      <c r="E248" s="14">
+      <c r="D248" s="12">
+        <v>40</v>
+      </c>
+      <c r="E248" s="12">
         <v>155</v>
       </c>
       <c r="F248" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="G248" s="15" t="s">
+      <c r="G248" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="H248" s="16">
+      <c r="H248" s="14">
         <v>101104</v>
       </c>
       <c r="I248"/>
@@ -8671,27 +8753,27 @@
     </row>
     <row r="249" s="1" customFormat="1" spans="1:10">
       <c r="A249" s="1">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B249" s="1">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C249" s="1">
         <v>0</v>
       </c>
-      <c r="D249" s="14">
-        <v>40</v>
-      </c>
-      <c r="E249" s="14">
+      <c r="D249" s="12">
+        <v>40</v>
+      </c>
+      <c r="E249" s="12">
         <v>155</v>
       </c>
       <c r="F249" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="G249" s="15" t="s">
+      <c r="G249" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="H249" s="16">
+      <c r="H249" s="14">
         <v>101104</v>
       </c>
       <c r="I249"/>
@@ -8699,27 +8781,27 @@
     </row>
     <row r="250" s="1" customFormat="1" spans="1:10">
       <c r="A250" s="1">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B250" s="1">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C250" s="1">
         <v>0</v>
       </c>
-      <c r="D250" s="14">
-        <v>40</v>
-      </c>
-      <c r="E250" s="14">
+      <c r="D250" s="12">
+        <v>40</v>
+      </c>
+      <c r="E250" s="12">
         <v>155</v>
       </c>
       <c r="F250" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="G250" s="15" t="s">
+      <c r="G250" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="H250" s="16">
+      <c r="H250" s="14">
         <v>101104</v>
       </c>
       <c r="I250"/>
@@ -8727,27 +8809,27 @@
     </row>
     <row r="251" s="1" customFormat="1" spans="1:10">
       <c r="A251" s="1">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B251" s="1">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C251" s="1">
         <v>0</v>
       </c>
-      <c r="D251" s="14">
-        <v>40</v>
-      </c>
-      <c r="E251" s="14">
+      <c r="D251" s="12">
+        <v>40</v>
+      </c>
+      <c r="E251" s="12">
         <v>155</v>
       </c>
       <c r="F251" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="G251" s="15" t="s">
+      <c r="G251" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="H251" s="16">
+      <c r="H251" s="14">
         <v>101104</v>
       </c>
       <c r="I251"/>
@@ -8755,27 +8837,27 @@
     </row>
     <row r="252" s="1" customFormat="1" spans="1:10">
       <c r="A252" s="1">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B252" s="1">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C252" s="1">
         <v>0</v>
       </c>
-      <c r="D252" s="14">
-        <v>40</v>
-      </c>
-      <c r="E252" s="14">
+      <c r="D252" s="12">
+        <v>40</v>
+      </c>
+      <c r="E252" s="12">
         <v>155</v>
       </c>
       <c r="F252" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="G252" s="15" t="s">
+      <c r="G252" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="H252" s="16">
+      <c r="H252" s="14">
         <v>101104</v>
       </c>
       <c r="I252"/>
@@ -8783,27 +8865,27 @@
     </row>
     <row r="253" s="1" customFormat="1" spans="1:10">
       <c r="A253" s="1">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B253" s="1">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C253" s="1">
         <v>0</v>
       </c>
-      <c r="D253" s="14">
-        <v>40</v>
-      </c>
-      <c r="E253" s="14">
+      <c r="D253" s="12">
+        <v>40</v>
+      </c>
+      <c r="E253" s="12">
         <v>155</v>
       </c>
       <c r="F253" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="G253" s="15" t="s">
+      <c r="G253" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="H253" s="16">
+      <c r="H253" s="14">
         <v>101104</v>
       </c>
       <c r="I253"/>
@@ -8811,888 +8893,1590 @@
     </row>
     <row r="254" s="1" customFormat="1" spans="1:10">
       <c r="A254" s="1">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B254" s="1">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C254" s="1">
         <v>0</v>
       </c>
-      <c r="D254" s="14">
-        <v>40</v>
-      </c>
-      <c r="E254" s="14">
+      <c r="D254" s="12">
+        <v>40</v>
+      </c>
+      <c r="E254" s="12">
         <v>155</v>
       </c>
       <c r="F254" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="G254" s="15" t="s">
+      <c r="G254" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="H254" s="16">
+      <c r="H254" s="14">
         <v>101104</v>
       </c>
       <c r="I254"/>
       <c r="J254"/>
     </row>
-    <row r="255" s="1" customFormat="1" spans="1:10">
-      <c r="A255" s="1">
+    <row r="255" s="2" customFormat="1" spans="1:8">
+      <c r="A255" s="2">
+        <v>257</v>
+      </c>
+      <c r="B255" s="2">
+        <v>253</v>
+      </c>
+      <c r="C255" s="2">
+        <v>0</v>
+      </c>
+      <c r="D255" s="15">
+        <v>40</v>
+      </c>
+      <c r="E255" s="15">
+        <v>155</v>
+      </c>
+      <c r="F255" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="G255" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="H255" s="17">
+        <v>101100</v>
+      </c>
+    </row>
+    <row r="256" s="2" customFormat="1" spans="1:8">
+      <c r="A256" s="2">
+        <v>258</v>
+      </c>
+      <c r="B256" s="2">
+        <v>254</v>
+      </c>
+      <c r="C256" s="2">
+        <v>0</v>
+      </c>
+      <c r="D256" s="15">
+        <v>40</v>
+      </c>
+      <c r="E256" s="15">
+        <v>155</v>
+      </c>
+      <c r="F256" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="G256" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="H256" s="17">
+        <v>101100</v>
+      </c>
+    </row>
+    <row r="257" s="2" customFormat="1" spans="1:8">
+      <c r="A257" s="2">
+        <v>259</v>
+      </c>
+      <c r="B257" s="2">
         <v>255</v>
       </c>
-      <c r="B255" s="1">
-        <v>251</v>
-      </c>
-      <c r="C255" s="1">
-        <v>0</v>
-      </c>
-      <c r="D255" s="14">
-        <v>40</v>
-      </c>
-      <c r="E255" s="14">
-        <v>155</v>
-      </c>
-      <c r="F255" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="G255" s="15" t="s">
+      <c r="C257" s="2">
+        <v>0</v>
+      </c>
+      <c r="D257" s="15">
+        <v>40</v>
+      </c>
+      <c r="E257" s="15">
+        <v>155</v>
+      </c>
+      <c r="F257" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="G257" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="H255" s="16">
-        <v>101104</v>
-      </c>
-      <c r="I255"/>
-      <c r="J255"/>
-    </row>
-    <row r="256" s="1" customFormat="1" spans="1:10">
-      <c r="A256" s="1">
+      <c r="H257" s="17">
+        <v>101100</v>
+      </c>
+    </row>
+    <row r="258" s="2" customFormat="1" spans="1:8">
+      <c r="A258" s="2">
+        <v>260</v>
+      </c>
+      <c r="B258" s="2">
         <v>256</v>
       </c>
-      <c r="B256" s="1">
-        <v>252</v>
-      </c>
-      <c r="C256" s="1">
-        <v>0</v>
-      </c>
-      <c r="D256" s="14">
-        <v>40</v>
-      </c>
-      <c r="E256" s="14">
-        <v>155</v>
-      </c>
-      <c r="F256" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="G256" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="H256" s="16">
-        <v>101104</v>
-      </c>
-      <c r="I256"/>
-      <c r="J256"/>
-    </row>
-    <row r="257" s="2" customFormat="1" spans="1:10">
-      <c r="A257" s="2">
+      <c r="C258" s="2">
+        <v>0</v>
+      </c>
+      <c r="D258" s="15">
+        <v>40</v>
+      </c>
+      <c r="E258" s="15">
+        <v>155</v>
+      </c>
+      <c r="F258" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G258" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="H258" s="17">
+        <v>101100</v>
+      </c>
+    </row>
+    <row r="259" s="2" customFormat="1" spans="1:8">
+      <c r="A259" s="2">
+        <v>261</v>
+      </c>
+      <c r="B259" s="2">
         <v>257</v>
       </c>
-      <c r="B257" s="2">
-        <v>253</v>
-      </c>
-      <c r="C257" s="2">
-        <v>0</v>
-      </c>
-      <c r="D257" s="17">
-        <v>40</v>
-      </c>
-      <c r="E257" s="17">
-        <v>155</v>
-      </c>
-      <c r="F257" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="G257" s="18" t="s">
+      <c r="C259" s="2">
+        <v>0</v>
+      </c>
+      <c r="D259" s="15">
+        <v>40</v>
+      </c>
+      <c r="E259" s="15">
+        <v>155</v>
+      </c>
+      <c r="F259" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="H257" s="19">
+      <c r="G259" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="H259" s="17">
         <v>101100</v>
       </c>
-      <c r="I257" s="3"/>
-      <c r="J257" s="3"/>
-    </row>
-    <row r="258" s="2" customFormat="1" spans="1:10">
-      <c r="A258" s="2">
+    </row>
+    <row r="260" s="2" customFormat="1" spans="1:8">
+      <c r="A260" s="2">
+        <v>262</v>
+      </c>
+      <c r="B260" s="2">
         <v>258</v>
       </c>
-      <c r="B258" s="2">
-        <v>254</v>
-      </c>
-      <c r="C258" s="2">
-        <v>0</v>
-      </c>
-      <c r="D258" s="17">
-        <v>40</v>
-      </c>
-      <c r="E258" s="17">
-        <v>155</v>
-      </c>
-      <c r="F258" s="2" t="s">
+      <c r="C260" s="2">
+        <v>0</v>
+      </c>
+      <c r="D260" s="15">
+        <v>40</v>
+      </c>
+      <c r="E260" s="15">
+        <v>155</v>
+      </c>
+      <c r="F260" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="G258" s="18" t="s">
-        <v>323</v>
-      </c>
-      <c r="H258" s="19">
+      <c r="G260" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="H260" s="17">
         <v>101100</v>
       </c>
-      <c r="I258" s="3"/>
-      <c r="J258" s="3"/>
-    </row>
-    <row r="259" s="2" customFormat="1" spans="1:10">
-      <c r="A259" s="2">
+    </row>
+    <row r="261" s="2" customFormat="1" spans="1:8">
+      <c r="A261" s="2">
+        <v>263</v>
+      </c>
+      <c r="B261" s="2">
         <v>259</v>
       </c>
-      <c r="B259" s="2">
-        <v>255</v>
-      </c>
-      <c r="C259" s="2">
-        <v>0</v>
-      </c>
-      <c r="D259" s="17">
-        <v>40</v>
-      </c>
-      <c r="E259" s="17">
-        <v>155</v>
-      </c>
-      <c r="F259" s="2" t="s">
+      <c r="C261" s="2">
+        <v>0</v>
+      </c>
+      <c r="D261" s="15">
+        <v>40</v>
+      </c>
+      <c r="E261" s="15">
+        <v>155</v>
+      </c>
+      <c r="F261" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="G259" s="18" t="s">
-        <v>323</v>
-      </c>
-      <c r="H259" s="19">
+      <c r="G261" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="H261" s="17">
         <v>101100</v>
       </c>
-      <c r="I259" s="3"/>
-      <c r="J259" s="3"/>
-    </row>
-    <row r="260" s="2" customFormat="1" spans="1:10">
-      <c r="A260" s="2">
+    </row>
+    <row r="262" s="2" customFormat="1" spans="1:8">
+      <c r="A262" s="2">
+        <v>264</v>
+      </c>
+      <c r="B262" s="2">
         <v>260</v>
       </c>
-      <c r="B260" s="2">
-        <v>256</v>
-      </c>
-      <c r="C260" s="2">
-        <v>0</v>
-      </c>
-      <c r="D260" s="17">
-        <v>40</v>
-      </c>
-      <c r="E260" s="17">
-        <v>155</v>
-      </c>
-      <c r="F260" s="2" t="s">
+      <c r="C262" s="2">
+        <v>0</v>
+      </c>
+      <c r="D262" s="15">
+        <v>40</v>
+      </c>
+      <c r="E262" s="15">
+        <v>155</v>
+      </c>
+      <c r="F262" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="G260" s="18" t="s">
-        <v>323</v>
-      </c>
-      <c r="H260" s="19">
+      <c r="G262" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="H262" s="17">
         <v>101100</v>
       </c>
-      <c r="I260" s="3"/>
-      <c r="J260" s="3"/>
-    </row>
-    <row r="261" s="2" customFormat="1" spans="1:10">
-      <c r="A261" s="2">
+    </row>
+    <row r="263" s="2" customFormat="1" spans="1:8">
+      <c r="A263" s="2">
+        <v>265</v>
+      </c>
+      <c r="B263" s="2">
         <v>261</v>
       </c>
-      <c r="B261" s="2">
-        <v>257</v>
-      </c>
-      <c r="C261" s="2">
-        <v>0</v>
-      </c>
-      <c r="D261" s="17">
-        <v>40</v>
-      </c>
-      <c r="E261" s="17">
-        <v>155</v>
-      </c>
-      <c r="F261" s="2" t="s">
+      <c r="C263" s="2">
+        <v>0</v>
+      </c>
+      <c r="D263" s="15">
+        <v>40</v>
+      </c>
+      <c r="E263" s="15">
+        <v>155</v>
+      </c>
+      <c r="F263" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="G261" s="18" t="s">
-        <v>323</v>
-      </c>
-      <c r="H261" s="19">
+      <c r="G263" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="H263" s="17">
         <v>101100</v>
       </c>
-      <c r="I261" s="3"/>
-      <c r="J261" s="3"/>
-    </row>
-    <row r="262" s="2" customFormat="1" spans="1:10">
-      <c r="A262" s="2">
+    </row>
+    <row r="264" s="2" customFormat="1" spans="1:8">
+      <c r="A264" s="2">
+        <v>266</v>
+      </c>
+      <c r="B264" s="2">
         <v>262</v>
       </c>
-      <c r="B262" s="2">
-        <v>258</v>
-      </c>
-      <c r="C262" s="2">
-        <v>0</v>
-      </c>
-      <c r="D262" s="17">
-        <v>40</v>
-      </c>
-      <c r="E262" s="17">
-        <v>155</v>
-      </c>
-      <c r="F262" s="2" t="s">
+      <c r="C264" s="2">
+        <v>0</v>
+      </c>
+      <c r="D264" s="15">
+        <v>40</v>
+      </c>
+      <c r="E264" s="15">
+        <v>155</v>
+      </c>
+      <c r="F264" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="G262" s="18" t="s">
-        <v>323</v>
-      </c>
-      <c r="H262" s="19">
+      <c r="G264" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="H264" s="17">
         <v>101100</v>
       </c>
-      <c r="I262" s="3"/>
-      <c r="J262" s="3"/>
-    </row>
-    <row r="263" s="2" customFormat="1" spans="1:10">
-      <c r="A263" s="2">
+    </row>
+    <row r="265" s="2" customFormat="1" spans="1:8">
+      <c r="A265" s="2">
+        <v>267</v>
+      </c>
+      <c r="B265" s="2">
         <v>263</v>
       </c>
-      <c r="B263" s="2">
-        <v>259</v>
-      </c>
-      <c r="C263" s="2">
-        <v>0</v>
-      </c>
-      <c r="D263" s="17">
-        <v>40</v>
-      </c>
-      <c r="E263" s="17">
-        <v>155</v>
-      </c>
-      <c r="F263" s="2" t="s">
+      <c r="C265" s="2">
+        <v>0</v>
+      </c>
+      <c r="D265" s="15">
+        <v>40</v>
+      </c>
+      <c r="E265" s="15">
+        <v>155</v>
+      </c>
+      <c r="F265" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="G263" s="18" t="s">
-        <v>323</v>
-      </c>
-      <c r="H263" s="19">
-        <v>101100</v>
-      </c>
-      <c r="I263" s="3"/>
-      <c r="J263" s="3"/>
-    </row>
-    <row r="264" s="2" customFormat="1" spans="1:10">
-      <c r="A264" s="2">
+      <c r="G265" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="H265" s="17">
+        <v>101101</v>
+      </c>
+    </row>
+    <row r="266" s="2" customFormat="1" spans="1:8">
+      <c r="A266" s="2">
+        <v>268</v>
+      </c>
+      <c r="B266" s="2">
         <v>264</v>
       </c>
-      <c r="B264" s="2">
-        <v>260</v>
-      </c>
-      <c r="C264" s="2">
-        <v>0</v>
-      </c>
-      <c r="D264" s="17">
-        <v>40</v>
-      </c>
-      <c r="E264" s="17">
-        <v>155</v>
-      </c>
-      <c r="F264" s="2" t="s">
+      <c r="C266" s="2">
+        <v>0</v>
+      </c>
+      <c r="D266" s="15">
+        <v>40</v>
+      </c>
+      <c r="E266" s="15">
+        <v>155</v>
+      </c>
+      <c r="F266" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="G264" s="18" t="s">
-        <v>323</v>
-      </c>
-      <c r="H264" s="19">
-        <v>101100</v>
-      </c>
-      <c r="I264" s="3"/>
-      <c r="J264" s="3"/>
-    </row>
-    <row r="265" s="2" customFormat="1" spans="1:10">
-      <c r="A265" s="2">
+      <c r="G266" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="H266" s="17">
+        <v>101101</v>
+      </c>
+    </row>
+    <row r="267" s="2" customFormat="1" spans="1:8">
+      <c r="A267" s="2">
+        <v>269</v>
+      </c>
+      <c r="B267" s="2">
         <v>265</v>
       </c>
-      <c r="B265" s="2">
-        <v>261</v>
-      </c>
-      <c r="C265" s="2">
-        <v>0</v>
-      </c>
-      <c r="D265" s="17">
-        <v>40</v>
-      </c>
-      <c r="E265" s="17">
-        <v>155</v>
-      </c>
-      <c r="F265" s="2" t="s">
+      <c r="C267" s="2">
+        <v>0</v>
+      </c>
+      <c r="D267" s="15">
+        <v>40</v>
+      </c>
+      <c r="E267" s="15">
+        <v>155</v>
+      </c>
+      <c r="F267" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="G267" s="16" t="s">
         <v>331</v>
       </c>
-      <c r="G265" s="18" t="s">
-        <v>323</v>
-      </c>
-      <c r="H265" s="19">
-        <v>101100</v>
-      </c>
-      <c r="I265" s="3"/>
-      <c r="J265" s="3"/>
-    </row>
-    <row r="266" s="2" customFormat="1" spans="1:10">
-      <c r="A266" s="2">
+      <c r="H267" s="17">
+        <v>101101</v>
+      </c>
+    </row>
+    <row r="268" s="2" customFormat="1" spans="1:8">
+      <c r="A268" s="2">
+        <v>270</v>
+      </c>
+      <c r="B268" s="2">
         <v>266</v>
       </c>
-      <c r="B266" s="2">
-        <v>262</v>
-      </c>
-      <c r="C266" s="2">
-        <v>0</v>
-      </c>
-      <c r="D266" s="17">
-        <v>40</v>
-      </c>
-      <c r="E266" s="17">
-        <v>155</v>
-      </c>
-      <c r="F266" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="G266" s="18" t="s">
-        <v>323</v>
-      </c>
-      <c r="H266" s="19">
-        <v>101100</v>
-      </c>
-      <c r="I266" s="3"/>
-      <c r="J266" s="3"/>
-    </row>
-    <row r="267" s="2" customFormat="1" spans="1:10">
-      <c r="A267" s="2">
+      <c r="C268" s="2">
+        <v>0</v>
+      </c>
+      <c r="D268" s="15">
+        <v>40</v>
+      </c>
+      <c r="E268" s="15">
+        <v>155</v>
+      </c>
+      <c r="F268" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="G268" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="H268" s="17">
+        <v>101101</v>
+      </c>
+    </row>
+    <row r="269" s="2" customFormat="1" spans="1:8">
+      <c r="A269" s="2">
+        <v>271</v>
+      </c>
+      <c r="B269" s="2">
         <v>267</v>
       </c>
-      <c r="B267" s="2">
-        <v>263</v>
-      </c>
-      <c r="C267" s="2">
-        <v>0</v>
-      </c>
-      <c r="D267" s="17">
-        <v>40</v>
-      </c>
-      <c r="E267" s="17">
-        <v>155</v>
-      </c>
-      <c r="F267" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="G267" s="18" t="s">
-        <v>323</v>
-      </c>
-      <c r="H267" s="19">
+      <c r="C269" s="2">
+        <v>0</v>
+      </c>
+      <c r="D269" s="15">
+        <v>40</v>
+      </c>
+      <c r="E269" s="15">
+        <v>155</v>
+      </c>
+      <c r="F269" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="G269" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="H269" s="17">
         <v>101101</v>
       </c>
-      <c r="I267" s="3"/>
-      <c r="J267" s="3"/>
-    </row>
-    <row r="268" s="3" customFormat="1" spans="1:8">
-      <c r="A268" s="2">
+    </row>
+    <row r="270" s="2" customFormat="1" spans="1:8">
+      <c r="A270" s="2">
+        <v>272</v>
+      </c>
+      <c r="B270" s="2">
         <v>268</v>
       </c>
-      <c r="B268" s="2">
-        <v>264</v>
-      </c>
-      <c r="C268" s="2">
-        <v>0</v>
-      </c>
-      <c r="D268" s="17">
-        <v>40</v>
-      </c>
-      <c r="E268" s="17">
-        <v>155</v>
-      </c>
-      <c r="F268" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="G268" s="20" t="s">
+      <c r="C270" s="2">
+        <v>0</v>
+      </c>
+      <c r="D270" s="15">
+        <v>40</v>
+      </c>
+      <c r="E270" s="15">
+        <v>155</v>
+      </c>
+      <c r="F270" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="H268" s="19">
+      <c r="G270" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="H270" s="17">
         <v>101101</v>
       </c>
     </row>
-    <row r="269" s="3" customFormat="1" spans="1:8">
-      <c r="A269" s="2">
+    <row r="271" s="2" customFormat="1" spans="1:8">
+      <c r="A271" s="2">
+        <v>273</v>
+      </c>
+      <c r="B271" s="2">
         <v>269</v>
       </c>
-      <c r="B269" s="2">
-        <v>265</v>
-      </c>
-      <c r="C269" s="2">
-        <v>0</v>
-      </c>
-      <c r="D269" s="17">
-        <v>40</v>
-      </c>
-      <c r="E269" s="17">
-        <v>155</v>
-      </c>
-      <c r="F269" s="3" t="s">
+      <c r="C271" s="2">
+        <v>0</v>
+      </c>
+      <c r="D271" s="15">
+        <v>40</v>
+      </c>
+      <c r="E271" s="15">
+        <v>155</v>
+      </c>
+      <c r="F271" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="G269" s="20" t="s">
-        <v>335</v>
-      </c>
-      <c r="H269" s="19">
+      <c r="G271" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="H271" s="17">
         <v>101101</v>
       </c>
     </row>
-    <row r="270" s="3" customFormat="1" spans="1:8">
-      <c r="A270" s="2">
+    <row r="272" s="2" customFormat="1" spans="1:8">
+      <c r="A272" s="2">
+        <v>274</v>
+      </c>
+      <c r="B272" s="2">
         <v>270</v>
       </c>
-      <c r="B270" s="2">
-        <v>266</v>
-      </c>
-      <c r="C270" s="2">
-        <v>0</v>
-      </c>
-      <c r="D270" s="17">
-        <v>40</v>
-      </c>
-      <c r="E270" s="17">
-        <v>155</v>
-      </c>
-      <c r="F270" s="3" t="s">
+      <c r="C272" s="2">
+        <v>0</v>
+      </c>
+      <c r="D272" s="15">
+        <v>40</v>
+      </c>
+      <c r="E272" s="15">
+        <v>155</v>
+      </c>
+      <c r="F272" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="G270" s="20" t="s">
-        <v>335</v>
-      </c>
-      <c r="H270" s="19">
+      <c r="G272" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="H272" s="17">
         <v>101101</v>
       </c>
     </row>
-    <row r="271" s="3" customFormat="1" spans="1:8">
-      <c r="A271" s="2">
+    <row r="273" s="2" customFormat="1" spans="1:8">
+      <c r="A273" s="2">
+        <v>275</v>
+      </c>
+      <c r="B273" s="2">
         <v>271</v>
       </c>
-      <c r="B271" s="2">
-        <v>267</v>
-      </c>
-      <c r="C271" s="2">
-        <v>0</v>
-      </c>
-      <c r="D271" s="17">
-        <v>40</v>
-      </c>
-      <c r="E271" s="17">
-        <v>155</v>
-      </c>
-      <c r="F271" s="3" t="s">
+      <c r="C273" s="2">
+        <v>0</v>
+      </c>
+      <c r="D273" s="15">
+        <v>40</v>
+      </c>
+      <c r="E273" s="15">
+        <v>155</v>
+      </c>
+      <c r="F273" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="G271" s="20" t="s">
-        <v>335</v>
-      </c>
-      <c r="H271" s="19">
+      <c r="G273" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="H273" s="17">
         <v>101101</v>
       </c>
     </row>
-    <row r="272" s="3" customFormat="1" spans="1:8">
-      <c r="A272" s="2">
+    <row r="274" s="2" customFormat="1" spans="1:8">
+      <c r="A274" s="2">
+        <v>276</v>
+      </c>
+      <c r="B274" s="2">
         <v>272</v>
       </c>
-      <c r="B272" s="2">
-        <v>268</v>
-      </c>
-      <c r="C272" s="2">
-        <v>0</v>
-      </c>
-      <c r="D272" s="17">
-        <v>40</v>
-      </c>
-      <c r="E272" s="17">
-        <v>155</v>
-      </c>
-      <c r="F272" s="3" t="s">
+      <c r="C274" s="2">
+        <v>0</v>
+      </c>
+      <c r="D274" s="15">
+        <v>40</v>
+      </c>
+      <c r="E274" s="15">
+        <v>155</v>
+      </c>
+      <c r="F274" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="G272" s="20" t="s">
-        <v>335</v>
-      </c>
-      <c r="H272" s="19">
+      <c r="G274" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="H274" s="17">
         <v>101101</v>
       </c>
     </row>
-    <row r="273" s="3" customFormat="1" spans="1:8">
-      <c r="A273" s="2">
+    <row r="275" s="2" customFormat="1" spans="1:8">
+      <c r="A275" s="2">
+        <v>277</v>
+      </c>
+      <c r="B275" s="2">
         <v>273</v>
       </c>
-      <c r="B273" s="2">
-        <v>269</v>
-      </c>
-      <c r="C273" s="2">
-        <v>0</v>
-      </c>
-      <c r="D273" s="17">
-        <v>40</v>
-      </c>
-      <c r="E273" s="17">
-        <v>155</v>
-      </c>
-      <c r="F273" s="3" t="s">
+      <c r="C275" s="2">
+        <v>0</v>
+      </c>
+      <c r="D275" s="15">
+        <v>40</v>
+      </c>
+      <c r="E275" s="15">
+        <v>155</v>
+      </c>
+      <c r="F275" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="G273" s="20" t="s">
-        <v>335</v>
-      </c>
-      <c r="H273" s="19">
-        <v>101101</v>
-      </c>
-    </row>
-    <row r="274" s="3" customFormat="1" spans="1:8">
-      <c r="A274" s="2">
+      <c r="G275" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="H275" s="17">
+        <v>101102</v>
+      </c>
+    </row>
+    <row r="276" s="2" customFormat="1" spans="1:8">
+      <c r="A276" s="2">
+        <v>278</v>
+      </c>
+      <c r="B276" s="2">
         <v>274</v>
       </c>
-      <c r="B274" s="2">
-        <v>270</v>
-      </c>
-      <c r="C274" s="2">
-        <v>0</v>
-      </c>
-      <c r="D274" s="17">
-        <v>40</v>
-      </c>
-      <c r="E274" s="17">
-        <v>155</v>
-      </c>
-      <c r="F274" s="3" t="s">
+      <c r="C276" s="2">
+        <v>0</v>
+      </c>
+      <c r="D276" s="15">
+        <v>40</v>
+      </c>
+      <c r="E276" s="15">
+        <v>155</v>
+      </c>
+      <c r="F276" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="G274" s="20" t="s">
-        <v>335</v>
-      </c>
-      <c r="H274" s="19">
-        <v>101101</v>
-      </c>
-    </row>
-    <row r="275" s="3" customFormat="1" spans="1:8">
-      <c r="A275" s="2">
+      <c r="G276" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="H276" s="17">
+        <v>101102</v>
+      </c>
+    </row>
+    <row r="277" s="2" customFormat="1" spans="1:8">
+      <c r="A277" s="2">
+        <v>279</v>
+      </c>
+      <c r="B277" s="2">
         <v>275</v>
       </c>
-      <c r="B275" s="2">
-        <v>271</v>
-      </c>
-      <c r="C275" s="2">
-        <v>0</v>
-      </c>
-      <c r="D275" s="17">
-        <v>40</v>
-      </c>
-      <c r="E275" s="17">
-        <v>155</v>
-      </c>
-      <c r="F275" s="3" t="s">
+      <c r="C277" s="2">
+        <v>0</v>
+      </c>
+      <c r="D277" s="15">
+        <v>40</v>
+      </c>
+      <c r="E277" s="15">
+        <v>155</v>
+      </c>
+      <c r="F277" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="G277" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="G275" s="20" t="s">
-        <v>335</v>
-      </c>
-      <c r="H275" s="19">
-        <v>101101</v>
-      </c>
-    </row>
-    <row r="276" s="3" customFormat="1" spans="1:8">
-      <c r="A276" s="2">
+      <c r="H277" s="17">
+        <v>101102</v>
+      </c>
+    </row>
+    <row r="278" s="2" customFormat="1" spans="1:8">
+      <c r="A278" s="2">
+        <v>280</v>
+      </c>
+      <c r="B278" s="2">
         <v>276</v>
       </c>
-      <c r="B276" s="2">
-        <v>272</v>
-      </c>
-      <c r="C276" s="2">
-        <v>0</v>
-      </c>
-      <c r="D276" s="17">
-        <v>40</v>
-      </c>
-      <c r="E276" s="17">
-        <v>155</v>
-      </c>
-      <c r="F276" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="G276" s="20" t="s">
-        <v>335</v>
-      </c>
-      <c r="H276" s="19">
-        <v>101101</v>
-      </c>
-    </row>
-    <row r="277" s="3" customFormat="1" spans="1:8">
-      <c r="A277" s="2">
+      <c r="C278" s="2">
+        <v>0</v>
+      </c>
+      <c r="D278" s="15">
+        <v>40</v>
+      </c>
+      <c r="E278" s="15">
+        <v>155</v>
+      </c>
+      <c r="F278" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="G278" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="H278" s="17">
+        <v>101102</v>
+      </c>
+    </row>
+    <row r="279" s="2" customFormat="1" spans="1:8">
+      <c r="A279" s="2">
+        <v>281</v>
+      </c>
+      <c r="B279" s="2">
         <v>277</v>
       </c>
-      <c r="B277" s="2">
-        <v>273</v>
-      </c>
-      <c r="C277" s="2">
-        <v>0</v>
-      </c>
-      <c r="D277" s="17">
-        <v>40</v>
-      </c>
-      <c r="E277" s="17">
-        <v>155</v>
-      </c>
-      <c r="F277" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="G277" s="20" t="s">
-        <v>335</v>
-      </c>
-      <c r="H277" s="19">
+      <c r="C279" s="2">
+        <v>0</v>
+      </c>
+      <c r="D279" s="15">
+        <v>40</v>
+      </c>
+      <c r="E279" s="15">
+        <v>155</v>
+      </c>
+      <c r="F279" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="G279" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="H279" s="17">
         <v>101102</v>
       </c>
     </row>
-    <row r="278" s="3" customFormat="1" spans="1:8">
-      <c r="A278" s="2">
+    <row r="280" s="2" customFormat="1" spans="1:8">
+      <c r="A280" s="2">
+        <v>282</v>
+      </c>
+      <c r="B280" s="2">
         <v>278</v>
       </c>
-      <c r="B278" s="2">
-        <v>274</v>
-      </c>
-      <c r="C278" s="2">
-        <v>0</v>
-      </c>
-      <c r="D278" s="17">
-        <v>40</v>
-      </c>
-      <c r="E278" s="17">
-        <v>155</v>
-      </c>
-      <c r="F278" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="G278" s="20" t="s">
+      <c r="C280" s="2">
+        <v>0</v>
+      </c>
+      <c r="D280" s="15">
+        <v>40</v>
+      </c>
+      <c r="E280" s="15">
+        <v>155</v>
+      </c>
+      <c r="F280" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="H278" s="19">
+      <c r="G280" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="H280" s="17">
         <v>101102</v>
       </c>
     </row>
-    <row r="279" s="3" customFormat="1" spans="1:8">
-      <c r="A279" s="2">
+    <row r="281" s="2" customFormat="1" spans="1:8">
+      <c r="A281" s="2">
+        <v>283</v>
+      </c>
+      <c r="B281" s="2">
         <v>279</v>
       </c>
-      <c r="B279" s="2">
-        <v>275</v>
-      </c>
-      <c r="C279" s="2">
-        <v>0</v>
-      </c>
-      <c r="D279" s="17">
-        <v>40</v>
-      </c>
-      <c r="E279" s="17">
-        <v>155</v>
-      </c>
-      <c r="F279" s="3" t="s">
+      <c r="C281" s="2">
+        <v>0</v>
+      </c>
+      <c r="D281" s="15">
+        <v>40</v>
+      </c>
+      <c r="E281" s="15">
+        <v>155</v>
+      </c>
+      <c r="F281" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="G279" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="H279" s="19">
+      <c r="G281" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="H281" s="17">
         <v>101102</v>
       </c>
     </row>
-    <row r="280" s="3" customFormat="1" spans="1:8">
-      <c r="A280" s="2">
+    <row r="282" s="2" customFormat="1" spans="1:8">
+      <c r="A282" s="2">
+        <v>284</v>
+      </c>
+      <c r="B282" s="2">
         <v>280</v>
       </c>
-      <c r="B280" s="2">
-        <v>276</v>
-      </c>
-      <c r="C280" s="2">
-        <v>0</v>
-      </c>
-      <c r="D280" s="17">
-        <v>40</v>
-      </c>
-      <c r="E280" s="17">
-        <v>155</v>
-      </c>
-      <c r="F280" s="3" t="s">
+      <c r="C282" s="2">
+        <v>0</v>
+      </c>
+      <c r="D282" s="15">
+        <v>40</v>
+      </c>
+      <c r="E282" s="15">
+        <v>155</v>
+      </c>
+      <c r="F282" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="G280" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="H280" s="19">
+      <c r="G282" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="H282" s="17">
         <v>101102</v>
       </c>
     </row>
-    <row r="281" s="3" customFormat="1" spans="1:8">
-      <c r="A281" s="2">
+    <row r="283" s="2" customFormat="1" spans="1:8">
+      <c r="A283" s="2">
+        <v>285</v>
+      </c>
+      <c r="B283" s="2">
         <v>281</v>
       </c>
-      <c r="B281" s="2">
-        <v>277</v>
-      </c>
-      <c r="C281" s="2">
-        <v>0</v>
-      </c>
-      <c r="D281" s="17">
-        <v>40</v>
-      </c>
-      <c r="E281" s="17">
-        <v>155</v>
-      </c>
-      <c r="F281" s="3" t="s">
+      <c r="C283" s="2">
+        <v>0</v>
+      </c>
+      <c r="D283" s="15">
+        <v>40</v>
+      </c>
+      <c r="E283" s="15">
+        <v>155</v>
+      </c>
+      <c r="F283" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="G281" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="H281" s="19">
+      <c r="G283" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="H283" s="17">
         <v>101102</v>
       </c>
     </row>
-    <row r="282" s="3" customFormat="1" spans="1:8">
-      <c r="A282" s="2">
+    <row r="284" s="2" customFormat="1" spans="1:8">
+      <c r="A284" s="2">
+        <v>286</v>
+      </c>
+      <c r="B284" s="2">
         <v>282</v>
       </c>
-      <c r="B282" s="2">
-        <v>278</v>
-      </c>
-      <c r="C282" s="2">
-        <v>0</v>
-      </c>
-      <c r="D282" s="17">
-        <v>40</v>
-      </c>
-      <c r="E282" s="17">
-        <v>155</v>
-      </c>
-      <c r="F282" s="3" t="s">
+      <c r="C284" s="2">
+        <v>0</v>
+      </c>
+      <c r="D284" s="15">
+        <v>40</v>
+      </c>
+      <c r="E284" s="15">
+        <v>155</v>
+      </c>
+      <c r="F284" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="G282" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="H282" s="19">
+      <c r="G284" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="H284" s="17">
         <v>101102</v>
       </c>
     </row>
-    <row r="283" s="3" customFormat="1" spans="1:8">
-      <c r="A283" s="2">
+    <row r="285" s="1" customFormat="1" spans="1:8">
+      <c r="A285" s="1">
+        <v>287</v>
+      </c>
+      <c r="B285" s="1">
         <v>283</v>
       </c>
-      <c r="B283" s="2">
-        <v>279</v>
-      </c>
-      <c r="C283" s="2">
-        <v>0</v>
-      </c>
-      <c r="D283" s="17">
-        <v>40</v>
-      </c>
-      <c r="E283" s="17">
-        <v>155</v>
-      </c>
-      <c r="F283" s="3" t="s">
+      <c r="C285" s="1">
+        <v>0</v>
+      </c>
+      <c r="D285" s="12">
+        <v>10</v>
+      </c>
+      <c r="E285" s="12">
+        <v>155</v>
+      </c>
+      <c r="F285" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="G283" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="H283" s="19">
-        <v>101102</v>
-      </c>
-    </row>
-    <row r="284" s="3" customFormat="1" spans="1:8">
-      <c r="A284" s="2">
+      <c r="G285" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="H285" s="18">
+        <v>101110</v>
+      </c>
+    </row>
+    <row r="286" s="1" customFormat="1" spans="1:8">
+      <c r="A286" s="1">
+        <v>288</v>
+      </c>
+      <c r="B286" s="1">
         <v>284</v>
       </c>
-      <c r="B284" s="2">
-        <v>280</v>
-      </c>
-      <c r="C284" s="2">
-        <v>0</v>
-      </c>
-      <c r="D284" s="17">
-        <v>40</v>
-      </c>
-      <c r="E284" s="17">
-        <v>155</v>
-      </c>
-      <c r="F284" s="3" t="s">
+      <c r="C286" s="1">
+        <v>0</v>
+      </c>
+      <c r="D286" s="12">
+        <v>10</v>
+      </c>
+      <c r="E286" s="12">
+        <v>155</v>
+      </c>
+      <c r="F286" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="G286" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="G284" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="H284" s="19">
-        <v>101102</v>
-      </c>
-    </row>
-    <row r="285" s="3" customFormat="1" spans="1:8">
-      <c r="A285" s="2">
+      <c r="H286" s="18">
+        <v>101110</v>
+      </c>
+    </row>
+    <row r="287" s="1" customFormat="1" spans="1:8">
+      <c r="A287" s="1">
+        <v>289</v>
+      </c>
+      <c r="B287" s="1">
         <v>285</v>
       </c>
-      <c r="B285" s="2">
-        <v>281</v>
-      </c>
-      <c r="C285" s="2">
-        <v>0</v>
-      </c>
-      <c r="D285" s="17">
-        <v>40</v>
-      </c>
-      <c r="E285" s="17">
-        <v>155</v>
-      </c>
-      <c r="F285" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="G285" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="H285" s="19">
-        <v>101102</v>
-      </c>
-    </row>
-    <row r="286" s="3" customFormat="1" spans="1:8">
-      <c r="A286" s="2">
+      <c r="C287" s="1">
+        <v>0</v>
+      </c>
+      <c r="D287" s="12">
+        <v>10</v>
+      </c>
+      <c r="E287" s="12">
+        <v>155</v>
+      </c>
+      <c r="F287" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="G287" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="H287" s="18">
+        <v>101110</v>
+      </c>
+    </row>
+    <row r="288" s="1" customFormat="1" spans="1:8">
+      <c r="A288" s="1">
+        <v>290</v>
+      </c>
+      <c r="B288" s="1">
         <v>286</v>
       </c>
-      <c r="B286" s="2">
-        <v>282</v>
-      </c>
-      <c r="C286" s="2">
-        <v>0</v>
-      </c>
-      <c r="D286" s="17">
-        <v>40</v>
-      </c>
-      <c r="E286" s="17">
-        <v>155</v>
-      </c>
-      <c r="F286" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="G286" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="H286" s="19">
-        <v>101102</v>
+      <c r="C288" s="1">
+        <v>0</v>
+      </c>
+      <c r="D288" s="12">
+        <v>10</v>
+      </c>
+      <c r="E288" s="12">
+        <v>155</v>
+      </c>
+      <c r="F288" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="G288" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="H288" s="18">
+        <v>101110</v>
+      </c>
+    </row>
+    <row r="289" s="1" customFormat="1" spans="1:8">
+      <c r="A289" s="1">
+        <v>291</v>
+      </c>
+      <c r="B289" s="1">
+        <v>287</v>
+      </c>
+      <c r="C289" s="1">
+        <v>0</v>
+      </c>
+      <c r="D289" s="12">
+        <v>10</v>
+      </c>
+      <c r="E289" s="12">
+        <v>155</v>
+      </c>
+      <c r="F289" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="G289" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="H289" s="18">
+        <v>101110</v>
+      </c>
+    </row>
+    <row r="290" s="1" customFormat="1" spans="1:8">
+      <c r="A290" s="1">
+        <v>292</v>
+      </c>
+      <c r="B290" s="1">
+        <v>288</v>
+      </c>
+      <c r="C290" s="1">
+        <v>0</v>
+      </c>
+      <c r="D290" s="12">
+        <v>10</v>
+      </c>
+      <c r="E290" s="12">
+        <v>155</v>
+      </c>
+      <c r="F290" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="G290" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="H290" s="18">
+        <v>101110</v>
+      </c>
+    </row>
+    <row r="291" s="1" customFormat="1" spans="1:8">
+      <c r="A291" s="1">
+        <v>293</v>
+      </c>
+      <c r="B291" s="1">
+        <v>289</v>
+      </c>
+      <c r="C291" s="1">
+        <v>0</v>
+      </c>
+      <c r="D291" s="12">
+        <v>10</v>
+      </c>
+      <c r="E291" s="12">
+        <v>155</v>
+      </c>
+      <c r="F291" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="G291" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="H291" s="18">
+        <v>101110</v>
+      </c>
+    </row>
+    <row r="292" s="1" customFormat="1" spans="1:8">
+      <c r="A292" s="1">
+        <v>294</v>
+      </c>
+      <c r="B292" s="1">
+        <v>290</v>
+      </c>
+      <c r="C292" s="1">
+        <v>0</v>
+      </c>
+      <c r="D292" s="12">
+        <v>10</v>
+      </c>
+      <c r="E292" s="12">
+        <v>155</v>
+      </c>
+      <c r="F292" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="G292" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="H292" s="18">
+        <v>101110</v>
+      </c>
+    </row>
+    <row r="293" s="1" customFormat="1" spans="1:8">
+      <c r="A293" s="1">
+        <v>295</v>
+      </c>
+      <c r="B293" s="1">
+        <v>291</v>
+      </c>
+      <c r="C293" s="1">
+        <v>0</v>
+      </c>
+      <c r="D293" s="12">
+        <v>10</v>
+      </c>
+      <c r="E293" s="12">
+        <v>155</v>
+      </c>
+      <c r="F293" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="G293" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="H293" s="18">
+        <v>101110</v>
+      </c>
+    </row>
+    <row r="294" s="1" customFormat="1" spans="1:8">
+      <c r="A294" s="1">
+        <v>296</v>
+      </c>
+      <c r="B294" s="1">
+        <v>292</v>
+      </c>
+      <c r="C294" s="1">
+        <v>0</v>
+      </c>
+      <c r="D294" s="12">
+        <v>10</v>
+      </c>
+      <c r="E294" s="12">
+        <v>155</v>
+      </c>
+      <c r="F294" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="G294" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="H294" s="18">
+        <v>101110</v>
+      </c>
+    </row>
+    <row r="295" s="3" customFormat="1" spans="1:8">
+      <c r="A295" s="3">
+        <v>297</v>
+      </c>
+      <c r="B295" s="3">
+        <v>293</v>
+      </c>
+      <c r="C295" s="3">
+        <v>0</v>
+      </c>
+      <c r="D295" s="19">
+        <v>10</v>
+      </c>
+      <c r="E295" s="19">
+        <v>155</v>
+      </c>
+      <c r="F295" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="G295" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="H295" s="20">
+        <v>101108</v>
+      </c>
+    </row>
+    <row r="296" s="3" customFormat="1" spans="1:8">
+      <c r="A296" s="3">
+        <v>298</v>
+      </c>
+      <c r="B296" s="3">
+        <v>294</v>
+      </c>
+      <c r="C296" s="3">
+        <v>0</v>
+      </c>
+      <c r="D296" s="19">
+        <v>10</v>
+      </c>
+      <c r="E296" s="19">
+        <v>155</v>
+      </c>
+      <c r="F296" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="G296" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="H296" s="20">
+        <v>101108</v>
+      </c>
+    </row>
+    <row r="297" s="3" customFormat="1" spans="1:8">
+      <c r="A297" s="3">
+        <v>299</v>
+      </c>
+      <c r="B297" s="3">
+        <v>295</v>
+      </c>
+      <c r="C297" s="3">
+        <v>0</v>
+      </c>
+      <c r="D297" s="19">
+        <v>10</v>
+      </c>
+      <c r="E297" s="19">
+        <v>155</v>
+      </c>
+      <c r="F297" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="G297" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="H297" s="20">
+        <v>101108</v>
+      </c>
+    </row>
+    <row r="298" s="3" customFormat="1" spans="1:8">
+      <c r="A298" s="3">
+        <v>300</v>
+      </c>
+      <c r="B298" s="3">
+        <v>296</v>
+      </c>
+      <c r="C298" s="3">
+        <v>0</v>
+      </c>
+      <c r="D298" s="19">
+        <v>10</v>
+      </c>
+      <c r="E298" s="19">
+        <v>155</v>
+      </c>
+      <c r="F298" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="G298" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="H298" s="20">
+        <v>101108</v>
+      </c>
+    </row>
+    <row r="299" s="3" customFormat="1" spans="1:8">
+      <c r="A299" s="3">
+        <v>301</v>
+      </c>
+      <c r="B299" s="3">
+        <v>297</v>
+      </c>
+      <c r="C299" s="3">
+        <v>0</v>
+      </c>
+      <c r="D299" s="19">
+        <v>10</v>
+      </c>
+      <c r="E299" s="19">
+        <v>155</v>
+      </c>
+      <c r="F299" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="G299" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="H299" s="20">
+        <v>101108</v>
+      </c>
+    </row>
+    <row r="300" s="3" customFormat="1" spans="1:8">
+      <c r="A300" s="3">
+        <v>302</v>
+      </c>
+      <c r="B300" s="3">
+        <v>298</v>
+      </c>
+      <c r="C300" s="3">
+        <v>0</v>
+      </c>
+      <c r="D300" s="19">
+        <v>10</v>
+      </c>
+      <c r="E300" s="19">
+        <v>155</v>
+      </c>
+      <c r="F300" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="G300" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="H300" s="20">
+        <v>101108</v>
+      </c>
+    </row>
+    <row r="301" s="3" customFormat="1" spans="1:8">
+      <c r="A301" s="3">
+        <v>303</v>
+      </c>
+      <c r="B301" s="3">
+        <v>299</v>
+      </c>
+      <c r="C301" s="3">
+        <v>0</v>
+      </c>
+      <c r="D301" s="19">
+        <v>10</v>
+      </c>
+      <c r="E301" s="19">
+        <v>155</v>
+      </c>
+      <c r="F301" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="G301" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="H301" s="20">
+        <v>101108</v>
+      </c>
+    </row>
+    <row r="302" s="3" customFormat="1" spans="1:8">
+      <c r="A302" s="3">
+        <v>304</v>
+      </c>
+      <c r="B302" s="3">
+        <v>300</v>
+      </c>
+      <c r="C302" s="3">
+        <v>0</v>
+      </c>
+      <c r="D302" s="19">
+        <v>10</v>
+      </c>
+      <c r="E302" s="19">
+        <v>155</v>
+      </c>
+      <c r="F302" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="G302" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="H302" s="20">
+        <v>101108</v>
+      </c>
+    </row>
+    <row r="303" s="3" customFormat="1" spans="1:8">
+      <c r="A303" s="3">
+        <v>305</v>
+      </c>
+      <c r="B303" s="3">
+        <v>301</v>
+      </c>
+      <c r="C303" s="3">
+        <v>0</v>
+      </c>
+      <c r="D303" s="19">
+        <v>10</v>
+      </c>
+      <c r="E303" s="19">
+        <v>155</v>
+      </c>
+      <c r="F303" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="G303" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="H303" s="20">
+        <v>101108</v>
+      </c>
+    </row>
+    <row r="304" s="3" customFormat="1" spans="1:8">
+      <c r="A304" s="3">
+        <v>306</v>
+      </c>
+      <c r="B304" s="3">
+        <v>302</v>
+      </c>
+      <c r="C304" s="3">
+        <v>0</v>
+      </c>
+      <c r="D304" s="19">
+        <v>10</v>
+      </c>
+      <c r="E304" s="19">
+        <v>155</v>
+      </c>
+      <c r="F304" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="G304" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="H304" s="20">
+        <v>101108</v>
+      </c>
+    </row>
+    <row r="305" s="1" customFormat="1" spans="1:8">
+      <c r="A305" s="1">
+        <v>307</v>
+      </c>
+      <c r="B305" s="1">
+        <v>303</v>
+      </c>
+      <c r="C305" s="1">
+        <v>0</v>
+      </c>
+      <c r="D305" s="12">
+        <v>10</v>
+      </c>
+      <c r="E305" s="12">
+        <v>155</v>
+      </c>
+      <c r="F305" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="G305" t="s">
+        <v>375</v>
+      </c>
+      <c r="H305" s="21">
+        <v>101106</v>
+      </c>
+    </row>
+    <row r="306" s="1" customFormat="1" spans="1:8">
+      <c r="A306" s="1">
+        <v>308</v>
+      </c>
+      <c r="B306" s="1">
+        <v>304</v>
+      </c>
+      <c r="C306" s="1">
+        <v>0</v>
+      </c>
+      <c r="D306" s="12">
+        <v>10</v>
+      </c>
+      <c r="E306" s="12">
+        <v>155</v>
+      </c>
+      <c r="F306" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="G306" t="s">
+        <v>375</v>
+      </c>
+      <c r="H306" s="21">
+        <v>101106</v>
+      </c>
+    </row>
+    <row r="307" s="1" customFormat="1" spans="1:8">
+      <c r="A307" s="1">
+        <v>309</v>
+      </c>
+      <c r="B307" s="1">
+        <v>305</v>
+      </c>
+      <c r="C307" s="1">
+        <v>0</v>
+      </c>
+      <c r="D307" s="12">
+        <v>10</v>
+      </c>
+      <c r="E307" s="12">
+        <v>155</v>
+      </c>
+      <c r="F307" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="G307" t="s">
+        <v>375</v>
+      </c>
+      <c r="H307" s="21">
+        <v>101106</v>
+      </c>
+    </row>
+    <row r="308" s="1" customFormat="1" spans="1:8">
+      <c r="A308" s="1">
+        <v>310</v>
+      </c>
+      <c r="B308" s="1">
+        <v>306</v>
+      </c>
+      <c r="C308" s="1">
+        <v>0</v>
+      </c>
+      <c r="D308" s="12">
+        <v>10</v>
+      </c>
+      <c r="E308" s="12">
+        <v>155</v>
+      </c>
+      <c r="F308" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="G308" t="s">
+        <v>375</v>
+      </c>
+      <c r="H308" s="21">
+        <v>101106</v>
+      </c>
+    </row>
+    <row r="309" s="1" customFormat="1" spans="1:8">
+      <c r="A309" s="1">
+        <v>311</v>
+      </c>
+      <c r="B309" s="1">
+        <v>307</v>
+      </c>
+      <c r="C309" s="1">
+        <v>0</v>
+      </c>
+      <c r="D309" s="12">
+        <v>10</v>
+      </c>
+      <c r="E309" s="12">
+        <v>155</v>
+      </c>
+      <c r="F309" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="G309" t="s">
+        <v>375</v>
+      </c>
+      <c r="H309" s="21">
+        <v>101106</v>
+      </c>
+    </row>
+    <row r="310" s="1" customFormat="1" spans="1:8">
+      <c r="A310" s="1">
+        <v>312</v>
+      </c>
+      <c r="B310" s="1">
+        <v>308</v>
+      </c>
+      <c r="C310" s="1">
+        <v>0</v>
+      </c>
+      <c r="D310" s="12">
+        <v>10</v>
+      </c>
+      <c r="E310" s="12">
+        <v>155</v>
+      </c>
+      <c r="F310" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="G310" t="s">
+        <v>375</v>
+      </c>
+      <c r="H310" s="21">
+        <v>101106</v>
+      </c>
+    </row>
+    <row r="311" s="1" customFormat="1" spans="1:8">
+      <c r="A311" s="1">
+        <v>313</v>
+      </c>
+      <c r="B311" s="1">
+        <v>309</v>
+      </c>
+      <c r="C311" s="1">
+        <v>0</v>
+      </c>
+      <c r="D311" s="12">
+        <v>10</v>
+      </c>
+      <c r="E311" s="12">
+        <v>155</v>
+      </c>
+      <c r="F311" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="G311" t="s">
+        <v>375</v>
+      </c>
+      <c r="H311" s="21">
+        <v>101106</v>
+      </c>
+    </row>
+    <row r="312" s="1" customFormat="1" spans="1:8">
+      <c r="A312" s="1">
+        <v>314</v>
+      </c>
+      <c r="B312" s="1">
+        <v>310</v>
+      </c>
+      <c r="C312" s="1">
+        <v>0</v>
+      </c>
+      <c r="D312" s="12">
+        <v>10</v>
+      </c>
+      <c r="E312" s="12">
+        <v>155</v>
+      </c>
+      <c r="F312" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="G312" t="s">
+        <v>375</v>
+      </c>
+      <c r="H312" s="21">
+        <v>101106</v>
+      </c>
+    </row>
+    <row r="313" s="1" customFormat="1" spans="1:8">
+      <c r="A313" s="1">
+        <v>315</v>
+      </c>
+      <c r="B313" s="1">
+        <v>311</v>
+      </c>
+      <c r="C313" s="1">
+        <v>0</v>
+      </c>
+      <c r="D313" s="12">
+        <v>10</v>
+      </c>
+      <c r="E313" s="12">
+        <v>155</v>
+      </c>
+      <c r="F313" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="G313" t="s">
+        <v>375</v>
+      </c>
+      <c r="H313" s="21">
+        <v>101106</v>
+      </c>
+    </row>
+    <row r="314" s="1" customFormat="1" spans="1:8">
+      <c r="A314" s="1">
+        <v>316</v>
+      </c>
+      <c r="B314" s="1">
+        <v>312</v>
+      </c>
+      <c r="C314" s="1">
+        <v>0</v>
+      </c>
+      <c r="D314" s="12">
+        <v>10</v>
+      </c>
+      <c r="E314" s="12">
+        <v>155</v>
+      </c>
+      <c r="F314" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="G314" t="s">
+        <v>385</v>
+      </c>
+      <c r="H314" s="21">
+        <v>101106</v>
       </c>
     </row>
   </sheetData>
